--- a/BackTest/2020-01-22 BackTest ZEC.xlsx
+++ b/BackTest/2020-01-22 BackTest ZEC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M203"/>
+  <dimension ref="A1:M204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>61650</v>
+        <v>61800</v>
       </c>
       <c r="C2" t="n">
-        <v>62200</v>
+        <v>61600</v>
       </c>
       <c r="D2" t="n">
         <v>62200</v>
       </c>
       <c r="E2" t="n">
-        <v>61650</v>
+        <v>61600</v>
       </c>
       <c r="F2" t="n">
-        <v>15.4</v>
+        <v>32.0803</v>
       </c>
       <c r="G2" t="n">
-        <v>62008.33333333334</v>
+        <v>62013.33333333334</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>62300</v>
+        <v>61650</v>
       </c>
       <c r="C3" t="n">
-        <v>62300</v>
+        <v>62200</v>
       </c>
       <c r="D3" t="n">
-        <v>62300</v>
+        <v>62200</v>
       </c>
       <c r="E3" t="n">
-        <v>62300</v>
+        <v>61650</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1</v>
+        <v>15.4</v>
       </c>
       <c r="G3" t="n">
-        <v>62010</v>
+        <v>62008.33333333334</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>62500</v>
+        <v>62300</v>
       </c>
       <c r="C4" t="n">
-        <v>62500</v>
+        <v>62300</v>
       </c>
       <c r="D4" t="n">
-        <v>62500</v>
+        <v>62300</v>
       </c>
       <c r="E4" t="n">
-        <v>62500</v>
+        <v>62300</v>
       </c>
       <c r="F4" t="n">
-        <v>1.1969</v>
+        <v>0.1</v>
       </c>
       <c r="G4" t="n">
-        <v>62016.66666666666</v>
+        <v>62010</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>62400</v>
+        <v>62500</v>
       </c>
       <c r="C5" t="n">
-        <v>62400</v>
+        <v>62500</v>
       </c>
       <c r="D5" t="n">
-        <v>62400</v>
+        <v>62500</v>
       </c>
       <c r="E5" t="n">
-        <v>62400</v>
+        <v>62500</v>
       </c>
       <c r="F5" t="n">
-        <v>0.85</v>
+        <v>1.1969</v>
       </c>
       <c r="G5" t="n">
-        <v>62029.16666666666</v>
+        <v>62016.66666666666</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>61900</v>
+        <v>62400</v>
       </c>
       <c r="C6" t="n">
-        <v>62000</v>
+        <v>62400</v>
       </c>
       <c r="D6" t="n">
-        <v>62050</v>
+        <v>62400</v>
       </c>
       <c r="E6" t="n">
-        <v>61900</v>
+        <v>62400</v>
       </c>
       <c r="F6" t="n">
-        <v>95.10850000000001</v>
+        <v>0.85</v>
       </c>
       <c r="G6" t="n">
-        <v>62028.33333333334</v>
+        <v>62029.16666666666</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>62000</v>
+        <v>61900</v>
       </c>
       <c r="C7" t="n">
         <v>62000</v>
       </c>
       <c r="D7" t="n">
-        <v>62000</v>
+        <v>62050</v>
       </c>
       <c r="E7" t="n">
-        <v>62000</v>
+        <v>61900</v>
       </c>
       <c r="F7" t="n">
-        <v>5.4321</v>
+        <v>95.10850000000001</v>
       </c>
       <c r="G7" t="n">
-        <v>62027.5</v>
+        <v>62028.33333333334</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>61900</v>
+        <v>62000</v>
       </c>
       <c r="C8" t="n">
-        <v>61800</v>
+        <v>62000</v>
       </c>
       <c r="D8" t="n">
-        <v>61900</v>
+        <v>62000</v>
       </c>
       <c r="E8" t="n">
-        <v>61800</v>
+        <v>62000</v>
       </c>
       <c r="F8" t="n">
-        <v>8.2332</v>
+        <v>5.4321</v>
       </c>
       <c r="G8" t="n">
-        <v>62030.83333333334</v>
+        <v>62027.5</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>61800</v>
+        <v>61900</v>
       </c>
       <c r="C9" t="n">
         <v>61800</v>
       </c>
       <c r="D9" t="n">
-        <v>61800</v>
+        <v>61900</v>
       </c>
       <c r="E9" t="n">
         <v>61800</v>
       </c>
       <c r="F9" t="n">
-        <v>59.0024</v>
+        <v>8.2332</v>
       </c>
       <c r="G9" t="n">
-        <v>62034.16666666666</v>
+        <v>62030.83333333334</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,19 +713,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>61850</v>
+        <v>61800</v>
       </c>
       <c r="C10" t="n">
         <v>61800</v>
       </c>
       <c r="D10" t="n">
-        <v>61850</v>
+        <v>61800</v>
       </c>
       <c r="E10" t="n">
         <v>61800</v>
       </c>
       <c r="F10" t="n">
-        <v>24.5284</v>
+        <v>59.0024</v>
       </c>
       <c r="G10" t="n">
         <v>62034.16666666666</v>
@@ -748,19 +748,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>61800</v>
+        <v>61850</v>
       </c>
       <c r="C11" t="n">
         <v>61800</v>
       </c>
       <c r="D11" t="n">
-        <v>61800</v>
+        <v>61850</v>
       </c>
       <c r="E11" t="n">
         <v>61800</v>
       </c>
       <c r="F11" t="n">
-        <v>24.5285</v>
+        <v>24.5284</v>
       </c>
       <c r="G11" t="n">
         <v>62034.16666666666</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>61750</v>
+        <v>61800</v>
       </c>
       <c r="C12" t="n">
-        <v>61700</v>
+        <v>61800</v>
       </c>
       <c r="D12" t="n">
-        <v>61750</v>
+        <v>61800</v>
       </c>
       <c r="E12" t="n">
-        <v>61700</v>
+        <v>61800</v>
       </c>
       <c r="F12" t="n">
-        <v>8.2333</v>
+        <v>24.5285</v>
       </c>
       <c r="G12" t="n">
-        <v>62032.5</v>
+        <v>62034.16666666666</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>61700</v>
       </c>
       <c r="F13" t="n">
-        <v>63.3156</v>
+        <v>8.2333</v>
       </c>
       <c r="G13" t="n">
-        <v>62030.83333333334</v>
+        <v>62032.5</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>61700</v>
+        <v>61750</v>
       </c>
       <c r="C14" t="n">
         <v>61700</v>
       </c>
       <c r="D14" t="n">
-        <v>61700</v>
+        <v>61750</v>
       </c>
       <c r="E14" t="n">
         <v>61700</v>
       </c>
       <c r="F14" t="n">
-        <v>2.5548</v>
+        <v>63.3156</v>
       </c>
       <c r="G14" t="n">
-        <v>62024.16666666666</v>
+        <v>62030.83333333334</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>61700</v>
       </c>
       <c r="C15" t="n">
-        <v>61900</v>
+        <v>61700</v>
       </c>
       <c r="D15" t="n">
-        <v>61900</v>
+        <v>61700</v>
       </c>
       <c r="E15" t="n">
         <v>61700</v>
       </c>
       <c r="F15" t="n">
-        <v>1.8547</v>
+        <v>2.5548</v>
       </c>
       <c r="G15" t="n">
-        <v>62032.5</v>
+        <v>62024.16666666666</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>61850</v>
+        <v>61700</v>
       </c>
       <c r="C16" t="n">
-        <v>61850</v>
+        <v>61900</v>
       </c>
       <c r="D16" t="n">
-        <v>61850</v>
+        <v>61900</v>
       </c>
       <c r="E16" t="n">
-        <v>61850</v>
+        <v>61700</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8376</v>
+        <v>1.8547</v>
       </c>
       <c r="G16" t="n">
-        <v>62040</v>
+        <v>62032.5</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>61750</v>
+        <v>61850</v>
       </c>
       <c r="C17" t="n">
-        <v>61650</v>
+        <v>61850</v>
       </c>
       <c r="D17" t="n">
-        <v>61750</v>
+        <v>61850</v>
       </c>
       <c r="E17" t="n">
-        <v>61650</v>
+        <v>61850</v>
       </c>
       <c r="F17" t="n">
-        <v>19.6915</v>
+        <v>0.8376</v>
       </c>
       <c r="G17" t="n">
-        <v>62047.5</v>
+        <v>62040</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>61650</v>
+        <v>61750</v>
       </c>
       <c r="C18" t="n">
         <v>61650</v>
       </c>
       <c r="D18" t="n">
-        <v>61650</v>
+        <v>61750</v>
       </c>
       <c r="E18" t="n">
         <v>61650</v>
       </c>
       <c r="F18" t="n">
-        <v>8.6114</v>
+        <v>19.6915</v>
       </c>
       <c r="G18" t="n">
-        <v>62046.66666666666</v>
+        <v>62047.5</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>61650</v>
       </c>
       <c r="F19" t="n">
-        <v>16.1048</v>
+        <v>8.6114</v>
       </c>
       <c r="G19" t="n">
         <v>62046.66666666666</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>61850</v>
+        <v>61650</v>
       </c>
       <c r="C20" t="n">
-        <v>61850</v>
+        <v>61650</v>
       </c>
       <c r="D20" t="n">
-        <v>61850</v>
+        <v>61650</v>
       </c>
       <c r="E20" t="n">
-        <v>61850</v>
+        <v>61650</v>
       </c>
       <c r="F20" t="n">
-        <v>0.98</v>
+        <v>16.1048</v>
       </c>
       <c r="G20" t="n">
-        <v>62050</v>
+        <v>62046.66666666666</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>61850</v>
       </c>
       <c r="C21" t="n">
-        <v>61900</v>
+        <v>61850</v>
       </c>
       <c r="D21" t="n">
-        <v>61900</v>
+        <v>61850</v>
       </c>
       <c r="E21" t="n">
         <v>61850</v>
       </c>
       <c r="F21" t="n">
-        <v>11.3832</v>
+        <v>0.98</v>
       </c>
       <c r="G21" t="n">
-        <v>62057.5</v>
+        <v>62050</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>61950</v>
+        <v>61850</v>
       </c>
       <c r="C22" t="n">
-        <v>61950</v>
+        <v>61900</v>
       </c>
       <c r="D22" t="n">
-        <v>62000</v>
+        <v>61900</v>
       </c>
       <c r="E22" t="n">
-        <v>61950</v>
+        <v>61850</v>
       </c>
       <c r="F22" t="n">
-        <v>7.6977</v>
+        <v>11.3832</v>
       </c>
       <c r="G22" t="n">
-        <v>62062.5</v>
+        <v>62057.5</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>61900</v>
+        <v>61950</v>
       </c>
       <c r="C23" t="n">
-        <v>61900</v>
+        <v>61950</v>
       </c>
       <c r="D23" t="n">
-        <v>61900</v>
+        <v>62000</v>
       </c>
       <c r="E23" t="n">
-        <v>61900</v>
+        <v>61950</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0086</v>
+        <v>7.6977</v>
       </c>
       <c r="G23" t="n">
-        <v>62076.66666666666</v>
+        <v>62062.5</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>61850</v>
+        <v>61900</v>
       </c>
       <c r="C24" t="n">
-        <v>61850</v>
+        <v>61900</v>
       </c>
       <c r="D24" t="n">
-        <v>61850</v>
+        <v>61900</v>
       </c>
       <c r="E24" t="n">
-        <v>61850</v>
+        <v>61900</v>
       </c>
       <c r="F24" t="n">
-        <v>0.4578</v>
+        <v>0.0086</v>
       </c>
       <c r="G24" t="n">
-        <v>62090.83333333334</v>
+        <v>62076.66666666666</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,7 +1238,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>61750</v>
+        <v>61850</v>
       </c>
       <c r="C25" t="n">
         <v>61850</v>
@@ -1247,13 +1247,13 @@
         <v>61850</v>
       </c>
       <c r="E25" t="n">
-        <v>61750</v>
+        <v>61850</v>
       </c>
       <c r="F25" t="n">
-        <v>1.5581</v>
+        <v>0.4578</v>
       </c>
       <c r="G25" t="n">
-        <v>62100.83333333334</v>
+        <v>62090.83333333334</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
+        <v>61750</v>
+      </c>
+      <c r="C26" t="n">
         <v>61850</v>
       </c>
-      <c r="C26" t="n">
-        <v>62000</v>
-      </c>
       <c r="D26" t="n">
-        <v>62000</v>
+        <v>61850</v>
       </c>
       <c r="E26" t="n">
-        <v>61850</v>
+        <v>61750</v>
       </c>
       <c r="F26" t="n">
-        <v>2.7583</v>
+        <v>1.5581</v>
       </c>
       <c r="G26" t="n">
-        <v>62114.16666666666</v>
+        <v>62100.83333333334</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>62000</v>
+        <v>61850</v>
       </c>
       <c r="C27" t="n">
         <v>62000</v>
@@ -1317,13 +1317,13 @@
         <v>62000</v>
       </c>
       <c r="E27" t="n">
-        <v>62000</v>
+        <v>61850</v>
       </c>
       <c r="F27" t="n">
-        <v>1.1241</v>
+        <v>2.7583</v>
       </c>
       <c r="G27" t="n">
-        <v>62128.33333333334</v>
+        <v>62114.16666666666</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1346,19 +1346,19 @@
         <v>62000</v>
       </c>
       <c r="C28" t="n">
-        <v>62100</v>
+        <v>62000</v>
       </c>
       <c r="D28" t="n">
-        <v>62100</v>
+        <v>62000</v>
       </c>
       <c r="E28" t="n">
         <v>62000</v>
       </c>
       <c r="F28" t="n">
-        <v>0.3506</v>
+        <v>1.1241</v>
       </c>
       <c r="G28" t="n">
-        <v>62141.66666666666</v>
+        <v>62128.33333333334</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
+        <v>62000</v>
+      </c>
+      <c r="C29" t="n">
         <v>62100</v>
       </c>
-      <c r="C29" t="n">
-        <v>62350</v>
-      </c>
       <c r="D29" t="n">
-        <v>62350</v>
+        <v>62100</v>
       </c>
       <c r="E29" t="n">
-        <v>62100</v>
+        <v>62000</v>
       </c>
       <c r="F29" t="n">
-        <v>5.042</v>
+        <v>0.3506</v>
       </c>
       <c r="G29" t="n">
-        <v>62163.33333333334</v>
+        <v>62141.66666666666</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,7 +1413,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>62350</v>
+        <v>62100</v>
       </c>
       <c r="C30" t="n">
         <v>62350</v>
@@ -1422,13 +1422,13 @@
         <v>62350</v>
       </c>
       <c r="E30" t="n">
-        <v>62350</v>
+        <v>62100</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0214</v>
+        <v>5.042</v>
       </c>
       <c r="G30" t="n">
-        <v>62174.16666666666</v>
+        <v>62163.33333333334</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1460,10 +1460,10 @@
         <v>62350</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0043</v>
+        <v>0.0214</v>
       </c>
       <c r="G31" t="n">
-        <v>62183.33333333334</v>
+        <v>62174.16666666666</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>62600</v>
+        <v>62350</v>
       </c>
       <c r="C32" t="n">
-        <v>62650</v>
+        <v>62350</v>
       </c>
       <c r="D32" t="n">
-        <v>62650</v>
+        <v>62350</v>
       </c>
       <c r="E32" t="n">
-        <v>62600</v>
+        <v>62350</v>
       </c>
       <c r="F32" t="n">
-        <v>10.8317</v>
+        <v>0.0043</v>
       </c>
       <c r="G32" t="n">
-        <v>62195.83333333334</v>
+        <v>62183.33333333334</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,7 +1518,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>62650</v>
+        <v>62600</v>
       </c>
       <c r="C33" t="n">
         <v>62650</v>
@@ -1527,13 +1527,13 @@
         <v>62650</v>
       </c>
       <c r="E33" t="n">
-        <v>62650</v>
+        <v>62600</v>
       </c>
       <c r="F33" t="n">
-        <v>9.1683</v>
+        <v>10.8317</v>
       </c>
       <c r="G33" t="n">
-        <v>62200.83333333334</v>
+        <v>62195.83333333334</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>62350</v>
+        <v>62650</v>
       </c>
       <c r="C34" t="n">
-        <v>62350</v>
+        <v>62650</v>
       </c>
       <c r="D34" t="n">
-        <v>62350</v>
+        <v>62650</v>
       </c>
       <c r="E34" t="n">
-        <v>62350</v>
+        <v>62650</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0121</v>
+        <v>9.1683</v>
       </c>
       <c r="G34" t="n">
-        <v>62196.66666666666</v>
+        <v>62200.83333333334</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>62650</v>
+        <v>62350</v>
       </c>
       <c r="C35" t="n">
-        <v>62750</v>
+        <v>62350</v>
       </c>
       <c r="D35" t="n">
-        <v>62750</v>
+        <v>62350</v>
       </c>
       <c r="E35" t="n">
-        <v>62650</v>
+        <v>62350</v>
       </c>
       <c r="F35" t="n">
-        <v>23.8</v>
+        <v>0.0121</v>
       </c>
       <c r="G35" t="n">
-        <v>62195</v>
+        <v>62196.66666666666</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
+        <v>62650</v>
+      </c>
+      <c r="C36" t="n">
         <v>62750</v>
       </c>
-      <c r="C36" t="n">
-        <v>62850</v>
-      </c>
       <c r="D36" t="n">
-        <v>62850</v>
+        <v>62750</v>
       </c>
       <c r="E36" t="n">
         <v>62650</v>
       </c>
       <c r="F36" t="n">
-        <v>17.0586</v>
+        <v>23.8</v>
       </c>
       <c r="G36" t="n">
-        <v>62197.5</v>
+        <v>62195</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
+        <v>62750</v>
+      </c>
+      <c r="C37" t="n">
         <v>62850</v>
       </c>
-      <c r="C37" t="n">
-        <v>62900</v>
-      </c>
       <c r="D37" t="n">
-        <v>62900</v>
+        <v>62850</v>
       </c>
       <c r="E37" t="n">
-        <v>62850</v>
+        <v>62650</v>
       </c>
       <c r="F37" t="n">
-        <v>8.570600000000001</v>
+        <v>17.0586</v>
       </c>
       <c r="G37" t="n">
-        <v>62198.33333333334</v>
+        <v>62197.5</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,7 +1693,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>62900</v>
+        <v>62850</v>
       </c>
       <c r="C38" t="n">
         <v>62900</v>
@@ -1702,10 +1702,10 @@
         <v>62900</v>
       </c>
       <c r="E38" t="n">
-        <v>62900</v>
+        <v>62850</v>
       </c>
       <c r="F38" t="n">
-        <v>4.2336</v>
+        <v>8.570600000000001</v>
       </c>
       <c r="G38" t="n">
         <v>62198.33333333334</v>
@@ -1731,19 +1731,19 @@
         <v>62900</v>
       </c>
       <c r="C39" t="n">
-        <v>62700</v>
+        <v>62900</v>
       </c>
       <c r="D39" t="n">
-        <v>63100</v>
+        <v>62900</v>
       </c>
       <c r="E39" t="n">
-        <v>62700</v>
+        <v>62900</v>
       </c>
       <c r="F39" t="n">
-        <v>5.93</v>
+        <v>4.2336</v>
       </c>
       <c r="G39" t="n">
-        <v>62195.83333333334</v>
+        <v>62198.33333333334</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,19 +1763,19 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>62800</v>
+        <v>62900</v>
       </c>
       <c r="C40" t="n">
-        <v>62850</v>
+        <v>62700</v>
       </c>
       <c r="D40" t="n">
-        <v>62850</v>
+        <v>63100</v>
       </c>
       <c r="E40" t="n">
-        <v>62800</v>
+        <v>62700</v>
       </c>
       <c r="F40" t="n">
-        <v>3.3373</v>
+        <v>5.93</v>
       </c>
       <c r="G40" t="n">
         <v>62195.83333333334</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>62600</v>
+        <v>62800</v>
       </c>
       <c r="C41" t="n">
-        <v>62600</v>
+        <v>62850</v>
       </c>
       <c r="D41" t="n">
-        <v>62600</v>
+        <v>62850</v>
       </c>
       <c r="E41" t="n">
-        <v>62600</v>
+        <v>62800</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0798722</v>
+        <v>3.3373</v>
       </c>
       <c r="G41" t="n">
-        <v>62192.5</v>
+        <v>62195.83333333334</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>62700</v>
+        <v>62600</v>
       </c>
       <c r="C42" t="n">
-        <v>62700</v>
+        <v>62600</v>
       </c>
       <c r="D42" t="n">
-        <v>62700</v>
+        <v>62600</v>
       </c>
       <c r="E42" t="n">
-        <v>62700</v>
+        <v>62600</v>
       </c>
       <c r="F42" t="n">
-        <v>3.0837</v>
+        <v>0.0798722</v>
       </c>
       <c r="G42" t="n">
-        <v>62194.16666666666</v>
+        <v>62192.5</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>62300</v>
+        <v>62700</v>
       </c>
       <c r="C43" t="n">
-        <v>62300</v>
+        <v>62700</v>
       </c>
       <c r="D43" t="n">
-        <v>62300</v>
+        <v>62700</v>
       </c>
       <c r="E43" t="n">
-        <v>62300</v>
+        <v>62700</v>
       </c>
       <c r="F43" t="n">
-        <v>16</v>
+        <v>3.0837</v>
       </c>
       <c r="G43" t="n">
-        <v>62189.16666666666</v>
+        <v>62194.16666666666</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>62250</v>
+        <v>62300</v>
       </c>
       <c r="C44" t="n">
-        <v>62250</v>
+        <v>62300</v>
       </c>
       <c r="D44" t="n">
-        <v>62250</v>
+        <v>62300</v>
       </c>
       <c r="E44" t="n">
-        <v>62250</v>
+        <v>62300</v>
       </c>
       <c r="F44" t="n">
-        <v>2.8195</v>
+        <v>16</v>
       </c>
       <c r="G44" t="n">
-        <v>62190</v>
+        <v>62189.16666666666</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>62200</v>
+        <v>62250</v>
       </c>
       <c r="C45" t="n">
-        <v>62200</v>
+        <v>62250</v>
       </c>
       <c r="D45" t="n">
-        <v>62200</v>
+        <v>62250</v>
       </c>
       <c r="E45" t="n">
-        <v>62200</v>
+        <v>62250</v>
       </c>
       <c r="F45" t="n">
-        <v>1.8603</v>
+        <v>2.8195</v>
       </c>
       <c r="G45" t="n">
-        <v>62191.66666666666</v>
+        <v>62190</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>61750</v>
+        <v>62200</v>
       </c>
       <c r="C46" t="n">
-        <v>61650</v>
+        <v>62200</v>
       </c>
       <c r="D46" t="n">
-        <v>61750</v>
+        <v>62200</v>
       </c>
       <c r="E46" t="n">
-        <v>61650</v>
+        <v>62200</v>
       </c>
       <c r="F46" t="n">
-        <v>1.073</v>
+        <v>1.8603</v>
       </c>
       <c r="G46" t="n">
-        <v>62182.5</v>
+        <v>62191.66666666666</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>61500</v>
+        <v>61750</v>
       </c>
       <c r="C47" t="n">
-        <v>61350</v>
+        <v>61650</v>
       </c>
       <c r="D47" t="n">
-        <v>61500</v>
+        <v>61750</v>
       </c>
       <c r="E47" t="n">
-        <v>61350</v>
+        <v>61650</v>
       </c>
       <c r="F47" t="n">
-        <v>11.91</v>
+        <v>1.073</v>
       </c>
       <c r="G47" t="n">
-        <v>62168.33333333334</v>
+        <v>62182.5</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>61100</v>
+        <v>61500</v>
       </c>
       <c r="C48" t="n">
-        <v>60950</v>
+        <v>61350</v>
       </c>
       <c r="D48" t="n">
-        <v>61200</v>
+        <v>61500</v>
       </c>
       <c r="E48" t="n">
-        <v>60950</v>
+        <v>61350</v>
       </c>
       <c r="F48" t="n">
-        <v>6.0374</v>
+        <v>11.91</v>
       </c>
       <c r="G48" t="n">
-        <v>62140.83333333334</v>
+        <v>62168.33333333334</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>61500</v>
+        <v>61100</v>
       </c>
       <c r="C49" t="n">
-        <v>61500</v>
+        <v>60950</v>
       </c>
       <c r="D49" t="n">
-        <v>61500</v>
+        <v>61200</v>
       </c>
       <c r="E49" t="n">
-        <v>61500</v>
+        <v>60950</v>
       </c>
       <c r="F49" t="n">
-        <v>11.9999</v>
+        <v>6.0374</v>
       </c>
       <c r="G49" t="n">
-        <v>62122.5</v>
+        <v>62140.83333333334</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>61500</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0001</v>
+        <v>11.9999</v>
       </c>
       <c r="G50" t="n">
-        <v>62104.16666666666</v>
+        <v>62122.5</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>61350</v>
+        <v>61500</v>
       </c>
       <c r="C51" t="n">
-        <v>61300</v>
+        <v>61500</v>
       </c>
       <c r="D51" t="n">
-        <v>61350</v>
+        <v>61500</v>
       </c>
       <c r="E51" t="n">
-        <v>61300</v>
+        <v>61500</v>
       </c>
       <c r="F51" t="n">
-        <v>2.0083</v>
+        <v>0.0001</v>
       </c>
       <c r="G51" t="n">
-        <v>62082.5</v>
+        <v>62104.16666666666</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>61500</v>
+        <v>61350</v>
       </c>
       <c r="C52" t="n">
-        <v>61500</v>
+        <v>61300</v>
       </c>
       <c r="D52" t="n">
-        <v>61500</v>
+        <v>61350</v>
       </c>
       <c r="E52" t="n">
-        <v>61500</v>
+        <v>61300</v>
       </c>
       <c r="F52" t="n">
-        <v>33.1003</v>
+        <v>2.0083</v>
       </c>
       <c r="G52" t="n">
-        <v>62061.66666666666</v>
+        <v>62082.5</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2230,10 +2230,10 @@
         <v>61500</v>
       </c>
       <c r="F53" t="n">
-        <v>9.1028</v>
+        <v>33.1003</v>
       </c>
       <c r="G53" t="n">
-        <v>62045</v>
+        <v>62061.66666666666</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>61350</v>
+        <v>61500</v>
       </c>
       <c r="C54" t="n">
-        <v>61350</v>
+        <v>61500</v>
       </c>
       <c r="D54" t="n">
-        <v>61350</v>
+        <v>61500</v>
       </c>
       <c r="E54" t="n">
-        <v>61350</v>
+        <v>61500</v>
       </c>
       <c r="F54" t="n">
-        <v>2</v>
+        <v>9.1028</v>
       </c>
       <c r="G54" t="n">
-        <v>62032.5</v>
+        <v>62045</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>60950</v>
+        <v>61350</v>
       </c>
       <c r="C55" t="n">
-        <v>61050</v>
+        <v>61350</v>
       </c>
       <c r="D55" t="n">
-        <v>61050</v>
+        <v>61350</v>
       </c>
       <c r="E55" t="n">
-        <v>60950</v>
+        <v>61350</v>
       </c>
       <c r="F55" t="n">
-        <v>7.9805</v>
+        <v>2</v>
       </c>
       <c r="G55" t="n">
-        <v>62015</v>
+        <v>62032.5</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>61000</v>
+        <v>60950</v>
       </c>
       <c r="C56" t="n">
-        <v>61000</v>
+        <v>61050</v>
       </c>
       <c r="D56" t="n">
-        <v>61000</v>
+        <v>61050</v>
       </c>
       <c r="E56" t="n">
-        <v>61000</v>
+        <v>60950</v>
       </c>
       <c r="F56" t="n">
-        <v>12.9212</v>
+        <v>7.9805</v>
       </c>
       <c r="G56" t="n">
-        <v>61995.83333333334</v>
+        <v>62015</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2370,10 +2370,10 @@
         <v>61000</v>
       </c>
       <c r="F57" t="n">
-        <v>9.097799999999999</v>
+        <v>12.9212</v>
       </c>
       <c r="G57" t="n">
-        <v>61976.66666666666</v>
+        <v>61995.83333333334</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>60950</v>
+        <v>61000</v>
       </c>
       <c r="C58" t="n">
-        <v>60700</v>
+        <v>61000</v>
       </c>
       <c r="D58" t="n">
-        <v>60950</v>
+        <v>61000</v>
       </c>
       <c r="E58" t="n">
-        <v>60500</v>
+        <v>61000</v>
       </c>
       <c r="F58" t="n">
-        <v>14.3581</v>
+        <v>9.097799999999999</v>
       </c>
       <c r="G58" t="n">
-        <v>61951.66666666666</v>
+        <v>61976.66666666666</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>60500</v>
+        <v>60950</v>
       </c>
       <c r="C59" t="n">
-        <v>60500</v>
+        <v>60700</v>
       </c>
       <c r="D59" t="n">
-        <v>60500</v>
+        <v>60950</v>
       </c>
       <c r="E59" t="n">
         <v>60500</v>
       </c>
       <c r="F59" t="n">
-        <v>16.5585</v>
+        <v>14.3581</v>
       </c>
       <c r="G59" t="n">
-        <v>61929.16666666666</v>
+        <v>61951.66666666666</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>60450</v>
+        <v>60500</v>
       </c>
       <c r="C60" t="n">
-        <v>60450</v>
+        <v>60500</v>
       </c>
       <c r="D60" t="n">
-        <v>60450</v>
+        <v>60500</v>
       </c>
       <c r="E60" t="n">
-        <v>60450</v>
+        <v>60500</v>
       </c>
       <c r="F60" t="n">
-        <v>0.6263</v>
+        <v>16.5585</v>
       </c>
       <c r="G60" t="n">
-        <v>61906.66666666666</v>
+        <v>61929.16666666666</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>60500</v>
+        <v>60450</v>
       </c>
       <c r="C61" t="n">
-        <v>60500</v>
+        <v>60450</v>
       </c>
       <c r="D61" t="n">
-        <v>60500</v>
+        <v>60450</v>
       </c>
       <c r="E61" t="n">
-        <v>60500</v>
+        <v>60450</v>
       </c>
       <c r="F61" t="n">
-        <v>10.0029</v>
+        <v>0.6263</v>
       </c>
       <c r="G61" t="n">
-        <v>61888.33333333334</v>
+        <v>61906.66666666666</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2545,10 +2545,10 @@
         <v>60500</v>
       </c>
       <c r="F62" t="n">
-        <v>9.9971</v>
+        <v>10.0029</v>
       </c>
       <c r="G62" t="n">
-        <v>61860</v>
+        <v>61888.33333333334</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>60900</v>
+        <v>60500</v>
       </c>
       <c r="C63" t="n">
-        <v>60750</v>
+        <v>60500</v>
       </c>
       <c r="D63" t="n">
-        <v>60900</v>
+        <v>60500</v>
       </c>
       <c r="E63" t="n">
-        <v>60750</v>
+        <v>60500</v>
       </c>
       <c r="F63" t="n">
-        <v>9.7568</v>
+        <v>9.9971</v>
       </c>
       <c r="G63" t="n">
-        <v>61834.16666666666</v>
+        <v>61860</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>60700</v>
+        <v>60900</v>
       </c>
       <c r="C64" t="n">
-        <v>60700</v>
+        <v>60750</v>
       </c>
       <c r="D64" t="n">
-        <v>60700</v>
+        <v>60900</v>
       </c>
       <c r="E64" t="n">
-        <v>60700</v>
+        <v>60750</v>
       </c>
       <c r="F64" t="n">
-        <v>3.3218</v>
+        <v>9.7568</v>
       </c>
       <c r="G64" t="n">
-        <v>61804.16666666666</v>
+        <v>61834.16666666666</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,22 +2638,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>60500</v>
+        <v>60700</v>
       </c>
       <c r="C65" t="n">
-        <v>60500</v>
+        <v>60700</v>
       </c>
       <c r="D65" t="n">
-        <v>60500</v>
+        <v>60700</v>
       </c>
       <c r="E65" t="n">
-        <v>60500</v>
+        <v>60700</v>
       </c>
       <c r="F65" t="n">
-        <v>13.9922</v>
+        <v>3.3218</v>
       </c>
       <c r="G65" t="n">
-        <v>61772.5</v>
+        <v>61804.16666666666</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2685,10 +2685,10 @@
         <v>60500</v>
       </c>
       <c r="F66" t="n">
-        <v>1.0605</v>
+        <v>13.9922</v>
       </c>
       <c r="G66" t="n">
-        <v>61747.5</v>
+        <v>61772.5</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>60600</v>
+        <v>60500</v>
       </c>
       <c r="C67" t="n">
         <v>60500</v>
       </c>
       <c r="D67" t="n">
-        <v>60600</v>
+        <v>60500</v>
       </c>
       <c r="E67" t="n">
         <v>60500</v>
       </c>
       <c r="F67" t="n">
-        <v>50</v>
+        <v>1.0605</v>
       </c>
       <c r="G67" t="n">
-        <v>61722.5</v>
+        <v>61747.5</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,22 +2743,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>60500</v>
+        <v>60600</v>
       </c>
       <c r="C68" t="n">
         <v>60500</v>
       </c>
       <c r="D68" t="n">
-        <v>60500</v>
+        <v>60600</v>
       </c>
       <c r="E68" t="n">
         <v>60500</v>
       </c>
       <c r="F68" t="n">
-        <v>1.8769</v>
+        <v>50</v>
       </c>
       <c r="G68" t="n">
-        <v>61700.83333333334</v>
+        <v>61722.5</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2790,10 +2790,10 @@
         <v>60500</v>
       </c>
       <c r="F69" t="n">
-        <v>100</v>
+        <v>1.8769</v>
       </c>
       <c r="G69" t="n">
-        <v>61679.16666666666</v>
+        <v>61700.83333333334</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,22 +2813,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>60700</v>
+        <v>60500</v>
       </c>
       <c r="C70" t="n">
-        <v>60700</v>
+        <v>60500</v>
       </c>
       <c r="D70" t="n">
-        <v>60700</v>
+        <v>60500</v>
       </c>
       <c r="E70" t="n">
-        <v>60700</v>
+        <v>60500</v>
       </c>
       <c r="F70" t="n">
-        <v>1.0018</v>
+        <v>100</v>
       </c>
       <c r="G70" t="n">
-        <v>61660.83333333334</v>
+        <v>61679.16666666666</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,22 +2848,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>60200</v>
+        <v>60700</v>
       </c>
       <c r="C71" t="n">
-        <v>60000</v>
+        <v>60700</v>
       </c>
       <c r="D71" t="n">
-        <v>60200</v>
+        <v>60700</v>
       </c>
       <c r="E71" t="n">
-        <v>60000</v>
+        <v>60700</v>
       </c>
       <c r="F71" t="n">
-        <v>12</v>
+        <v>1.0018</v>
       </c>
       <c r="G71" t="n">
-        <v>61630.83333333334</v>
+        <v>61660.83333333334</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2886,19 +2886,19 @@
         <v>60200</v>
       </c>
       <c r="C72" t="n">
-        <v>60200</v>
+        <v>60000</v>
       </c>
       <c r="D72" t="n">
         <v>60200</v>
       </c>
       <c r="E72" t="n">
-        <v>60200</v>
+        <v>60000</v>
       </c>
       <c r="F72" t="n">
-        <v>2.8196</v>
+        <v>12</v>
       </c>
       <c r="G72" t="n">
-        <v>61605.83333333334</v>
+        <v>61630.83333333334</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2930,10 +2930,10 @@
         <v>60200</v>
       </c>
       <c r="F73" t="n">
-        <v>3.6922</v>
+        <v>2.8196</v>
       </c>
       <c r="G73" t="n">
-        <v>61580.83333333334</v>
+        <v>61605.83333333334</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>60200</v>
       </c>
       <c r="F74" t="n">
-        <v>0.541</v>
+        <v>3.6922</v>
       </c>
       <c r="G74" t="n">
-        <v>61555.83333333334</v>
+        <v>61580.83333333334</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>60200</v>
       </c>
       <c r="F75" t="n">
-        <v>4.7668</v>
+        <v>0.541</v>
       </c>
       <c r="G75" t="n">
-        <v>61527.5</v>
+        <v>61555.83333333334</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3023,22 +3023,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>60400</v>
+        <v>60200</v>
       </c>
       <c r="C76" t="n">
-        <v>60400</v>
+        <v>60200</v>
       </c>
       <c r="D76" t="n">
-        <v>60400</v>
+        <v>60200</v>
       </c>
       <c r="E76" t="n">
-        <v>60400</v>
+        <v>60200</v>
       </c>
       <c r="F76" t="n">
-        <v>5</v>
+        <v>4.7668</v>
       </c>
       <c r="G76" t="n">
-        <v>61503.33333333334</v>
+        <v>61527.5</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3070,10 +3070,10 @@
         <v>60400</v>
       </c>
       <c r="F77" t="n">
-        <v>1.4814</v>
+        <v>5</v>
       </c>
       <c r="G77" t="n">
-        <v>61482.5</v>
+        <v>61503.33333333334</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3105,10 +3105,10 @@
         <v>60400</v>
       </c>
       <c r="F78" t="n">
-        <v>2.4486</v>
+        <v>1.4814</v>
       </c>
       <c r="G78" t="n">
-        <v>61461.66666666666</v>
+        <v>61482.5</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3131,19 +3131,19 @@
         <v>60400</v>
       </c>
       <c r="C79" t="n">
-        <v>60100</v>
+        <v>60400</v>
       </c>
       <c r="D79" t="n">
         <v>60400</v>
       </c>
       <c r="E79" t="n">
-        <v>60100</v>
+        <v>60400</v>
       </c>
       <c r="F79" t="n">
-        <v>12.0584</v>
+        <v>2.4486</v>
       </c>
       <c r="G79" t="n">
-        <v>61435.83333333334</v>
+        <v>61461.66666666666</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3163,22 +3163,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>60300</v>
+        <v>60400</v>
       </c>
       <c r="C80" t="n">
-        <v>60300</v>
+        <v>60100</v>
       </c>
       <c r="D80" t="n">
-        <v>60300</v>
+        <v>60400</v>
       </c>
       <c r="E80" t="n">
-        <v>60300</v>
+        <v>60100</v>
       </c>
       <c r="F80" t="n">
-        <v>32.3716</v>
+        <v>12.0584</v>
       </c>
       <c r="G80" t="n">
-        <v>61410</v>
+        <v>61435.83333333334</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3198,22 +3198,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>60400</v>
+        <v>60300</v>
       </c>
       <c r="C81" t="n">
         <v>60300</v>
       </c>
       <c r="D81" t="n">
-        <v>60400</v>
+        <v>60300</v>
       </c>
       <c r="E81" t="n">
         <v>60300</v>
       </c>
       <c r="F81" t="n">
-        <v>48.9085</v>
+        <v>32.3716</v>
       </c>
       <c r="G81" t="n">
-        <v>61383.33333333334</v>
+        <v>61410</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3233,7 +3233,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>60300</v>
+        <v>60400</v>
       </c>
       <c r="C82" t="n">
         <v>60300</v>
@@ -3245,10 +3245,10 @@
         <v>60300</v>
       </c>
       <c r="F82" t="n">
-        <v>173.39</v>
+        <v>48.9085</v>
       </c>
       <c r="G82" t="n">
-        <v>61355.83333333334</v>
+        <v>61383.33333333334</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3268,22 +3268,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>60200</v>
+        <v>60300</v>
       </c>
       <c r="C83" t="n">
-        <v>60200</v>
+        <v>60300</v>
       </c>
       <c r="D83" t="n">
-        <v>60200</v>
+        <v>60400</v>
       </c>
       <c r="E83" t="n">
-        <v>60200</v>
+        <v>60300</v>
       </c>
       <c r="F83" t="n">
-        <v>1.3774</v>
+        <v>173.39</v>
       </c>
       <c r="G83" t="n">
-        <v>61327.5</v>
+        <v>61355.83333333334</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3315,10 +3315,10 @@
         <v>60200</v>
       </c>
       <c r="F84" t="n">
-        <v>0.2408</v>
+        <v>1.3774</v>
       </c>
       <c r="G84" t="n">
-        <v>61300</v>
+        <v>61327.5</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3338,22 +3338,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>60550</v>
+        <v>60200</v>
       </c>
       <c r="C85" t="n">
-        <v>60550</v>
+        <v>60200</v>
       </c>
       <c r="D85" t="n">
-        <v>60550</v>
+        <v>60200</v>
       </c>
       <c r="E85" t="n">
-        <v>60550</v>
+        <v>60200</v>
       </c>
       <c r="F85" t="n">
-        <v>1.8769</v>
+        <v>0.2408</v>
       </c>
       <c r="G85" t="n">
-        <v>61278.33333333334</v>
+        <v>61300</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3385,10 +3385,10 @@
         <v>60550</v>
       </c>
       <c r="F86" t="n">
-        <v>2.3485</v>
+        <v>1.8769</v>
       </c>
       <c r="G86" t="n">
-        <v>61254.16666666666</v>
+        <v>61278.33333333334</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3408,22 +3408,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>60500</v>
+        <v>60550</v>
       </c>
       <c r="C87" t="n">
-        <v>60500</v>
+        <v>60550</v>
       </c>
       <c r="D87" t="n">
-        <v>60500</v>
+        <v>60550</v>
       </c>
       <c r="E87" t="n">
-        <v>60500</v>
+        <v>60550</v>
       </c>
       <c r="F87" t="n">
-        <v>12.5112</v>
+        <v>2.3485</v>
       </c>
       <c r="G87" t="n">
-        <v>61229.16666666666</v>
+        <v>61254.16666666666</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3443,22 +3443,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>61100</v>
+        <v>60500</v>
       </c>
       <c r="C88" t="n">
-        <v>61100</v>
+        <v>60500</v>
       </c>
       <c r="D88" t="n">
-        <v>61100</v>
+        <v>60500</v>
       </c>
       <c r="E88" t="n">
-        <v>61100</v>
+        <v>60500</v>
       </c>
       <c r="F88" t="n">
-        <v>18.1943</v>
+        <v>12.5112</v>
       </c>
       <c r="G88" t="n">
-        <v>61212.5</v>
+        <v>61229.16666666666</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3490,10 +3490,10 @@
         <v>61100</v>
       </c>
       <c r="F89" t="n">
-        <v>2.1932</v>
+        <v>18.1943</v>
       </c>
       <c r="G89" t="n">
-        <v>61191.66666666666</v>
+        <v>61212.5</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3513,22 +3513,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>61150</v>
+        <v>61100</v>
       </c>
       <c r="C90" t="n">
-        <v>61150</v>
+        <v>61100</v>
       </c>
       <c r="D90" t="n">
-        <v>61150</v>
+        <v>61100</v>
       </c>
       <c r="E90" t="n">
-        <v>61150</v>
+        <v>61100</v>
       </c>
       <c r="F90" t="n">
-        <v>0.2987</v>
+        <v>2.1932</v>
       </c>
       <c r="G90" t="n">
-        <v>61171.66666666666</v>
+        <v>61191.66666666666</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3548,22 +3548,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>61100</v>
+        <v>61150</v>
       </c>
       <c r="C91" t="n">
-        <v>61100</v>
+        <v>61150</v>
       </c>
       <c r="D91" t="n">
-        <v>61100</v>
+        <v>61150</v>
       </c>
       <c r="E91" t="n">
-        <v>61100</v>
+        <v>61150</v>
       </c>
       <c r="F91" t="n">
-        <v>52.9</v>
+        <v>0.2987</v>
       </c>
       <c r="G91" t="n">
-        <v>61150.83333333334</v>
+        <v>61171.66666666666</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3595,10 +3595,10 @@
         <v>61100</v>
       </c>
       <c r="F92" t="n">
-        <v>23.6848</v>
+        <v>52.9</v>
       </c>
       <c r="G92" t="n">
-        <v>61125</v>
+        <v>61150.83333333334</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3630,10 +3630,10 @@
         <v>61100</v>
       </c>
       <c r="F93" t="n">
-        <v>8.327999999999999</v>
+        <v>23.6848</v>
       </c>
       <c r="G93" t="n">
-        <v>61099.16666666666</v>
+        <v>61125</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3653,22 +3653,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>61150</v>
+        <v>61100</v>
       </c>
       <c r="C94" t="n">
-        <v>61150</v>
+        <v>61100</v>
       </c>
       <c r="D94" t="n">
-        <v>61150</v>
+        <v>61100</v>
       </c>
       <c r="E94" t="n">
-        <v>61150</v>
+        <v>61100</v>
       </c>
       <c r="F94" t="n">
-        <v>2.0354</v>
+        <v>8.327999999999999</v>
       </c>
       <c r="G94" t="n">
-        <v>61079.16666666666</v>
+        <v>61099.16666666666</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3700,10 +3700,10 @@
         <v>61150</v>
       </c>
       <c r="F95" t="n">
-        <v>0.4644</v>
+        <v>2.0354</v>
       </c>
       <c r="G95" t="n">
-        <v>61052.5</v>
+        <v>61079.16666666666</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3735,10 +3735,10 @@
         <v>61150</v>
       </c>
       <c r="F96" t="n">
-        <v>8.146699999999999</v>
+        <v>0.4644</v>
       </c>
       <c r="G96" t="n">
-        <v>61024.16666666666</v>
+        <v>61052.5</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3770,10 +3770,10 @@
         <v>61150</v>
       </c>
       <c r="F97" t="n">
-        <v>0.0137</v>
+        <v>8.146699999999999</v>
       </c>
       <c r="G97" t="n">
-        <v>60995</v>
+        <v>61024.16666666666</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>61150</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1653</v>
+        <v>0.0137</v>
       </c>
       <c r="G98" t="n">
-        <v>60965.83333333334</v>
+        <v>60995</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3840,10 +3840,10 @@
         <v>61150</v>
       </c>
       <c r="F99" t="n">
-        <v>4.0971</v>
+        <v>0.1653</v>
       </c>
       <c r="G99" t="n">
-        <v>60940</v>
+        <v>60965.83333333334</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3866,19 +3866,19 @@
         <v>61150</v>
       </c>
       <c r="C100" t="n">
-        <v>61100</v>
+        <v>61150</v>
       </c>
       <c r="D100" t="n">
         <v>61150</v>
       </c>
       <c r="E100" t="n">
-        <v>61100</v>
+        <v>61150</v>
       </c>
       <c r="F100" t="n">
-        <v>6.3108</v>
+        <v>4.0971</v>
       </c>
       <c r="G100" t="n">
-        <v>60910.83333333334</v>
+        <v>60940</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>61100</v>
+        <v>61150</v>
       </c>
       <c r="C101" t="n">
         <v>61100</v>
       </c>
       <c r="D101" t="n">
-        <v>61100</v>
+        <v>61150</v>
       </c>
       <c r="E101" t="n">
         <v>61100</v>
       </c>
       <c r="F101" t="n">
-        <v>26.6914</v>
+        <v>6.3108</v>
       </c>
       <c r="G101" t="n">
-        <v>60885.83333333334</v>
+        <v>60910.83333333334</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3933,22 +3933,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>61050</v>
+        <v>61100</v>
       </c>
       <c r="C102" t="n">
-        <v>61050</v>
+        <v>61100</v>
       </c>
       <c r="D102" t="n">
-        <v>61050</v>
+        <v>61100</v>
       </c>
       <c r="E102" t="n">
-        <v>61050</v>
+        <v>61100</v>
       </c>
       <c r="F102" t="n">
-        <v>0.0492</v>
+        <v>26.6914</v>
       </c>
       <c r="G102" t="n">
-        <v>60858.33333333334</v>
+        <v>60885.83333333334</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3971,19 +3971,19 @@
         <v>61050</v>
       </c>
       <c r="C103" t="n">
-        <v>61200</v>
+        <v>61050</v>
       </c>
       <c r="D103" t="n">
-        <v>61200</v>
+        <v>61050</v>
       </c>
       <c r="E103" t="n">
         <v>61050</v>
       </c>
       <c r="F103" t="n">
-        <v>3.0492</v>
+        <v>0.0492</v>
       </c>
       <c r="G103" t="n">
-        <v>60840</v>
+        <v>60858.33333333334</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4003,7 +4003,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>61200</v>
+        <v>61050</v>
       </c>
       <c r="C104" t="n">
         <v>61200</v>
@@ -4012,13 +4012,13 @@
         <v>61200</v>
       </c>
       <c r="E104" t="n">
-        <v>61200</v>
+        <v>61050</v>
       </c>
       <c r="F104" t="n">
-        <v>3</v>
+        <v>3.0492</v>
       </c>
       <c r="G104" t="n">
-        <v>60822.5</v>
+        <v>60840</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4038,22 +4038,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>61250</v>
+        <v>61200</v>
       </c>
       <c r="C105" t="n">
-        <v>61300</v>
+        <v>61200</v>
       </c>
       <c r="D105" t="n">
-        <v>61300</v>
+        <v>61200</v>
       </c>
       <c r="E105" t="n">
-        <v>61250</v>
+        <v>61200</v>
       </c>
       <c r="F105" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G105" t="n">
-        <v>60807.5</v>
+        <v>60822.5</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4073,22 +4073,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>61200</v>
+        <v>61250</v>
       </c>
       <c r="C106" t="n">
-        <v>61150</v>
+        <v>61300</v>
       </c>
       <c r="D106" t="n">
-        <v>61200</v>
+        <v>61300</v>
       </c>
       <c r="E106" t="n">
-        <v>61150</v>
+        <v>61250</v>
       </c>
       <c r="F106" t="n">
-        <v>4.041</v>
+        <v>4</v>
       </c>
       <c r="G106" t="n">
-        <v>60799.16666666666</v>
+        <v>60807.5</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4108,22 +4108,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>61100</v>
+        <v>61200</v>
       </c>
       <c r="C107" t="n">
-        <v>61100</v>
+        <v>61150</v>
       </c>
       <c r="D107" t="n">
-        <v>61100</v>
+        <v>61200</v>
       </c>
       <c r="E107" t="n">
-        <v>61100</v>
+        <v>61150</v>
       </c>
       <c r="F107" t="n">
-        <v>0.0328</v>
+        <v>4.041</v>
       </c>
       <c r="G107" t="n">
-        <v>60795</v>
+        <v>60799.16666666666</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4158,7 +4158,7 @@
         <v>0.0328</v>
       </c>
       <c r="G108" t="n">
-        <v>60797.5</v>
+        <v>60795</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4190,10 +4190,10 @@
         <v>61100</v>
       </c>
       <c r="F109" t="n">
-        <v>0.0246</v>
+        <v>0.0328</v>
       </c>
       <c r="G109" t="n">
-        <v>60790.83333333334</v>
+        <v>60797.5</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4225,10 +4225,10 @@
         <v>61100</v>
       </c>
       <c r="F110" t="n">
-        <v>0.0328</v>
+        <v>0.0246</v>
       </c>
       <c r="G110" t="n">
-        <v>60784.16666666666</v>
+        <v>60790.83333333334</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4260,10 +4260,10 @@
         <v>61100</v>
       </c>
       <c r="F111" t="n">
-        <v>0.041</v>
+        <v>0.0328</v>
       </c>
       <c r="G111" t="n">
-        <v>60780.83333333334</v>
+        <v>60784.16666666666</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4295,10 +4295,10 @@
         <v>61100</v>
       </c>
       <c r="F112" t="n">
-        <v>61632</v>
+        <v>0.041</v>
       </c>
       <c r="G112" t="n">
-        <v>60774.16666666666</v>
+        <v>60780.83333333334</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4318,22 +4318,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>61200</v>
+        <v>61100</v>
       </c>
       <c r="C113" t="n">
-        <v>61200</v>
+        <v>61100</v>
       </c>
       <c r="D113" t="n">
-        <v>61200</v>
+        <v>61100</v>
       </c>
       <c r="E113" t="n">
-        <v>61200</v>
+        <v>61100</v>
       </c>
       <c r="F113" t="n">
-        <v>9.065300000000001</v>
+        <v>61632</v>
       </c>
       <c r="G113" t="n">
-        <v>60769.16666666666</v>
+        <v>60774.16666666666</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4362,13 +4362,13 @@
         <v>61200</v>
       </c>
       <c r="E114" t="n">
-        <v>61100</v>
+        <v>61200</v>
       </c>
       <c r="F114" t="n">
-        <v>40.7938</v>
+        <v>9.065300000000001</v>
       </c>
       <c r="G114" t="n">
-        <v>60766.66666666666</v>
+        <v>60769.16666666666</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4397,13 +4397,13 @@
         <v>61200</v>
       </c>
       <c r="E115" t="n">
-        <v>61200</v>
+        <v>61100</v>
       </c>
       <c r="F115" t="n">
-        <v>4.518</v>
+        <v>40.7938</v>
       </c>
       <c r="G115" t="n">
-        <v>60769.16666666666</v>
+        <v>60766.66666666666</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4423,22 +4423,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>61400</v>
+        <v>61200</v>
       </c>
       <c r="C116" t="n">
-        <v>61400</v>
+        <v>61200</v>
       </c>
       <c r="D116" t="n">
-        <v>61400</v>
+        <v>61200</v>
       </c>
       <c r="E116" t="n">
-        <v>61400</v>
+        <v>61200</v>
       </c>
       <c r="F116" t="n">
-        <v>3.2992</v>
+        <v>4.518</v>
       </c>
       <c r="G116" t="n">
-        <v>60775.83333333334</v>
+        <v>60769.16666666666</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4461,19 +4461,19 @@
         <v>61400</v>
       </c>
       <c r="C117" t="n">
-        <v>61500</v>
+        <v>61400</v>
       </c>
       <c r="D117" t="n">
-        <v>61500</v>
+        <v>61400</v>
       </c>
       <c r="E117" t="n">
         <v>61400</v>
       </c>
       <c r="F117" t="n">
-        <v>31.469</v>
+        <v>3.2992</v>
       </c>
       <c r="G117" t="n">
-        <v>60784.16666666666</v>
+        <v>60775.83333333334</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4493,22 +4493,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>61650</v>
+        <v>61400</v>
       </c>
       <c r="C118" t="n">
-        <v>61650</v>
+        <v>61500</v>
       </c>
       <c r="D118" t="n">
-        <v>61650</v>
+        <v>61500</v>
       </c>
       <c r="E118" t="n">
-        <v>61650</v>
+        <v>61400</v>
       </c>
       <c r="F118" t="n">
-        <v>107.056</v>
+        <v>31.469</v>
       </c>
       <c r="G118" t="n">
-        <v>60800</v>
+        <v>60784.16666666666</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4540,10 +4540,10 @@
         <v>61650</v>
       </c>
       <c r="F119" t="n">
-        <v>0.1661</v>
+        <v>107.056</v>
       </c>
       <c r="G119" t="n">
-        <v>60819.16666666666</v>
+        <v>60800</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4563,22 +4563,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>61500</v>
+        <v>61650</v>
       </c>
       <c r="C120" t="n">
-        <v>61500</v>
+        <v>61650</v>
       </c>
       <c r="D120" t="n">
-        <v>61500</v>
+        <v>61650</v>
       </c>
       <c r="E120" t="n">
-        <v>61500</v>
+        <v>61650</v>
       </c>
       <c r="F120" t="n">
-        <v>6</v>
+        <v>0.1661</v>
       </c>
       <c r="G120" t="n">
-        <v>60836.66666666666</v>
+        <v>60819.16666666666</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4598,22 +4598,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>61400</v>
+        <v>61500</v>
       </c>
       <c r="C121" t="n">
-        <v>61200</v>
+        <v>61500</v>
       </c>
       <c r="D121" t="n">
-        <v>61400</v>
+        <v>61500</v>
       </c>
       <c r="E121" t="n">
-        <v>61200</v>
+        <v>61500</v>
       </c>
       <c r="F121" t="n">
-        <v>7.7754</v>
+        <v>6</v>
       </c>
       <c r="G121" t="n">
-        <v>60848.33333333334</v>
+        <v>60836.66666666666</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4633,22 +4633,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>61200</v>
+        <v>61400</v>
       </c>
       <c r="C122" t="n">
         <v>61200</v>
       </c>
       <c r="D122" t="n">
-        <v>61200</v>
+        <v>61400</v>
       </c>
       <c r="E122" t="n">
         <v>61200</v>
       </c>
       <c r="F122" t="n">
-        <v>0.0233</v>
+        <v>7.7754</v>
       </c>
       <c r="G122" t="n">
-        <v>60860</v>
+        <v>60848.33333333334</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4671,19 +4671,19 @@
         <v>61200</v>
       </c>
       <c r="C123" t="n">
-        <v>60950</v>
+        <v>61200</v>
       </c>
       <c r="D123" t="n">
         <v>61200</v>
       </c>
       <c r="E123" t="n">
-        <v>60950</v>
+        <v>61200</v>
       </c>
       <c r="F123" t="n">
-        <v>1.6178</v>
+        <v>0.0233</v>
       </c>
       <c r="G123" t="n">
-        <v>60863.33333333334</v>
+        <v>60860</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4703,22 +4703,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>60950</v>
+        <v>61200</v>
       </c>
       <c r="C124" t="n">
         <v>60950</v>
       </c>
       <c r="D124" t="n">
-        <v>60950</v>
+        <v>61200</v>
       </c>
       <c r="E124" t="n">
         <v>60950</v>
       </c>
       <c r="F124" t="n">
-        <v>2.0912</v>
+        <v>1.6178</v>
       </c>
       <c r="G124" t="n">
-        <v>60867.5</v>
+        <v>60863.33333333334</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4738,22 +4738,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>60850</v>
+        <v>60950</v>
       </c>
       <c r="C125" t="n">
-        <v>60850</v>
+        <v>60950</v>
       </c>
       <c r="D125" t="n">
-        <v>60850</v>
+        <v>60950</v>
       </c>
       <c r="E125" t="n">
-        <v>60850</v>
+        <v>60950</v>
       </c>
       <c r="F125" t="n">
-        <v>0.408</v>
+        <v>2.0912</v>
       </c>
       <c r="G125" t="n">
-        <v>60873.33333333334</v>
+        <v>60867.5</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4782,13 +4782,13 @@
         <v>60850</v>
       </c>
       <c r="E126" t="n">
-        <v>60750</v>
+        <v>60850</v>
       </c>
       <c r="F126" t="n">
-        <v>2.1905</v>
+        <v>0.408</v>
       </c>
       <c r="G126" t="n">
-        <v>60879.16666666666</v>
+        <v>60873.33333333334</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4817,13 +4817,13 @@
         <v>60850</v>
       </c>
       <c r="E127" t="n">
-        <v>60850</v>
+        <v>60750</v>
       </c>
       <c r="F127" t="n">
-        <v>0.5038</v>
+        <v>2.1905</v>
       </c>
       <c r="G127" t="n">
-        <v>60885</v>
+        <v>60879.16666666666</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4843,22 +4843,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>60750</v>
+        <v>60850</v>
       </c>
       <c r="C128" t="n">
-        <v>60750</v>
+        <v>60850</v>
       </c>
       <c r="D128" t="n">
-        <v>60750</v>
+        <v>60850</v>
       </c>
       <c r="E128" t="n">
-        <v>60750</v>
+        <v>60850</v>
       </c>
       <c r="F128" t="n">
-        <v>0.0138</v>
+        <v>0.5038</v>
       </c>
       <c r="G128" t="n">
-        <v>60889.16666666666</v>
+        <v>60885</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4890,10 +4890,10 @@
         <v>60750</v>
       </c>
       <c r="F129" t="n">
-        <v>1.5677</v>
+        <v>0.0138</v>
       </c>
       <c r="G129" t="n">
-        <v>60893.33333333334</v>
+        <v>60889.16666666666</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4913,22 +4913,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>60350</v>
+        <v>60750</v>
       </c>
       <c r="C130" t="n">
-        <v>60350</v>
+        <v>60750</v>
       </c>
       <c r="D130" t="n">
-        <v>60350</v>
+        <v>60750</v>
       </c>
       <c r="E130" t="n">
-        <v>60350</v>
+        <v>60750</v>
       </c>
       <c r="F130" t="n">
-        <v>0.8325</v>
+        <v>1.5677</v>
       </c>
       <c r="G130" t="n">
-        <v>60887.5</v>
+        <v>60893.33333333334</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4960,10 +4960,10 @@
         <v>60350</v>
       </c>
       <c r="F131" t="n">
-        <v>19.1675</v>
+        <v>0.8325</v>
       </c>
       <c r="G131" t="n">
-        <v>60893.33333333334</v>
+        <v>60887.5</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4983,22 +4983,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>60550</v>
+        <v>60350</v>
       </c>
       <c r="C132" t="n">
-        <v>60600</v>
+        <v>60350</v>
       </c>
       <c r="D132" t="n">
-        <v>60600</v>
+        <v>60350</v>
       </c>
       <c r="E132" t="n">
-        <v>60550</v>
+        <v>60350</v>
       </c>
       <c r="F132" t="n">
-        <v>6.6304</v>
+        <v>19.1675</v>
       </c>
       <c r="G132" t="n">
-        <v>60900</v>
+        <v>60893.33333333334</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5018,7 +5018,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>60600</v>
+        <v>60550</v>
       </c>
       <c r="C133" t="n">
         <v>60600</v>
@@ -5027,13 +5027,13 @@
         <v>60600</v>
       </c>
       <c r="E133" t="n">
-        <v>60600</v>
+        <v>60550</v>
       </c>
       <c r="F133" t="n">
-        <v>0.067</v>
+        <v>6.6304</v>
       </c>
       <c r="G133" t="n">
-        <v>60906.66666666666</v>
+        <v>60900</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5065,10 +5065,10 @@
         <v>60600</v>
       </c>
       <c r="F134" t="n">
-        <v>4.3171</v>
+        <v>0.067</v>
       </c>
       <c r="G134" t="n">
-        <v>60913.33333333334</v>
+        <v>60906.66666666666</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5088,22 +5088,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>60500</v>
+        <v>60600</v>
       </c>
       <c r="C135" t="n">
-        <v>60500</v>
+        <v>60600</v>
       </c>
       <c r="D135" t="n">
-        <v>60500</v>
+        <v>60600</v>
       </c>
       <c r="E135" t="n">
-        <v>60500</v>
+        <v>60600</v>
       </c>
       <c r="F135" t="n">
-        <v>33.0873</v>
+        <v>4.3171</v>
       </c>
       <c r="G135" t="n">
-        <v>60918.33333333334</v>
+        <v>60913.33333333334</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5135,10 +5135,10 @@
         <v>60500</v>
       </c>
       <c r="F136" t="n">
-        <v>0.8395</v>
+        <v>33.0873</v>
       </c>
       <c r="G136" t="n">
-        <v>60920</v>
+        <v>60918.33333333334</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5158,22 +5158,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>60700</v>
+        <v>60500</v>
       </c>
       <c r="C137" t="n">
-        <v>60700</v>
+        <v>60500</v>
       </c>
       <c r="D137" t="n">
-        <v>60700</v>
+        <v>60500</v>
       </c>
       <c r="E137" t="n">
-        <v>60700</v>
+        <v>60500</v>
       </c>
       <c r="F137" t="n">
-        <v>5.55</v>
+        <v>0.8395</v>
       </c>
       <c r="G137" t="n">
-        <v>60925</v>
+        <v>60920</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5193,22 +5193,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>60200</v>
+        <v>60700</v>
       </c>
       <c r="C138" t="n">
-        <v>60200</v>
+        <v>60700</v>
       </c>
       <c r="D138" t="n">
-        <v>60200</v>
+        <v>60700</v>
       </c>
       <c r="E138" t="n">
-        <v>60200</v>
+        <v>60700</v>
       </c>
       <c r="F138" t="n">
-        <v>1.3443</v>
+        <v>5.55</v>
       </c>
       <c r="G138" t="n">
-        <v>60921.66666666666</v>
+        <v>60925</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5240,10 +5240,10 @@
         <v>60200</v>
       </c>
       <c r="F139" t="n">
-        <v>14.4657</v>
+        <v>1.3443</v>
       </c>
       <c r="G139" t="n">
-        <v>60923.33333333334</v>
+        <v>60921.66666666666</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5275,10 +5275,10 @@
         <v>60200</v>
       </c>
       <c r="F140" t="n">
-        <v>35.2191</v>
+        <v>14.4657</v>
       </c>
       <c r="G140" t="n">
-        <v>60921.66666666666</v>
+        <v>60923.33333333334</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5301,19 +5301,19 @@
         <v>60200</v>
       </c>
       <c r="C141" t="n">
-        <v>60100</v>
+        <v>60200</v>
       </c>
       <c r="D141" t="n">
         <v>60200</v>
       </c>
       <c r="E141" t="n">
-        <v>60100</v>
+        <v>60200</v>
       </c>
       <c r="F141" t="n">
-        <v>86.1614</v>
+        <v>35.2191</v>
       </c>
       <c r="G141" t="n">
-        <v>60918.33333333334</v>
+        <v>60921.66666666666</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5333,22 +5333,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>60100</v>
+        <v>60200</v>
       </c>
       <c r="C142" t="n">
         <v>60100</v>
       </c>
       <c r="D142" t="n">
-        <v>60100</v>
+        <v>60200</v>
       </c>
       <c r="E142" t="n">
         <v>60100</v>
       </c>
       <c r="F142" t="n">
-        <v>12.7</v>
+        <v>86.1614</v>
       </c>
       <c r="G142" t="n">
-        <v>60915</v>
+        <v>60918.33333333334</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5380,10 +5380,10 @@
         <v>60100</v>
       </c>
       <c r="F143" t="n">
-        <v>195.3013</v>
+        <v>12.7</v>
       </c>
       <c r="G143" t="n">
-        <v>60913.33333333334</v>
+        <v>60915</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5406,28 +5406,32 @@
         <v>60100</v>
       </c>
       <c r="C144" t="n">
-        <v>60150</v>
+        <v>60100</v>
       </c>
       <c r="D144" t="n">
-        <v>60150</v>
+        <v>60100</v>
       </c>
       <c r="E144" t="n">
-        <v>59900</v>
+        <v>60100</v>
       </c>
       <c r="F144" t="n">
-        <v>29.2777</v>
+        <v>195.3013</v>
       </c>
       <c r="G144" t="n">
-        <v>60912.5</v>
+        <v>60913.33333333334</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>60100</v>
+      </c>
+      <c r="K144" t="n">
+        <v>60100</v>
+      </c>
       <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
@@ -5441,29 +5445,35 @@
         <v>60100</v>
       </c>
       <c r="C145" t="n">
+        <v>60150</v>
+      </c>
+      <c r="D145" t="n">
+        <v>60150</v>
+      </c>
+      <c r="E145" t="n">
+        <v>59900</v>
+      </c>
+      <c r="F145" t="n">
+        <v>29.2777</v>
+      </c>
+      <c r="G145" t="n">
+        <v>60912.5</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
         <v>60100</v>
       </c>
-      <c r="D145" t="n">
-        <v>60100</v>
-      </c>
-      <c r="E145" t="n">
-        <v>60100</v>
-      </c>
-      <c r="F145" t="n">
-        <v>9.619300000000001</v>
-      </c>
-      <c r="G145" t="n">
-        <v>60905</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5473,22 +5483,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>60000</v>
+        <v>60100</v>
       </c>
       <c r="C146" t="n">
-        <v>60350</v>
+        <v>60100</v>
       </c>
       <c r="D146" t="n">
-        <v>60350</v>
+        <v>60100</v>
       </c>
       <c r="E146" t="n">
-        <v>60000</v>
+        <v>60100</v>
       </c>
       <c r="F146" t="n">
-        <v>0.0171</v>
+        <v>9.619300000000001</v>
       </c>
       <c r="G146" t="n">
-        <v>60901.66666666666</v>
+        <v>60905</v>
       </c>
       <c r="H146" t="n">
         <v>1</v>
@@ -5497,12 +5507,14 @@
         <v>0</v>
       </c>
       <c r="J146" t="n">
+        <v>60150</v>
+      </c>
+      <c r="K146" t="n">
         <v>60100</v>
       </c>
-      <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M146" t="n">
@@ -5514,31 +5526,35 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>60200</v>
+        <v>60000</v>
       </c>
       <c r="C147" t="n">
-        <v>60150</v>
+        <v>60350</v>
       </c>
       <c r="D147" t="n">
-        <v>60200</v>
+        <v>60350</v>
       </c>
       <c r="E147" t="n">
-        <v>60150</v>
+        <v>60000</v>
       </c>
       <c r="F147" t="n">
-        <v>12.4221</v>
+        <v>0.0171</v>
       </c>
       <c r="G147" t="n">
-        <v>60895.83333333334</v>
+        <v>60901.66666666666</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>60100</v>
+      </c>
+      <c r="K147" t="n">
+        <v>60100</v>
+      </c>
       <c r="L147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5553,22 +5569,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>60150</v>
+        <v>60200</v>
       </c>
       <c r="C148" t="n">
         <v>60150</v>
       </c>
       <c r="D148" t="n">
-        <v>60150</v>
+        <v>60200</v>
       </c>
       <c r="E148" t="n">
         <v>60150</v>
       </c>
       <c r="F148" t="n">
-        <v>115.7514</v>
+        <v>12.4221</v>
       </c>
       <c r="G148" t="n">
-        <v>60880</v>
+        <v>60895.83333333334</v>
       </c>
       <c r="H148" t="n">
         <v>1</v>
@@ -5577,9 +5593,11 @@
         <v>0</v>
       </c>
       <c r="J148" t="n">
-        <v>60150</v>
-      </c>
-      <c r="K148" t="inlineStr"/>
+        <v>60350</v>
+      </c>
+      <c r="K148" t="n">
+        <v>60100</v>
+      </c>
       <c r="L148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5597,28 +5615,32 @@
         <v>60150</v>
       </c>
       <c r="C149" t="n">
-        <v>59900</v>
+        <v>60150</v>
       </c>
       <c r="D149" t="n">
         <v>60150</v>
       </c>
       <c r="E149" t="n">
-        <v>59900</v>
+        <v>60150</v>
       </c>
       <c r="F149" t="n">
-        <v>123.1377</v>
+        <v>115.7514</v>
       </c>
       <c r="G149" t="n">
-        <v>60860</v>
+        <v>60880</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>60150</v>
+      </c>
+      <c r="K149" t="n">
+        <v>60100</v>
+      </c>
       <c r="L149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5633,31 +5655,35 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>59900</v>
+        <v>60150</v>
       </c>
       <c r="C150" t="n">
         <v>59900</v>
       </c>
       <c r="D150" t="n">
-        <v>59900</v>
+        <v>60150</v>
       </c>
       <c r="E150" t="n">
         <v>59900</v>
       </c>
       <c r="F150" t="n">
-        <v>0.008699999999999999</v>
+        <v>123.1377</v>
       </c>
       <c r="G150" t="n">
-        <v>60839.16666666666</v>
+        <v>60860</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>60150</v>
+      </c>
+      <c r="K150" t="n">
+        <v>60100</v>
+      </c>
       <c r="L150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5672,22 +5698,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>60300</v>
+        <v>59900</v>
       </c>
       <c r="C151" t="n">
-        <v>60300</v>
+        <v>59900</v>
       </c>
       <c r="D151" t="n">
-        <v>60300</v>
+        <v>59900</v>
       </c>
       <c r="E151" t="n">
-        <v>60300</v>
+        <v>59900</v>
       </c>
       <c r="F151" t="n">
-        <v>0.0086</v>
+        <v>0.008699999999999999</v>
       </c>
       <c r="G151" t="n">
-        <v>60825.83333333334</v>
+        <v>60839.16666666666</v>
       </c>
       <c r="H151" t="n">
         <v>1</v>
@@ -5698,7 +5724,9 @@
       <c r="J151" t="n">
         <v>59900</v>
       </c>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>60100</v>
+      </c>
       <c r="L151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5725,10 +5753,10 @@
         <v>60300</v>
       </c>
       <c r="F152" t="n">
-        <v>2.5271</v>
+        <v>0.0086</v>
       </c>
       <c r="G152" t="n">
-        <v>60812.5</v>
+        <v>60825.83333333334</v>
       </c>
       <c r="H152" t="n">
         <v>1</v>
@@ -5737,9 +5765,11 @@
         <v>0</v>
       </c>
       <c r="J152" t="n">
-        <v>60300</v>
-      </c>
-      <c r="K152" t="inlineStr"/>
+        <v>59900</v>
+      </c>
+      <c r="K152" t="n">
+        <v>60100</v>
+      </c>
       <c r="L152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5754,22 +5784,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>60650</v>
+        <v>60300</v>
       </c>
       <c r="C153" t="n">
-        <v>60650</v>
+        <v>60300</v>
       </c>
       <c r="D153" t="n">
-        <v>60650</v>
+        <v>60300</v>
       </c>
       <c r="E153" t="n">
-        <v>60650</v>
+        <v>60300</v>
       </c>
       <c r="F153" t="n">
-        <v>0.74</v>
+        <v>2.5271</v>
       </c>
       <c r="G153" t="n">
-        <v>60805</v>
+        <v>60812.5</v>
       </c>
       <c r="H153" t="n">
         <v>1</v>
@@ -5780,7 +5810,9 @@
       <c r="J153" t="n">
         <v>60300</v>
       </c>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>60100</v>
+      </c>
       <c r="L153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5795,7 +5827,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>60600</v>
+        <v>60650</v>
       </c>
       <c r="C154" t="n">
         <v>60650</v>
@@ -5804,24 +5836,24 @@
         <v>60650</v>
       </c>
       <c r="E154" t="n">
-        <v>60600</v>
+        <v>60650</v>
       </c>
       <c r="F154" t="n">
-        <v>3.07593569</v>
+        <v>0.74</v>
       </c>
       <c r="G154" t="n">
-        <v>60796.66666666666</v>
+        <v>60805</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="n">
-        <v>60650</v>
-      </c>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>60100</v>
+      </c>
       <c r="L154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5836,22 +5868,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>60350</v>
+        <v>60600</v>
       </c>
       <c r="C155" t="n">
-        <v>60350</v>
+        <v>60650</v>
       </c>
       <c r="D155" t="n">
-        <v>60350</v>
+        <v>60650</v>
       </c>
       <c r="E155" t="n">
-        <v>60350</v>
+        <v>60600</v>
       </c>
       <c r="F155" t="n">
-        <v>0.8364</v>
+        <v>3.07593569</v>
       </c>
       <c r="G155" t="n">
-        <v>60783.33333333334</v>
+        <v>60796.66666666666</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5860,7 +5892,9 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>60100</v>
+      </c>
       <c r="L155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5887,10 +5921,10 @@
         <v>60350</v>
       </c>
       <c r="F156" t="n">
-        <v>0.8349</v>
+        <v>0.8364</v>
       </c>
       <c r="G156" t="n">
-        <v>60770</v>
+        <v>60783.33333333334</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5899,7 +5933,9 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>60100</v>
+      </c>
       <c r="L156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5917,19 +5953,19 @@
         <v>60350</v>
       </c>
       <c r="C157" t="n">
-        <v>60200</v>
+        <v>60350</v>
       </c>
       <c r="D157" t="n">
         <v>60350</v>
       </c>
       <c r="E157" t="n">
-        <v>60200</v>
+        <v>60350</v>
       </c>
       <c r="F157" t="n">
-        <v>14.2445</v>
+        <v>0.8349</v>
       </c>
       <c r="G157" t="n">
-        <v>60754.16666666666</v>
+        <v>60770</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5938,7 +5974,9 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>60100</v>
+      </c>
       <c r="L157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5953,22 +5991,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>60300</v>
+        <v>60350</v>
       </c>
       <c r="C158" t="n">
-        <v>60300</v>
+        <v>60200</v>
       </c>
       <c r="D158" t="n">
-        <v>60300</v>
+        <v>60350</v>
       </c>
       <c r="E158" t="n">
-        <v>60300</v>
+        <v>60200</v>
       </c>
       <c r="F158" t="n">
-        <v>3</v>
+        <v>14.2445</v>
       </c>
       <c r="G158" t="n">
-        <v>60740</v>
+        <v>60754.16666666666</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5977,7 +6015,9 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>60100</v>
+      </c>
       <c r="L158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5992,22 +6032,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>60550</v>
+        <v>60300</v>
       </c>
       <c r="C159" t="n">
-        <v>60550</v>
+        <v>60300</v>
       </c>
       <c r="D159" t="n">
-        <v>60550</v>
+        <v>60300</v>
       </c>
       <c r="E159" t="n">
-        <v>60550</v>
+        <v>60300</v>
       </c>
       <c r="F159" t="n">
-        <v>1.9632</v>
+        <v>3</v>
       </c>
       <c r="G159" t="n">
-        <v>60730</v>
+        <v>60740</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6016,7 +6056,9 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>60100</v>
+      </c>
       <c r="L159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6043,10 +6085,10 @@
         <v>60550</v>
       </c>
       <c r="F160" t="n">
-        <v>4.1662</v>
+        <v>1.9632</v>
       </c>
       <c r="G160" t="n">
-        <v>60720.83333333334</v>
+        <v>60730</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6055,7 +6097,9 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>60100</v>
+      </c>
       <c r="L160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6082,10 +6126,10 @@
         <v>60550</v>
       </c>
       <c r="F161" t="n">
-        <v>1.8372</v>
+        <v>4.1662</v>
       </c>
       <c r="G161" t="n">
-        <v>60711.66666666666</v>
+        <v>60720.83333333334</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6094,7 +6138,9 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>60100</v>
+      </c>
       <c r="L161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6109,22 +6155,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>60700</v>
+        <v>60550</v>
       </c>
       <c r="C162" t="n">
-        <v>60700</v>
+        <v>60550</v>
       </c>
       <c r="D162" t="n">
-        <v>60700</v>
+        <v>60550</v>
       </c>
       <c r="E162" t="n">
-        <v>60700</v>
+        <v>60550</v>
       </c>
       <c r="F162" t="n">
-        <v>4.1309</v>
+        <v>1.8372</v>
       </c>
       <c r="G162" t="n">
-        <v>60705.83333333334</v>
+        <v>60711.66666666666</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6133,7 +6179,9 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>60100</v>
+      </c>
       <c r="L162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6148,22 +6196,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>60050</v>
+        <v>60700</v>
       </c>
       <c r="C163" t="n">
-        <v>60050</v>
+        <v>60700</v>
       </c>
       <c r="D163" t="n">
-        <v>60050</v>
+        <v>60700</v>
       </c>
       <c r="E163" t="n">
-        <v>60050</v>
+        <v>60700</v>
       </c>
       <c r="F163" t="n">
-        <v>0.4441</v>
+        <v>4.1309</v>
       </c>
       <c r="G163" t="n">
-        <v>60686.66666666666</v>
+        <v>60705.83333333334</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6172,7 +6220,9 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>60100</v>
+      </c>
       <c r="L163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6187,22 +6237,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>60150</v>
+        <v>60050</v>
       </c>
       <c r="C164" t="n">
         <v>60050</v>
       </c>
       <c r="D164" t="n">
-        <v>60150</v>
+        <v>60050</v>
       </c>
       <c r="E164" t="n">
         <v>60050</v>
       </c>
       <c r="F164" t="n">
-        <v>13.0975</v>
+        <v>0.4441</v>
       </c>
       <c r="G164" t="n">
-        <v>60667.5</v>
+        <v>60686.66666666666</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6211,7 +6261,9 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>60100</v>
+      </c>
       <c r="L164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6226,22 +6278,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>60250</v>
+        <v>60150</v>
       </c>
       <c r="C165" t="n">
-        <v>60250</v>
+        <v>60050</v>
       </c>
       <c r="D165" t="n">
-        <v>60250</v>
+        <v>60150</v>
       </c>
       <c r="E165" t="n">
-        <v>60250</v>
+        <v>60050</v>
       </c>
       <c r="F165" t="n">
-        <v>0.1339</v>
+        <v>13.0975</v>
       </c>
       <c r="G165" t="n">
-        <v>60650</v>
+        <v>60667.5</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6250,7 +6302,9 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>60100</v>
+      </c>
       <c r="L165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6277,10 +6331,10 @@
         <v>60250</v>
       </c>
       <c r="F166" t="n">
-        <v>0.8661</v>
+        <v>0.1339</v>
       </c>
       <c r="G166" t="n">
-        <v>60635</v>
+        <v>60650</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6289,7 +6343,9 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>60100</v>
+      </c>
       <c r="L166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6316,10 +6372,10 @@
         <v>60250</v>
       </c>
       <c r="F167" t="n">
-        <v>0.97</v>
+        <v>0.8661</v>
       </c>
       <c r="G167" t="n">
-        <v>60620.83333333334</v>
+        <v>60635</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6328,7 +6384,9 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>60100</v>
+      </c>
       <c r="L167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6355,10 +6413,10 @@
         <v>60250</v>
       </c>
       <c r="F168" t="n">
-        <v>0.5765</v>
+        <v>0.97</v>
       </c>
       <c r="G168" t="n">
-        <v>60606.66666666666</v>
+        <v>60620.83333333334</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6367,7 +6425,9 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>60100</v>
+      </c>
       <c r="L168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6382,22 +6442,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>60300</v>
+        <v>60250</v>
       </c>
       <c r="C169" t="n">
-        <v>60300</v>
+        <v>60250</v>
       </c>
       <c r="D169" t="n">
-        <v>60300</v>
+        <v>60250</v>
       </c>
       <c r="E169" t="n">
-        <v>60300</v>
+        <v>60250</v>
       </c>
       <c r="F169" t="n">
-        <v>1.2733</v>
+        <v>0.5765</v>
       </c>
       <c r="G169" t="n">
-        <v>60593.33333333334</v>
+        <v>60606.66666666666</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6406,7 +6466,9 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>60100</v>
+      </c>
       <c r="L169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6433,10 +6495,10 @@
         <v>60300</v>
       </c>
       <c r="F170" t="n">
-        <v>18.7267</v>
+        <v>1.2733</v>
       </c>
       <c r="G170" t="n">
-        <v>60580</v>
+        <v>60593.33333333334</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6445,7 +6507,9 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>60100</v>
+      </c>
       <c r="L170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6460,22 +6524,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>60350</v>
+        <v>60300</v>
       </c>
       <c r="C171" t="n">
-        <v>60350</v>
+        <v>60300</v>
       </c>
       <c r="D171" t="n">
-        <v>60350</v>
+        <v>60300</v>
       </c>
       <c r="E171" t="n">
-        <v>60350</v>
+        <v>60300</v>
       </c>
       <c r="F171" t="n">
-        <v>3.2544</v>
+        <v>18.7267</v>
       </c>
       <c r="G171" t="n">
-        <v>60567.5</v>
+        <v>60580</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6484,7 +6548,9 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>60100</v>
+      </c>
       <c r="L171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6511,10 +6577,10 @@
         <v>60350</v>
       </c>
       <c r="F172" t="n">
-        <v>18.3163</v>
+        <v>3.2544</v>
       </c>
       <c r="G172" t="n">
-        <v>60555</v>
+        <v>60567.5</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6523,7 +6589,9 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>60100</v>
+      </c>
       <c r="L172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6538,22 +6606,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>60600</v>
+        <v>60350</v>
       </c>
       <c r="C173" t="n">
-        <v>60800</v>
+        <v>60350</v>
       </c>
       <c r="D173" t="n">
-        <v>60800</v>
+        <v>60350</v>
       </c>
       <c r="E173" t="n">
-        <v>60600</v>
+        <v>60350</v>
       </c>
       <c r="F173" t="n">
-        <v>32.8255</v>
+        <v>18.3163</v>
       </c>
       <c r="G173" t="n">
-        <v>60548.33333333334</v>
+        <v>60555</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6562,7 +6630,9 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>60100</v>
+      </c>
       <c r="L173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6577,7 +6647,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>60800</v>
+        <v>60600</v>
       </c>
       <c r="C174" t="n">
         <v>60800</v>
@@ -6586,13 +6656,13 @@
         <v>60800</v>
       </c>
       <c r="E174" t="n">
-        <v>60800</v>
+        <v>60600</v>
       </c>
       <c r="F174" t="n">
-        <v>7.9625</v>
+        <v>32.8255</v>
       </c>
       <c r="G174" t="n">
-        <v>60541.66666666666</v>
+        <v>60548.33333333334</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6601,7 +6671,9 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>60100</v>
+      </c>
       <c r="L174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6628,10 +6700,10 @@
         <v>60800</v>
       </c>
       <c r="F175" t="n">
-        <v>14.9788</v>
+        <v>7.9625</v>
       </c>
       <c r="G175" t="n">
-        <v>60535</v>
+        <v>60541.66666666666</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6640,7 +6712,9 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>60100</v>
+      </c>
       <c r="L175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6655,22 +6729,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>60850</v>
+        <v>60800</v>
       </c>
       <c r="C176" t="n">
-        <v>60850</v>
+        <v>60800</v>
       </c>
       <c r="D176" t="n">
-        <v>60850</v>
+        <v>60800</v>
       </c>
       <c r="E176" t="n">
-        <v>60850</v>
+        <v>60800</v>
       </c>
       <c r="F176" t="n">
-        <v>4.1961</v>
+        <v>14.9788</v>
       </c>
       <c r="G176" t="n">
-        <v>60525.83333333334</v>
+        <v>60535</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6679,7 +6753,9 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>60100</v>
+      </c>
       <c r="L176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6694,22 +6770,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>60700</v>
+        <v>60850</v>
       </c>
       <c r="C177" t="n">
-        <v>60700</v>
+        <v>60850</v>
       </c>
       <c r="D177" t="n">
-        <v>60700</v>
+        <v>60850</v>
       </c>
       <c r="E177" t="n">
-        <v>60700</v>
+        <v>60850</v>
       </c>
       <c r="F177" t="n">
-        <v>14.317</v>
+        <v>4.1961</v>
       </c>
       <c r="G177" t="n">
-        <v>60512.5</v>
+        <v>60525.83333333334</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6718,7 +6794,9 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>60100</v>
+      </c>
       <c r="L177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6733,22 +6811,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>60550</v>
+        <v>60700</v>
       </c>
       <c r="C178" t="n">
-        <v>60850</v>
+        <v>60700</v>
       </c>
       <c r="D178" t="n">
-        <v>60850</v>
+        <v>60700</v>
       </c>
       <c r="E178" t="n">
-        <v>60550</v>
+        <v>60700</v>
       </c>
       <c r="F178" t="n">
-        <v>1.5938</v>
+        <v>14.317</v>
       </c>
       <c r="G178" t="n">
-        <v>60499.16666666666</v>
+        <v>60512.5</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6757,7 +6835,9 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>60100</v>
+      </c>
       <c r="L178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6772,7 +6852,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>60850</v>
+        <v>60550</v>
       </c>
       <c r="C179" t="n">
         <v>60850</v>
@@ -6781,13 +6861,13 @@
         <v>60850</v>
       </c>
       <c r="E179" t="n">
-        <v>60850</v>
+        <v>60550</v>
       </c>
       <c r="F179" t="n">
-        <v>4.2822</v>
+        <v>1.5938</v>
       </c>
       <c r="G179" t="n">
-        <v>60485.83333333334</v>
+        <v>60499.16666666666</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6796,7 +6876,9 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>60100</v>
+      </c>
       <c r="L179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6811,22 +6893,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>61100</v>
+        <v>60850</v>
       </c>
       <c r="C180" t="n">
-        <v>61100</v>
+        <v>60850</v>
       </c>
       <c r="D180" t="n">
-        <v>61100</v>
+        <v>60850</v>
       </c>
       <c r="E180" t="n">
-        <v>61100</v>
+        <v>60850</v>
       </c>
       <c r="F180" t="n">
-        <v>14.991</v>
+        <v>4.2822</v>
       </c>
       <c r="G180" t="n">
-        <v>60479.16666666666</v>
+        <v>60485.83333333334</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6835,7 +6917,9 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>60100</v>
+      </c>
       <c r="L180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6862,10 +6946,10 @@
         <v>61100</v>
       </c>
       <c r="F181" t="n">
-        <v>0.008999999999999999</v>
+        <v>14.991</v>
       </c>
       <c r="G181" t="n">
-        <v>60477.5</v>
+        <v>60479.16666666666</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6874,7 +6958,9 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>60100</v>
+      </c>
       <c r="L181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6889,22 +6975,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>60850</v>
+        <v>61100</v>
       </c>
       <c r="C182" t="n">
-        <v>60850</v>
+        <v>61100</v>
       </c>
       <c r="D182" t="n">
-        <v>60850</v>
+        <v>61100</v>
       </c>
       <c r="E182" t="n">
-        <v>60850</v>
+        <v>61100</v>
       </c>
       <c r="F182" t="n">
-        <v>13.61413853</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="G182" t="n">
-        <v>60471.66666666666</v>
+        <v>60477.5</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6913,7 +6999,9 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>60100</v>
+      </c>
       <c r="L182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6940,234 +7028,274 @@
         <v>60850</v>
       </c>
       <c r="F183" t="n">
+        <v>13.61413853</v>
+      </c>
+      <c r="G183" t="n">
+        <v>60471.66666666666</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>60100</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>60850</v>
+      </c>
+      <c r="C184" t="n">
+        <v>60850</v>
+      </c>
+      <c r="D184" t="n">
+        <v>60850</v>
+      </c>
+      <c r="E184" t="n">
+        <v>60850</v>
+      </c>
+      <c r="F184" t="n">
         <v>13.5032</v>
       </c>
-      <c r="G183" t="n">
+      <c r="G184" t="n">
         <v>60470</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>1</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>60100</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>60850</v>
+      </c>
+      <c r="C185" t="n">
+        <v>60950</v>
+      </c>
+      <c r="D185" t="n">
+        <v>60950</v>
+      </c>
+      <c r="E185" t="n">
+        <v>60850</v>
+      </c>
+      <c r="F185" t="n">
+        <v>0.02216147</v>
+      </c>
+      <c r="G185" t="n">
+        <v>60470</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>60100</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>60950</v>
+      </c>
+      <c r="C186" t="n">
+        <v>61150</v>
+      </c>
+      <c r="D186" t="n">
+        <v>61150</v>
+      </c>
+      <c r="E186" t="n">
+        <v>60950</v>
+      </c>
+      <c r="F186" t="n">
+        <v>0.0165</v>
+      </c>
+      <c r="G186" t="n">
+        <v>60475</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>60100</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>61150</v>
+      </c>
+      <c r="C187" t="n">
+        <v>61150</v>
+      </c>
+      <c r="D187" t="n">
+        <v>61150</v>
+      </c>
+      <c r="E187" t="n">
+        <v>61150</v>
+      </c>
+      <c r="F187" t="n">
+        <v>1.2643</v>
+      </c>
+      <c r="G187" t="n">
+        <v>60480</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>60100</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>61150</v>
+      </c>
+      <c r="C188" t="n">
+        <v>61150</v>
+      </c>
+      <c r="D188" t="n">
+        <v>61150</v>
+      </c>
+      <c r="E188" t="n">
+        <v>61150</v>
+      </c>
+      <c r="F188" t="n">
+        <v>0.8401999999999999</v>
+      </c>
+      <c r="G188" t="n">
+        <v>60485</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>60100</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>61150</v>
+      </c>
+      <c r="C189" t="n">
+        <v>61150</v>
+      </c>
+      <c r="D189" t="n">
+        <v>61150</v>
+      </c>
+      <c r="E189" t="n">
+        <v>61150</v>
+      </c>
+      <c r="F189" t="n">
+        <v>3.1893</v>
+      </c>
+      <c r="G189" t="n">
+        <v>60491.66666666666</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>1</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>60100</v>
+      </c>
+      <c r="L189" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="M183" t="inlineStr"/>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>60850</v>
-      </c>
-      <c r="C184" t="n">
-        <v>60950</v>
-      </c>
-      <c r="D184" t="n">
-        <v>60950</v>
-      </c>
-      <c r="E184" t="n">
-        <v>60850</v>
-      </c>
-      <c r="F184" t="n">
-        <v>0.02216147</v>
-      </c>
-      <c r="G184" t="n">
-        <v>60470</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>60950</v>
-      </c>
-      <c r="C185" t="n">
-        <v>61150</v>
-      </c>
-      <c r="D185" t="n">
-        <v>61150</v>
-      </c>
-      <c r="E185" t="n">
-        <v>60950</v>
-      </c>
-      <c r="F185" t="n">
-        <v>0.0165</v>
-      </c>
-      <c r="G185" t="n">
-        <v>60475</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>61150</v>
-      </c>
-      <c r="C186" t="n">
-        <v>61150</v>
-      </c>
-      <c r="D186" t="n">
-        <v>61150</v>
-      </c>
-      <c r="E186" t="n">
-        <v>61150</v>
-      </c>
-      <c r="F186" t="n">
-        <v>1.2643</v>
-      </c>
-      <c r="G186" t="n">
-        <v>60480</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>61150</v>
-      </c>
-      <c r="C187" t="n">
-        <v>61150</v>
-      </c>
-      <c r="D187" t="n">
-        <v>61150</v>
-      </c>
-      <c r="E187" t="n">
-        <v>61150</v>
-      </c>
-      <c r="F187" t="n">
-        <v>0.8401999999999999</v>
-      </c>
-      <c r="G187" t="n">
-        <v>60485</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>1</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>61150</v>
-      </c>
-      <c r="C188" t="n">
-        <v>61150</v>
-      </c>
-      <c r="D188" t="n">
-        <v>61150</v>
-      </c>
-      <c r="E188" t="n">
-        <v>61150</v>
-      </c>
-      <c r="F188" t="n">
-        <v>3.1893</v>
-      </c>
-      <c r="G188" t="n">
-        <v>60491.66666666666</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>1</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>61150</v>
-      </c>
-      <c r="C189" t="n">
-        <v>61150</v>
-      </c>
-      <c r="D189" t="n">
-        <v>61150</v>
-      </c>
-      <c r="E189" t="n">
-        <v>61150</v>
-      </c>
-      <c r="F189" t="n">
-        <v>0.4025</v>
-      </c>
-      <c r="G189" t="n">
-        <v>60498.33333333334</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>1</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
       <c r="M189" t="n">
-        <v>1</v>
+        <v>1.012470881863561</v>
       </c>
     </row>
     <row r="190">
@@ -7175,28 +7303,28 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>60850</v>
+        <v>61150</v>
       </c>
       <c r="C190" t="n">
-        <v>60850</v>
+        <v>61150</v>
       </c>
       <c r="D190" t="n">
-        <v>60850</v>
+        <v>61150</v>
       </c>
       <c r="E190" t="n">
-        <v>60850</v>
+        <v>61150</v>
       </c>
       <c r="F190" t="n">
-        <v>1.9386</v>
+        <v>0.4025</v>
       </c>
       <c r="G190" t="n">
-        <v>60506.66666666666</v>
+        <v>60498.33333333334</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
       </c>
       <c r="I190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
@@ -7210,22 +7338,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>60450</v>
+        <v>60850</v>
       </c>
       <c r="C191" t="n">
-        <v>60450</v>
+        <v>60850</v>
       </c>
       <c r="D191" t="n">
-        <v>60450</v>
+        <v>60850</v>
       </c>
       <c r="E191" t="n">
-        <v>60450</v>
+        <v>60850</v>
       </c>
       <c r="F191" t="n">
-        <v>15.3797</v>
+        <v>1.9386</v>
       </c>
       <c r="G191" t="n">
-        <v>60508.33333333334</v>
+        <v>60506.66666666666</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7257,16 +7385,16 @@
         <v>60450</v>
       </c>
       <c r="F192" t="n">
-        <v>0.263</v>
+        <v>15.3797</v>
       </c>
       <c r="G192" t="n">
-        <v>60505.83333333334</v>
+        <v>60508.33333333334</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
       </c>
       <c r="I192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
@@ -7292,10 +7420,10 @@
         <v>60450</v>
       </c>
       <c r="F193" t="n">
-        <v>0.0373</v>
+        <v>0.263</v>
       </c>
       <c r="G193" t="n">
-        <v>60503.33333333334</v>
+        <v>60505.83333333334</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7315,22 +7443,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>60350</v>
+        <v>60450</v>
       </c>
       <c r="C194" t="n">
-        <v>60300</v>
+        <v>60450</v>
       </c>
       <c r="D194" t="n">
-        <v>60350</v>
+        <v>60450</v>
       </c>
       <c r="E194" t="n">
-        <v>60300</v>
+        <v>60450</v>
       </c>
       <c r="F194" t="n">
-        <v>2</v>
+        <v>0.0373</v>
       </c>
       <c r="G194" t="n">
-        <v>60498.33333333334</v>
+        <v>60503.33333333334</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7350,22 +7478,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
+        <v>60350</v>
+      </c>
+      <c r="C195" t="n">
         <v>60300</v>
       </c>
-      <c r="C195" t="n">
-        <v>60450</v>
-      </c>
       <c r="D195" t="n">
-        <v>60450</v>
+        <v>60350</v>
       </c>
       <c r="E195" t="n">
         <v>60300</v>
       </c>
       <c r="F195" t="n">
-        <v>1.18381645</v>
+        <v>2</v>
       </c>
       <c r="G195" t="n">
-        <v>60497.5</v>
+        <v>60498.33333333334</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7385,22 +7513,22 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>60200</v>
+        <v>60300</v>
       </c>
       <c r="C196" t="n">
-        <v>60200</v>
+        <v>60450</v>
       </c>
       <c r="D196" t="n">
-        <v>60200</v>
+        <v>60450</v>
       </c>
       <c r="E196" t="n">
-        <v>60200</v>
+        <v>60300</v>
       </c>
       <c r="F196" t="n">
-        <v>17.1535</v>
+        <v>1.18381645</v>
       </c>
       <c r="G196" t="n">
-        <v>60492.5</v>
+        <v>60497.5</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7420,22 +7548,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>60500</v>
+        <v>60200</v>
       </c>
       <c r="C197" t="n">
-        <v>60500</v>
+        <v>60200</v>
       </c>
       <c r="D197" t="n">
-        <v>60500</v>
+        <v>60200</v>
       </c>
       <c r="E197" t="n">
-        <v>60500</v>
+        <v>60200</v>
       </c>
       <c r="F197" t="n">
-        <v>0.0489</v>
+        <v>17.1535</v>
       </c>
       <c r="G197" t="n">
-        <v>60489.16666666666</v>
+        <v>60492.5</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7455,22 +7583,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>60600</v>
+        <v>60500</v>
       </c>
       <c r="C198" t="n">
-        <v>60600</v>
+        <v>60500</v>
       </c>
       <c r="D198" t="n">
-        <v>60600</v>
+        <v>60500</v>
       </c>
       <c r="E198" t="n">
-        <v>60600</v>
+        <v>60500</v>
       </c>
       <c r="F198" t="n">
-        <v>0.016</v>
+        <v>0.0489</v>
       </c>
       <c r="G198" t="n">
-        <v>60495.83333333334</v>
+        <v>60489.16666666666</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7490,22 +7618,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>61000</v>
+        <v>60600</v>
       </c>
       <c r="C199" t="n">
-        <v>61000</v>
+        <v>60600</v>
       </c>
       <c r="D199" t="n">
-        <v>61000</v>
+        <v>60600</v>
       </c>
       <c r="E199" t="n">
-        <v>61000</v>
+        <v>60600</v>
       </c>
       <c r="F199" t="n">
-        <v>0.5585</v>
+        <v>0.016</v>
       </c>
       <c r="G199" t="n">
-        <v>60509.16666666666</v>
+        <v>60495.83333333334</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7525,22 +7653,22 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>60900</v>
+        <v>61000</v>
       </c>
       <c r="C200" t="n">
-        <v>60850</v>
+        <v>61000</v>
       </c>
       <c r="D200" t="n">
-        <v>60900</v>
+        <v>61000</v>
       </c>
       <c r="E200" t="n">
-        <v>60850</v>
+        <v>61000</v>
       </c>
       <c r="F200" t="n">
-        <v>17.1535</v>
+        <v>0.5585</v>
       </c>
       <c r="G200" t="n">
-        <v>60520</v>
+        <v>60509.16666666666</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7563,25 +7691,25 @@
         <v>60900</v>
       </c>
       <c r="C201" t="n">
-        <v>61200</v>
+        <v>60850</v>
       </c>
       <c r="D201" t="n">
-        <v>61200</v>
+        <v>60900</v>
       </c>
       <c r="E201" t="n">
-        <v>60900</v>
+        <v>60850</v>
       </c>
       <c r="F201" t="n">
-        <v>0.0169</v>
+        <v>17.1535</v>
       </c>
       <c r="G201" t="n">
-        <v>60538.33333333334</v>
+        <v>60520</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
       </c>
       <c r="I201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
@@ -7595,7 +7723,7 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>61200</v>
+        <v>60900</v>
       </c>
       <c r="C202" t="n">
         <v>61200</v>
@@ -7604,13 +7732,13 @@
         <v>61200</v>
       </c>
       <c r="E202" t="n">
-        <v>61200</v>
+        <v>60900</v>
       </c>
       <c r="F202" t="n">
-        <v>2</v>
+        <v>0.0169</v>
       </c>
       <c r="G202" t="n">
-        <v>60556.66666666666</v>
+        <v>60538.33333333334</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7630,22 +7758,22 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>61150</v>
+        <v>61200</v>
       </c>
       <c r="C203" t="n">
-        <v>61150</v>
+        <v>61200</v>
       </c>
       <c r="D203" t="n">
-        <v>61150</v>
+        <v>61200</v>
       </c>
       <c r="E203" t="n">
-        <v>61150</v>
+        <v>61200</v>
       </c>
       <c r="F203" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G203" t="n">
-        <v>60574.16666666666</v>
+        <v>60556.66666666666</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7660,6 +7788,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>61150</v>
+      </c>
+      <c r="C204" t="n">
+        <v>61150</v>
+      </c>
+      <c r="D204" t="n">
+        <v>61150</v>
+      </c>
+      <c r="E204" t="n">
+        <v>61150</v>
+      </c>
+      <c r="F204" t="n">
+        <v>1</v>
+      </c>
+      <c r="G204" t="n">
+        <v>60574.16666666666</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>1</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-22 BackTest ZEC.xlsx
+++ b/BackTest/2020-01-22 BackTest ZEC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M204"/>
+  <dimension ref="A1:N214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>32.0803</v>
       </c>
       <c r="G2" t="n">
+        <v>62253.33333333334</v>
+      </c>
+      <c r="H2" t="n">
         <v>62013.33333333334</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>15.4</v>
       </c>
       <c r="G3" t="n">
+        <v>62253.33333333334</v>
+      </c>
+      <c r="H3" t="n">
         <v>62008.33333333334</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>0.1</v>
       </c>
       <c r="G4" t="n">
+        <v>62233.33333333334</v>
+      </c>
+      <c r="H4" t="n">
         <v>62010</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>1.1969</v>
       </c>
       <c r="G5" t="n">
+        <v>62226.66666666666</v>
+      </c>
+      <c r="H5" t="n">
         <v>62016.66666666666</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>0.85</v>
       </c>
       <c r="G6" t="n">
+        <v>62213.33333333334</v>
+      </c>
+      <c r="H6" t="n">
         <v>62029.16666666666</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>95.10850000000001</v>
       </c>
       <c r="G7" t="n">
+        <v>62173.33333333334</v>
+      </c>
+      <c r="H7" t="n">
         <v>62028.33333333334</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>5.4321</v>
       </c>
       <c r="G8" t="n">
+        <v>62123.33333333334</v>
+      </c>
+      <c r="H8" t="n">
         <v>62027.5</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>8.2332</v>
       </c>
       <c r="G9" t="n">
+        <v>62076.66666666666</v>
+      </c>
+      <c r="H9" t="n">
         <v>62030.83333333334</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>59.0024</v>
       </c>
       <c r="G10" t="n">
+        <v>62056.66666666666</v>
+      </c>
+      <c r="H10" t="n">
         <v>62034.16666666666</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>24.5284</v>
       </c>
       <c r="G11" t="n">
+        <v>62036.66666666666</v>
+      </c>
+      <c r="H11" t="n">
         <v>62034.16666666666</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>24.5285</v>
       </c>
       <c r="G12" t="n">
+        <v>62013.33333333334</v>
+      </c>
+      <c r="H12" t="n">
         <v>62034.16666666666</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>8.2333</v>
       </c>
       <c r="G13" t="n">
+        <v>61983.33333333334</v>
+      </c>
+      <c r="H13" t="n">
         <v>62032.5</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>63.3156</v>
       </c>
       <c r="G14" t="n">
+        <v>61950</v>
+      </c>
+      <c r="H14" t="n">
         <v>62030.83333333334</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>2.5548</v>
       </c>
       <c r="G15" t="n">
+        <v>61940</v>
+      </c>
+      <c r="H15" t="n">
         <v>62024.16666666666</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>1.8547</v>
       </c>
       <c r="G16" t="n">
+        <v>61946.66666666666</v>
+      </c>
+      <c r="H16" t="n">
         <v>62032.5</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>0.8376</v>
       </c>
       <c r="G17" t="n">
+        <v>61963.33333333334</v>
+      </c>
+      <c r="H17" t="n">
         <v>62040</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>19.6915</v>
       </c>
       <c r="G18" t="n">
+        <v>61926.66666666666</v>
+      </c>
+      <c r="H18" t="n">
         <v>62047.5</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>8.6114</v>
       </c>
       <c r="G19" t="n">
+        <v>61883.33333333334</v>
+      </c>
+      <c r="H19" t="n">
         <v>62046.66666666666</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>16.1048</v>
       </c>
       <c r="G20" t="n">
+        <v>61826.66666666666</v>
+      </c>
+      <c r="H20" t="n">
         <v>62046.66666666666</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>0.98</v>
       </c>
       <c r="G21" t="n">
+        <v>61790</v>
+      </c>
+      <c r="H21" t="n">
         <v>62050</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>11.3832</v>
       </c>
       <c r="G22" t="n">
+        <v>61783.33333333334</v>
+      </c>
+      <c r="H22" t="n">
         <v>62057.5</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>7.6977</v>
       </c>
       <c r="G23" t="n">
+        <v>61780</v>
+      </c>
+      <c r="H23" t="n">
         <v>62062.5</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>0.0086</v>
       </c>
       <c r="G24" t="n">
+        <v>61786.66666666666</v>
+      </c>
+      <c r="H24" t="n">
         <v>62076.66666666666</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>0.4578</v>
       </c>
       <c r="G25" t="n">
+        <v>61790</v>
+      </c>
+      <c r="H25" t="n">
         <v>62090.83333333334</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>1.5581</v>
       </c>
       <c r="G26" t="n">
+        <v>61793.33333333334</v>
+      </c>
+      <c r="H26" t="n">
         <v>62100.83333333334</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>2.7583</v>
       </c>
       <c r="G27" t="n">
+        <v>61806.66666666666</v>
+      </c>
+      <c r="H27" t="n">
         <v>62114.16666666666</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>1.1241</v>
       </c>
       <c r="G28" t="n">
+        <v>61826.66666666666</v>
+      </c>
+      <c r="H28" t="n">
         <v>62128.33333333334</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>0.3506</v>
       </c>
       <c r="G29" t="n">
+        <v>61853.33333333334</v>
+      </c>
+      <c r="H29" t="n">
         <v>62141.66666666666</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>5.042</v>
       </c>
       <c r="G30" t="n">
+        <v>61896.66666666666</v>
+      </c>
+      <c r="H30" t="n">
         <v>62163.33333333334</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>0.0214</v>
       </c>
       <c r="G31" t="n">
+        <v>61926.66666666666</v>
+      </c>
+      <c r="H31" t="n">
         <v>62174.16666666666</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>0.0043</v>
       </c>
       <c r="G32" t="n">
+        <v>61960</v>
+      </c>
+      <c r="H32" t="n">
         <v>62183.33333333334</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>10.8317</v>
       </c>
       <c r="G33" t="n">
+        <v>62026.66666666666</v>
+      </c>
+      <c r="H33" t="n">
         <v>62195.83333333334</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>9.1683</v>
       </c>
       <c r="G34" t="n">
+        <v>62093.33333333334</v>
+      </c>
+      <c r="H34" t="n">
         <v>62200.83333333334</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>0.0121</v>
       </c>
       <c r="G35" t="n">
+        <v>62140</v>
+      </c>
+      <c r="H35" t="n">
         <v>62196.66666666666</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>23.8</v>
       </c>
       <c r="G36" t="n">
+        <v>62200</v>
+      </c>
+      <c r="H36" t="n">
         <v>62195</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>17.0586</v>
       </c>
       <c r="G37" t="n">
+        <v>62263.33333333334</v>
+      </c>
+      <c r="H37" t="n">
         <v>62197.5</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>1</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>8.570600000000001</v>
       </c>
       <c r="G38" t="n">
+        <v>62326.66666666666</v>
+      </c>
+      <c r="H38" t="n">
         <v>62198.33333333334</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>1</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>4.2336</v>
       </c>
       <c r="G39" t="n">
+        <v>62393.33333333334</v>
+      </c>
+      <c r="H39" t="n">
         <v>62198.33333333334</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>1</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>5.93</v>
       </c>
       <c r="G40" t="n">
+        <v>62450</v>
+      </c>
+      <c r="H40" t="n">
         <v>62195.83333333334</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>1</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>3.3373</v>
       </c>
       <c r="G41" t="n">
+        <v>62516.66666666666</v>
+      </c>
+      <c r="H41" t="n">
         <v>62195.83333333334</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>1</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>0.0798722</v>
       </c>
       <c r="G42" t="n">
+        <v>62556.66666666666</v>
+      </c>
+      <c r="H42" t="n">
         <v>62192.5</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>1</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>3.0837</v>
       </c>
       <c r="G43" t="n">
+        <v>62603.33333333334</v>
+      </c>
+      <c r="H43" t="n">
         <v>62194.16666666666</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>1</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,21 @@
         <v>16</v>
       </c>
       <c r="G44" t="n">
+        <v>62616.66666666666</v>
+      </c>
+      <c r="H44" t="n">
         <v>62189.16666666666</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>1</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2087,21 @@
         <v>2.8195</v>
       </c>
       <c r="G45" t="n">
+        <v>62610</v>
+      </c>
+      <c r="H45" t="n">
         <v>62190</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>1</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2125,21 @@
         <v>1.8603</v>
       </c>
       <c r="G46" t="n">
+        <v>62600</v>
+      </c>
+      <c r="H46" t="n">
         <v>62191.66666666666</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>1</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2163,21 @@
         <v>1.073</v>
       </c>
       <c r="G47" t="n">
+        <v>62553.33333333334</v>
+      </c>
+      <c r="H47" t="n">
         <v>62182.5</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>1</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2201,21 @@
         <v>11.91</v>
       </c>
       <c r="G48" t="n">
+        <v>62466.66666666666</v>
+      </c>
+      <c r="H48" t="n">
         <v>62168.33333333334</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>1</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2239,21 @@
         <v>6.0374</v>
       </c>
       <c r="G49" t="n">
+        <v>62353.33333333334</v>
+      </c>
+      <c r="H49" t="n">
         <v>62140.83333333334</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>1</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2277,21 @@
         <v>11.9999</v>
       </c>
       <c r="G50" t="n">
+        <v>62296.66666666666</v>
+      </c>
+      <c r="H50" t="n">
         <v>62122.5</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2315,21 @@
         <v>0.0001</v>
       </c>
       <c r="G51" t="n">
+        <v>62213.33333333334</v>
+      </c>
+      <c r="H51" t="n">
         <v>62104.16666666666</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2353,21 @@
         <v>2.0083</v>
       </c>
       <c r="G52" t="n">
+        <v>62110</v>
+      </c>
+      <c r="H52" t="n">
         <v>62082.5</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2391,21 @@
         <v>33.1003</v>
       </c>
       <c r="G53" t="n">
+        <v>62016.66666666666</v>
+      </c>
+      <c r="H53" t="n">
         <v>62061.66666666666</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2429,21 @@
         <v>9.1028</v>
       </c>
       <c r="G54" t="n">
+        <v>61923.33333333334</v>
+      </c>
+      <c r="H54" t="n">
         <v>62045</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2467,21 @@
         <v>2</v>
       </c>
       <c r="G55" t="n">
+        <v>61833.33333333334</v>
+      </c>
+      <c r="H55" t="n">
         <v>62032.5</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2505,21 @@
         <v>7.9805</v>
       </c>
       <c r="G56" t="n">
+        <v>61713.33333333334</v>
+      </c>
+      <c r="H56" t="n">
         <v>62015</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2543,21 @@
         <v>12.9212</v>
       </c>
       <c r="G57" t="n">
+        <v>61606.66666666666</v>
+      </c>
+      <c r="H57" t="n">
         <v>61995.83333333334</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2581,21 @@
         <v>9.097799999999999</v>
       </c>
       <c r="G58" t="n">
+        <v>61493.33333333334</v>
+      </c>
+      <c r="H58" t="n">
         <v>61976.66666666666</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2619,21 @@
         <v>14.3581</v>
       </c>
       <c r="G59" t="n">
+        <v>61386.66666666666</v>
+      </c>
+      <c r="H59" t="n">
         <v>61951.66666666666</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2657,21 @@
         <v>16.5585</v>
       </c>
       <c r="G60" t="n">
+        <v>61270</v>
+      </c>
+      <c r="H60" t="n">
         <v>61929.16666666666</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2695,21 @@
         <v>0.6263</v>
       </c>
       <c r="G61" t="n">
+        <v>61153.33333333334</v>
+      </c>
+      <c r="H61" t="n">
         <v>61906.66666666666</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2733,21 @@
         <v>10.0029</v>
       </c>
       <c r="G62" t="n">
+        <v>61076.66666666666</v>
+      </c>
+      <c r="H62" t="n">
         <v>61888.33333333334</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2771,21 @@
         <v>9.9971</v>
       </c>
       <c r="G63" t="n">
+        <v>61020</v>
+      </c>
+      <c r="H63" t="n">
         <v>61860</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2809,21 @@
         <v>9.7568</v>
       </c>
       <c r="G64" t="n">
+        <v>61006.66666666666</v>
+      </c>
+      <c r="H64" t="n">
         <v>61834.16666666666</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2847,21 @@
         <v>3.3218</v>
       </c>
       <c r="G65" t="n">
+        <v>60953.33333333334</v>
+      </c>
+      <c r="H65" t="n">
         <v>61804.16666666666</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +2885,21 @@
         <v>13.9922</v>
       </c>
       <c r="G66" t="n">
+        <v>60886.66666666666</v>
+      </c>
+      <c r="H66" t="n">
         <v>61772.5</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +2923,21 @@
         <v>1.0605</v>
       </c>
       <c r="G67" t="n">
+        <v>60833.33333333334</v>
+      </c>
+      <c r="H67" t="n">
         <v>61747.5</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +2961,21 @@
         <v>50</v>
       </c>
       <c r="G68" t="n">
+        <v>60766.66666666666</v>
+      </c>
+      <c r="H68" t="n">
         <v>61722.5</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +2999,21 @@
         <v>1.8769</v>
       </c>
       <c r="G69" t="n">
+        <v>60700</v>
+      </c>
+      <c r="H69" t="n">
         <v>61700.83333333334</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3037,21 @@
         <v>100</v>
       </c>
       <c r="G70" t="n">
+        <v>60643.33333333334</v>
+      </c>
+      <c r="H70" t="n">
         <v>61679.16666666666</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3075,21 @@
         <v>1.0018</v>
       </c>
       <c r="G71" t="n">
+        <v>60620</v>
+      </c>
+      <c r="H71" t="n">
         <v>61660.83333333334</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3113,21 @@
         <v>12</v>
       </c>
       <c r="G72" t="n">
+        <v>60553.33333333334</v>
+      </c>
+      <c r="H72" t="n">
         <v>61630.83333333334</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3151,21 @@
         <v>2.8196</v>
       </c>
       <c r="G73" t="n">
+        <v>60500</v>
+      </c>
+      <c r="H73" t="n">
         <v>61605.83333333334</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3189,21 @@
         <v>3.6922</v>
       </c>
       <c r="G74" t="n">
+        <v>60466.66666666666</v>
+      </c>
+      <c r="H74" t="n">
         <v>61580.83333333334</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3227,21 @@
         <v>0.541</v>
       </c>
       <c r="G75" t="n">
+        <v>60446.66666666666</v>
+      </c>
+      <c r="H75" t="n">
         <v>61555.83333333334</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3265,21 @@
         <v>4.7668</v>
       </c>
       <c r="G76" t="n">
+        <v>60430</v>
+      </c>
+      <c r="H76" t="n">
         <v>61527.5</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3303,21 @@
         <v>5</v>
       </c>
       <c r="G77" t="n">
+        <v>60423.33333333334</v>
+      </c>
+      <c r="H77" t="n">
         <v>61503.33333333334</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3341,21 @@
         <v>1.4814</v>
       </c>
       <c r="G78" t="n">
+        <v>60416.66666666666</v>
+      </c>
+      <c r="H78" t="n">
         <v>61482.5</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3379,21 @@
         <v>2.4486</v>
       </c>
       <c r="G79" t="n">
+        <v>60393.33333333334</v>
+      </c>
+      <c r="H79" t="n">
         <v>61461.66666666666</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3417,21 @@
         <v>12.0584</v>
       </c>
       <c r="G80" t="n">
+        <v>60353.33333333334</v>
+      </c>
+      <c r="H80" t="n">
         <v>61435.83333333334</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3455,21 @@
         <v>32.3716</v>
       </c>
       <c r="G81" t="n">
+        <v>60340</v>
+      </c>
+      <c r="H81" t="n">
         <v>61410</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3493,21 @@
         <v>48.9085</v>
       </c>
       <c r="G82" t="n">
+        <v>60326.66666666666</v>
+      </c>
+      <c r="H82" t="n">
         <v>61383.33333333334</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3531,21 @@
         <v>173.39</v>
       </c>
       <c r="G83" t="n">
+        <v>60313.33333333334</v>
+      </c>
+      <c r="H83" t="n">
         <v>61355.83333333334</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3569,21 @@
         <v>1.3774</v>
       </c>
       <c r="G84" t="n">
+        <v>60293.33333333334</v>
+      </c>
+      <c r="H84" t="n">
         <v>61327.5</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +3607,21 @@
         <v>0.2408</v>
       </c>
       <c r="G85" t="n">
+        <v>60273.33333333334</v>
+      </c>
+      <c r="H85" t="n">
         <v>61300</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +3645,21 @@
         <v>1.8769</v>
       </c>
       <c r="G86" t="n">
+        <v>60263.33333333334</v>
+      </c>
+      <c r="H86" t="n">
         <v>61278.33333333334</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +3683,21 @@
         <v>2.3485</v>
       </c>
       <c r="G87" t="n">
+        <v>60300</v>
+      </c>
+      <c r="H87" t="n">
         <v>61254.16666666666</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +3721,21 @@
         <v>12.5112</v>
       </c>
       <c r="G88" t="n">
+        <v>60320</v>
+      </c>
+      <c r="H88" t="n">
         <v>61229.16666666666</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,18 +3759,21 @@
         <v>18.1943</v>
       </c>
       <c r="G89" t="n">
+        <v>60380</v>
+      </c>
+      <c r="H89" t="n">
         <v>61212.5</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,18 +3797,21 @@
         <v>2.1932</v>
       </c>
       <c r="G90" t="n">
+        <v>60440</v>
+      </c>
+      <c r="H90" t="n">
         <v>61191.66666666666</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,18 +3835,21 @@
         <v>0.2987</v>
       </c>
       <c r="G91" t="n">
+        <v>60503.33333333334</v>
+      </c>
+      <c r="H91" t="n">
         <v>61171.66666666666</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,18 +3873,21 @@
         <v>52.9</v>
       </c>
       <c r="G92" t="n">
+        <v>60550</v>
+      </c>
+      <c r="H92" t="n">
         <v>61150.83333333334</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3633,18 +3911,21 @@
         <v>23.6848</v>
       </c>
       <c r="G93" t="n">
+        <v>60596.66666666666</v>
+      </c>
+      <c r="H93" t="n">
         <v>61125</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,18 +3949,21 @@
         <v>8.327999999999999</v>
       </c>
       <c r="G94" t="n">
+        <v>60643.33333333334</v>
+      </c>
+      <c r="H94" t="n">
         <v>61099.16666666666</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3703,18 +3987,21 @@
         <v>2.0354</v>
       </c>
       <c r="G95" t="n">
+        <v>60713.33333333334</v>
+      </c>
+      <c r="H95" t="n">
         <v>61079.16666666666</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,18 +4025,21 @@
         <v>0.4644</v>
       </c>
       <c r="G96" t="n">
+        <v>60770</v>
+      </c>
+      <c r="H96" t="n">
         <v>61052.5</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3773,18 +4063,21 @@
         <v>8.146699999999999</v>
       </c>
       <c r="G97" t="n">
+        <v>60826.66666666666</v>
+      </c>
+      <c r="H97" t="n">
         <v>61024.16666666666</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,18 +4101,21 @@
         <v>0.0137</v>
       </c>
       <c r="G98" t="n">
+        <v>60883.33333333334</v>
+      </c>
+      <c r="H98" t="n">
         <v>60995</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3843,18 +4139,21 @@
         <v>0.1653</v>
       </c>
       <c r="G99" t="n">
+        <v>60946.66666666666</v>
+      </c>
+      <c r="H99" t="n">
         <v>60965.83333333334</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,18 +4177,21 @@
         <v>4.0971</v>
       </c>
       <c r="G100" t="n">
+        <v>61010</v>
+      </c>
+      <c r="H100" t="n">
         <v>60940</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,18 +4215,21 @@
         <v>6.3108</v>
       </c>
       <c r="G101" t="n">
+        <v>61046.66666666666</v>
+      </c>
+      <c r="H101" t="n">
         <v>60910.83333333334</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3948,18 +4253,21 @@
         <v>26.6914</v>
       </c>
       <c r="G102" t="n">
+        <v>61083.33333333334</v>
+      </c>
+      <c r="H102" t="n">
         <v>60885.83333333334</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3983,18 +4291,21 @@
         <v>0.0492</v>
       </c>
       <c r="G103" t="n">
+        <v>61120</v>
+      </c>
+      <c r="H103" t="n">
         <v>60858.33333333334</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,18 +4329,21 @@
         <v>3.0492</v>
       </c>
       <c r="G104" t="n">
+        <v>61126.66666666666</v>
+      </c>
+      <c r="H104" t="n">
         <v>60840</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4053,18 +4367,21 @@
         <v>3</v>
       </c>
       <c r="G105" t="n">
+        <v>61133.33333333334</v>
+      </c>
+      <c r="H105" t="n">
         <v>60822.5</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4088,18 +4405,21 @@
         <v>4</v>
       </c>
       <c r="G106" t="n">
+        <v>61143.33333333334</v>
+      </c>
+      <c r="H106" t="n">
         <v>60807.5</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4123,18 +4443,21 @@
         <v>4.041</v>
       </c>
       <c r="G107" t="n">
+        <v>61146.66666666666</v>
+      </c>
+      <c r="H107" t="n">
         <v>60799.16666666666</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4158,18 +4481,21 @@
         <v>0.0328</v>
       </c>
       <c r="G108" t="n">
+        <v>61146.66666666666</v>
+      </c>
+      <c r="H108" t="n">
         <v>60795</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4193,18 +4519,21 @@
         <v>0.0328</v>
       </c>
       <c r="G109" t="n">
+        <v>61146.66666666666</v>
+      </c>
+      <c r="H109" t="n">
         <v>60797.5</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4228,18 +4557,21 @@
         <v>0.0246</v>
       </c>
       <c r="G110" t="n">
+        <v>61143.33333333334</v>
+      </c>
+      <c r="H110" t="n">
         <v>60790.83333333334</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4263,18 +4595,21 @@
         <v>0.0328</v>
       </c>
       <c r="G111" t="n">
+        <v>61140</v>
+      </c>
+      <c r="H111" t="n">
         <v>60784.16666666666</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4298,18 +4633,21 @@
         <v>0.041</v>
       </c>
       <c r="G112" t="n">
+        <v>61136.66666666666</v>
+      </c>
+      <c r="H112" t="n">
         <v>60780.83333333334</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4333,18 +4671,21 @@
         <v>61632</v>
       </c>
       <c r="G113" t="n">
+        <v>61133.33333333334</v>
+      </c>
+      <c r="H113" t="n">
         <v>60774.16666666666</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4368,18 +4709,21 @@
         <v>9.065300000000001</v>
       </c>
       <c r="G114" t="n">
+        <v>61136.66666666666</v>
+      </c>
+      <c r="H114" t="n">
         <v>60769.16666666666</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4403,18 +4747,21 @@
         <v>40.7938</v>
       </c>
       <c r="G115" t="n">
+        <v>61140</v>
+      </c>
+      <c r="H115" t="n">
         <v>60766.66666666666</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4438,18 +4785,21 @@
         <v>4.518</v>
       </c>
       <c r="G116" t="n">
+        <v>61146.66666666666</v>
+      </c>
+      <c r="H116" t="n">
         <v>60769.16666666666</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4473,18 +4823,21 @@
         <v>3.2992</v>
       </c>
       <c r="G117" t="n">
+        <v>61166.66666666666</v>
+      </c>
+      <c r="H117" t="n">
         <v>60775.83333333334</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4508,18 +4861,21 @@
         <v>31.469</v>
       </c>
       <c r="G118" t="n">
+        <v>61196.66666666666</v>
+      </c>
+      <c r="H118" t="n">
         <v>60784.16666666666</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4543,18 +4899,21 @@
         <v>107.056</v>
       </c>
       <c r="G119" t="n">
+        <v>61226.66666666666</v>
+      </c>
+      <c r="H119" t="n">
         <v>60800</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4578,18 +4937,21 @@
         <v>0.1661</v>
       </c>
       <c r="G120" t="n">
+        <v>61256.66666666666</v>
+      </c>
+      <c r="H120" t="n">
         <v>60819.16666666666</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4613,18 +4975,21 @@
         <v>6</v>
       </c>
       <c r="G121" t="n">
+        <v>61270</v>
+      </c>
+      <c r="H121" t="n">
         <v>60836.66666666666</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4648,18 +5013,21 @@
         <v>7.7754</v>
       </c>
       <c r="G122" t="n">
+        <v>61273.33333333334</v>
+      </c>
+      <c r="H122" t="n">
         <v>60848.33333333334</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4683,18 +5051,21 @@
         <v>0.0233</v>
       </c>
       <c r="G123" t="n">
+        <v>61280</v>
+      </c>
+      <c r="H123" t="n">
         <v>60860</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4718,18 +5089,21 @@
         <v>1.6178</v>
       </c>
       <c r="G124" t="n">
+        <v>61270</v>
+      </c>
+      <c r="H124" t="n">
         <v>60863.33333333334</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4753,18 +5127,21 @@
         <v>2.0912</v>
       </c>
       <c r="G125" t="n">
+        <v>61260</v>
+      </c>
+      <c r="H125" t="n">
         <v>60867.5</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4788,18 +5165,21 @@
         <v>0.408</v>
       </c>
       <c r="G126" t="n">
+        <v>61243.33333333334</v>
+      </c>
+      <c r="H126" t="n">
         <v>60873.33333333334</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4823,18 +5203,21 @@
         <v>2.1905</v>
       </c>
       <c r="G127" t="n">
+        <v>61226.66666666666</v>
+      </c>
+      <c r="H127" t="n">
         <v>60879.16666666666</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4858,18 +5241,21 @@
         <v>0.5038</v>
       </c>
       <c r="G128" t="n">
+        <v>61210</v>
+      </c>
+      <c r="H128" t="n">
         <v>60885</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4893,18 +5279,21 @@
         <v>0.0138</v>
       </c>
       <c r="G129" t="n">
+        <v>61180</v>
+      </c>
+      <c r="H129" t="n">
         <v>60889.16666666666</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4928,18 +5317,21 @@
         <v>1.5677</v>
       </c>
       <c r="G130" t="n">
+        <v>61150</v>
+      </c>
+      <c r="H130" t="n">
         <v>60893.33333333334</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4963,18 +5355,21 @@
         <v>0.8325</v>
       </c>
       <c r="G131" t="n">
+        <v>61093.33333333334</v>
+      </c>
+      <c r="H131" t="n">
         <v>60887.5</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4998,18 +5393,21 @@
         <v>19.1675</v>
       </c>
       <c r="G132" t="n">
+        <v>61023.33333333334</v>
+      </c>
+      <c r="H132" t="n">
         <v>60893.33333333334</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5033,18 +5431,21 @@
         <v>6.6304</v>
       </c>
       <c r="G133" t="n">
+        <v>60963.33333333334</v>
+      </c>
+      <c r="H133" t="n">
         <v>60900</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5068,18 +5469,25 @@
         <v>0.067</v>
       </c>
       <c r="G134" t="n">
+        <v>60893.33333333334</v>
+      </c>
+      <c r="H134" t="n">
         <v>60906.66666666666</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="n">
+        <v>60600</v>
+      </c>
+      <c r="L134" t="n">
+        <v>60600</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5103,18 +5511,27 @@
         <v>4.3171</v>
       </c>
       <c r="G135" t="n">
+        <v>60823.33333333334</v>
+      </c>
+      <c r="H135" t="n">
         <v>60913.33333333334</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="L135" t="n">
+        <v>60600</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5138,18 +5555,27 @@
         <v>33.0873</v>
       </c>
       <c r="G136" t="n">
+        <v>60756.66666666666</v>
+      </c>
+      <c r="H136" t="n">
         <v>60918.33333333334</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="L136" t="n">
+        <v>60600</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5173,18 +5599,21 @@
         <v>0.8395</v>
       </c>
       <c r="G137" t="n">
+        <v>60710</v>
+      </c>
+      <c r="H137" t="n">
         <v>60920</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5208,18 +5637,21 @@
         <v>5.55</v>
       </c>
       <c r="G138" t="n">
+        <v>60676.66666666666</v>
+      </c>
+      <c r="H138" t="n">
         <v>60925</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5243,18 +5675,21 @@
         <v>1.3443</v>
       </c>
       <c r="G139" t="n">
+        <v>60626.66666666666</v>
+      </c>
+      <c r="H139" t="n">
         <v>60921.66666666666</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5278,18 +5713,21 @@
         <v>14.4657</v>
       </c>
       <c r="G140" t="n">
+        <v>60576.66666666666</v>
+      </c>
+      <c r="H140" t="n">
         <v>60923.33333333334</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5313,18 +5751,21 @@
         <v>35.2191</v>
       </c>
       <c r="G141" t="n">
+        <v>60533.33333333334</v>
+      </c>
+      <c r="H141" t="n">
         <v>60921.66666666666</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5348,18 +5789,21 @@
         <v>86.1614</v>
       </c>
       <c r="G142" t="n">
+        <v>60483.33333333334</v>
+      </c>
+      <c r="H142" t="n">
         <v>60918.33333333334</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5383,18 +5827,21 @@
         <v>12.7</v>
       </c>
       <c r="G143" t="n">
+        <v>60433.33333333334</v>
+      </c>
+      <c r="H143" t="n">
         <v>60915</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5418,22 +5865,21 @@
         <v>195.3013</v>
       </c>
       <c r="G144" t="n">
+        <v>60390</v>
+      </c>
+      <c r="H144" t="n">
         <v>60913.33333333334</v>
       </c>
-      <c r="H144" t="n">
-        <v>1</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
       <c r="J144" t="n">
-        <v>60100</v>
-      </c>
-      <c r="K144" t="n">
-        <v>60100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5457,2369 +5903,2727 @@
         <v>29.2777</v>
       </c>
       <c r="G145" t="n">
+        <v>60350</v>
+      </c>
+      <c r="H145" t="n">
         <v>60912.5</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
         <v>60100</v>
       </c>
-      <c r="L145" t="inlineStr">
+      <c r="C146" t="n">
+        <v>60100</v>
+      </c>
+      <c r="D146" t="n">
+        <v>60100</v>
+      </c>
+      <c r="E146" t="n">
+        <v>60100</v>
+      </c>
+      <c r="F146" t="n">
+        <v>9.619300000000001</v>
+      </c>
+      <c r="G146" t="n">
+        <v>60333.33333333334</v>
+      </c>
+      <c r="H146" t="n">
+        <v>60905</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>60000</v>
+      </c>
+      <c r="C147" t="n">
+        <v>60350</v>
+      </c>
+      <c r="D147" t="n">
+        <v>60350</v>
+      </c>
+      <c r="E147" t="n">
+        <v>60000</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0.0171</v>
+      </c>
+      <c r="G147" t="n">
+        <v>60333.33333333334</v>
+      </c>
+      <c r="H147" t="n">
+        <v>60901.66666666666</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>60200</v>
+      </c>
+      <c r="C148" t="n">
+        <v>60150</v>
+      </c>
+      <c r="D148" t="n">
+        <v>60200</v>
+      </c>
+      <c r="E148" t="n">
+        <v>60150</v>
+      </c>
+      <c r="F148" t="n">
+        <v>12.4221</v>
+      </c>
+      <c r="G148" t="n">
+        <v>60303.33333333334</v>
+      </c>
+      <c r="H148" t="n">
+        <v>60895.83333333334</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>60150</v>
+      </c>
+      <c r="C149" t="n">
+        <v>60150</v>
+      </c>
+      <c r="D149" t="n">
+        <v>60150</v>
+      </c>
+      <c r="E149" t="n">
+        <v>60150</v>
+      </c>
+      <c r="F149" t="n">
+        <v>115.7514</v>
+      </c>
+      <c r="G149" t="n">
+        <v>60273.33333333334</v>
+      </c>
+      <c r="H149" t="n">
+        <v>60880</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>60150</v>
+      </c>
+      <c r="C150" t="n">
+        <v>59900</v>
+      </c>
+      <c r="D150" t="n">
+        <v>60150</v>
+      </c>
+      <c r="E150" t="n">
+        <v>59900</v>
+      </c>
+      <c r="F150" t="n">
+        <v>123.1377</v>
+      </c>
+      <c r="G150" t="n">
+        <v>60226.66666666666</v>
+      </c>
+      <c r="H150" t="n">
+        <v>60860</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>59900</v>
+      </c>
+      <c r="C151" t="n">
+        <v>59900</v>
+      </c>
+      <c r="D151" t="n">
+        <v>59900</v>
+      </c>
+      <c r="E151" t="n">
+        <v>59900</v>
+      </c>
+      <c r="F151" t="n">
+        <v>0.008699999999999999</v>
+      </c>
+      <c r="G151" t="n">
+        <v>60186.66666666666</v>
+      </c>
+      <c r="H151" t="n">
+        <v>60839.16666666666</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>60300</v>
+      </c>
+      <c r="C152" t="n">
+        <v>60300</v>
+      </c>
+      <c r="D152" t="n">
+        <v>60300</v>
+      </c>
+      <c r="E152" t="n">
+        <v>60300</v>
+      </c>
+      <c r="F152" t="n">
+        <v>0.0086</v>
+      </c>
+      <c r="G152" t="n">
+        <v>60173.33333333334</v>
+      </c>
+      <c r="H152" t="n">
+        <v>60825.83333333334</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>60300</v>
+      </c>
+      <c r="C153" t="n">
+        <v>60300</v>
+      </c>
+      <c r="D153" t="n">
+        <v>60300</v>
+      </c>
+      <c r="E153" t="n">
+        <v>60300</v>
+      </c>
+      <c r="F153" t="n">
+        <v>2.5271</v>
+      </c>
+      <c r="G153" t="n">
+        <v>60146.66666666666</v>
+      </c>
+      <c r="H153" t="n">
+        <v>60812.5</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>60650</v>
+      </c>
+      <c r="C154" t="n">
+        <v>60650</v>
+      </c>
+      <c r="D154" t="n">
+        <v>60650</v>
+      </c>
+      <c r="E154" t="n">
+        <v>60650</v>
+      </c>
+      <c r="F154" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="G154" t="n">
+        <v>60176.66666666666</v>
+      </c>
+      <c r="H154" t="n">
+        <v>60805</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>60600</v>
+      </c>
+      <c r="C155" t="n">
+        <v>60650</v>
+      </c>
+      <c r="D155" t="n">
+        <v>60650</v>
+      </c>
+      <c r="E155" t="n">
+        <v>60600</v>
+      </c>
+      <c r="F155" t="n">
+        <v>3.07593569</v>
+      </c>
+      <c r="G155" t="n">
+        <v>60206.66666666666</v>
+      </c>
+      <c r="H155" t="n">
+        <v>60796.66666666666</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>60350</v>
+      </c>
+      <c r="C156" t="n">
+        <v>60350</v>
+      </c>
+      <c r="D156" t="n">
+        <v>60350</v>
+      </c>
+      <c r="E156" t="n">
+        <v>60350</v>
+      </c>
+      <c r="F156" t="n">
+        <v>0.8364</v>
+      </c>
+      <c r="G156" t="n">
+        <v>60216.66666666666</v>
+      </c>
+      <c r="H156" t="n">
+        <v>60783.33333333334</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>60350</v>
+      </c>
+      <c r="C157" t="n">
+        <v>60350</v>
+      </c>
+      <c r="D157" t="n">
+        <v>60350</v>
+      </c>
+      <c r="E157" t="n">
+        <v>60350</v>
+      </c>
+      <c r="F157" t="n">
+        <v>0.8349</v>
+      </c>
+      <c r="G157" t="n">
+        <v>60233.33333333334</v>
+      </c>
+      <c r="H157" t="n">
+        <v>60770</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>60350</v>
+      </c>
+      <c r="C158" t="n">
+        <v>60200</v>
+      </c>
+      <c r="D158" t="n">
+        <v>60350</v>
+      </c>
+      <c r="E158" t="n">
+        <v>60200</v>
+      </c>
+      <c r="F158" t="n">
+        <v>14.2445</v>
+      </c>
+      <c r="G158" t="n">
+        <v>60240</v>
+      </c>
+      <c r="H158" t="n">
+        <v>60754.16666666666</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>60300</v>
+      </c>
+      <c r="C159" t="n">
+        <v>60300</v>
+      </c>
+      <c r="D159" t="n">
+        <v>60300</v>
+      </c>
+      <c r="E159" t="n">
+        <v>60300</v>
+      </c>
+      <c r="F159" t="n">
+        <v>3</v>
+      </c>
+      <c r="G159" t="n">
+        <v>60253.33333333334</v>
+      </c>
+      <c r="H159" t="n">
+        <v>60740</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>60550</v>
+      </c>
+      <c r="C160" t="n">
+        <v>60550</v>
+      </c>
+      <c r="D160" t="n">
+        <v>60550</v>
+      </c>
+      <c r="E160" t="n">
+        <v>60550</v>
+      </c>
+      <c r="F160" t="n">
+        <v>1.9632</v>
+      </c>
+      <c r="G160" t="n">
+        <v>60280</v>
+      </c>
+      <c r="H160" t="n">
+        <v>60730</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>60550</v>
+      </c>
+      <c r="C161" t="n">
+        <v>60550</v>
+      </c>
+      <c r="D161" t="n">
+        <v>60550</v>
+      </c>
+      <c r="E161" t="n">
+        <v>60550</v>
+      </c>
+      <c r="F161" t="n">
+        <v>4.1662</v>
+      </c>
+      <c r="G161" t="n">
+        <v>60310</v>
+      </c>
+      <c r="H161" t="n">
+        <v>60720.83333333334</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>60550</v>
+      </c>
+      <c r="C162" t="n">
+        <v>60550</v>
+      </c>
+      <c r="D162" t="n">
+        <v>60550</v>
+      </c>
+      <c r="E162" t="n">
+        <v>60550</v>
+      </c>
+      <c r="F162" t="n">
+        <v>1.8372</v>
+      </c>
+      <c r="G162" t="n">
+        <v>60323.33333333334</v>
+      </c>
+      <c r="H162" t="n">
+        <v>60711.66666666666</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>60700</v>
+      </c>
+      <c r="C163" t="n">
+        <v>60700</v>
+      </c>
+      <c r="D163" t="n">
+        <v>60700</v>
+      </c>
+      <c r="E163" t="n">
+        <v>60700</v>
+      </c>
+      <c r="F163" t="n">
+        <v>4.1309</v>
+      </c>
+      <c r="G163" t="n">
+        <v>60360</v>
+      </c>
+      <c r="H163" t="n">
+        <v>60705.83333333334</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>60050</v>
+      </c>
+      <c r="C164" t="n">
+        <v>60050</v>
+      </c>
+      <c r="D164" t="n">
+        <v>60050</v>
+      </c>
+      <c r="E164" t="n">
+        <v>60050</v>
+      </c>
+      <c r="F164" t="n">
+        <v>0.4441</v>
+      </c>
+      <c r="G164" t="n">
+        <v>60353.33333333334</v>
+      </c>
+      <c r="H164" t="n">
+        <v>60686.66666666666</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>60150</v>
+      </c>
+      <c r="C165" t="n">
+        <v>60050</v>
+      </c>
+      <c r="D165" t="n">
+        <v>60150</v>
+      </c>
+      <c r="E165" t="n">
+        <v>60050</v>
+      </c>
+      <c r="F165" t="n">
+        <v>13.0975</v>
+      </c>
+      <c r="G165" t="n">
+        <v>60363.33333333334</v>
+      </c>
+      <c r="H165" t="n">
+        <v>60667.5</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>60250</v>
+      </c>
+      <c r="C166" t="n">
+        <v>60250</v>
+      </c>
+      <c r="D166" t="n">
+        <v>60250</v>
+      </c>
+      <c r="E166" t="n">
+        <v>60250</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0.1339</v>
+      </c>
+      <c r="G166" t="n">
+        <v>60386.66666666666</v>
+      </c>
+      <c r="H166" t="n">
+        <v>60650</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>60250</v>
+      </c>
+      <c r="C167" t="n">
+        <v>60250</v>
+      </c>
+      <c r="D167" t="n">
+        <v>60250</v>
+      </c>
+      <c r="E167" t="n">
+        <v>60250</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0.8661</v>
+      </c>
+      <c r="G167" t="n">
+        <v>60383.33333333334</v>
+      </c>
+      <c r="H167" t="n">
+        <v>60635</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>60250</v>
+      </c>
+      <c r="C168" t="n">
+        <v>60250</v>
+      </c>
+      <c r="D168" t="n">
+        <v>60250</v>
+      </c>
+      <c r="E168" t="n">
+        <v>60250</v>
+      </c>
+      <c r="F168" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="G168" t="n">
+        <v>60380</v>
+      </c>
+      <c r="H168" t="n">
+        <v>60620.83333333334</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>60250</v>
+      </c>
+      <c r="C169" t="n">
+        <v>60250</v>
+      </c>
+      <c r="D169" t="n">
+        <v>60250</v>
+      </c>
+      <c r="E169" t="n">
+        <v>60250</v>
+      </c>
+      <c r="F169" t="n">
+        <v>0.5765</v>
+      </c>
+      <c r="G169" t="n">
+        <v>60353.33333333334</v>
+      </c>
+      <c r="H169" t="n">
+        <v>60606.66666666666</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>60300</v>
+      </c>
+      <c r="C170" t="n">
+        <v>60300</v>
+      </c>
+      <c r="D170" t="n">
+        <v>60300</v>
+      </c>
+      <c r="E170" t="n">
+        <v>60300</v>
+      </c>
+      <c r="F170" t="n">
+        <v>1.2733</v>
+      </c>
+      <c r="G170" t="n">
+        <v>60330</v>
+      </c>
+      <c r="H170" t="n">
+        <v>60593.33333333334</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>60300</v>
+      </c>
+      <c r="C171" t="n">
+        <v>60300</v>
+      </c>
+      <c r="D171" t="n">
+        <v>60300</v>
+      </c>
+      <c r="E171" t="n">
+        <v>60300</v>
+      </c>
+      <c r="F171" t="n">
+        <v>18.7267</v>
+      </c>
+      <c r="G171" t="n">
+        <v>60326.66666666666</v>
+      </c>
+      <c r="H171" t="n">
+        <v>60580</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>60350</v>
+      </c>
+      <c r="C172" t="n">
+        <v>60350</v>
+      </c>
+      <c r="D172" t="n">
+        <v>60350</v>
+      </c>
+      <c r="E172" t="n">
+        <v>60350</v>
+      </c>
+      <c r="F172" t="n">
+        <v>3.2544</v>
+      </c>
+      <c r="G172" t="n">
+        <v>60326.66666666666</v>
+      </c>
+      <c r="H172" t="n">
+        <v>60567.5</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>60350</v>
+      </c>
+      <c r="C173" t="n">
+        <v>60350</v>
+      </c>
+      <c r="D173" t="n">
+        <v>60350</v>
+      </c>
+      <c r="E173" t="n">
+        <v>60350</v>
+      </c>
+      <c r="F173" t="n">
+        <v>18.3163</v>
+      </c>
+      <c r="G173" t="n">
+        <v>60336.66666666666</v>
+      </c>
+      <c r="H173" t="n">
+        <v>60555</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>60600</v>
+      </c>
+      <c r="C174" t="n">
+        <v>60800</v>
+      </c>
+      <c r="D174" t="n">
+        <v>60800</v>
+      </c>
+      <c r="E174" t="n">
+        <v>60600</v>
+      </c>
+      <c r="F174" t="n">
+        <v>32.8255</v>
+      </c>
+      <c r="G174" t="n">
+        <v>60370</v>
+      </c>
+      <c r="H174" t="n">
+        <v>60548.33333333334</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>60800</v>
+      </c>
+      <c r="C175" t="n">
+        <v>60800</v>
+      </c>
+      <c r="D175" t="n">
+        <v>60800</v>
+      </c>
+      <c r="E175" t="n">
+        <v>60800</v>
+      </c>
+      <c r="F175" t="n">
+        <v>7.9625</v>
+      </c>
+      <c r="G175" t="n">
+        <v>60386.66666666666</v>
+      </c>
+      <c r="H175" t="n">
+        <v>60541.66666666666</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>60800</v>
+      </c>
+      <c r="C176" t="n">
+        <v>60800</v>
+      </c>
+      <c r="D176" t="n">
+        <v>60800</v>
+      </c>
+      <c r="E176" t="n">
+        <v>60800</v>
+      </c>
+      <c r="F176" t="n">
+        <v>14.9788</v>
+      </c>
+      <c r="G176" t="n">
+        <v>60403.33333333334</v>
+      </c>
+      <c r="H176" t="n">
+        <v>60535</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>60850</v>
+      </c>
+      <c r="C177" t="n">
+        <v>60850</v>
+      </c>
+      <c r="D177" t="n">
+        <v>60850</v>
+      </c>
+      <c r="E177" t="n">
+        <v>60850</v>
+      </c>
+      <c r="F177" t="n">
+        <v>4.1961</v>
+      </c>
+      <c r="G177" t="n">
+        <v>60423.33333333334</v>
+      </c>
+      <c r="H177" t="n">
+        <v>60525.83333333334</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>60700</v>
+      </c>
+      <c r="C178" t="n">
+        <v>60700</v>
+      </c>
+      <c r="D178" t="n">
+        <v>60700</v>
+      </c>
+      <c r="E178" t="n">
+        <v>60700</v>
+      </c>
+      <c r="F178" t="n">
+        <v>14.317</v>
+      </c>
+      <c r="G178" t="n">
+        <v>60423.33333333334</v>
+      </c>
+      <c r="H178" t="n">
+        <v>60512.5</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>60550</v>
+      </c>
+      <c r="C179" t="n">
+        <v>60850</v>
+      </c>
+      <c r="D179" t="n">
+        <v>60850</v>
+      </c>
+      <c r="E179" t="n">
+        <v>60550</v>
+      </c>
+      <c r="F179" t="n">
+        <v>1.5938</v>
+      </c>
+      <c r="G179" t="n">
+        <v>60476.66666666666</v>
+      </c>
+      <c r="H179" t="n">
+        <v>60499.16666666666</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>60850</v>
+      </c>
+      <c r="C180" t="n">
+        <v>60850</v>
+      </c>
+      <c r="D180" t="n">
+        <v>60850</v>
+      </c>
+      <c r="E180" t="n">
+        <v>60850</v>
+      </c>
+      <c r="F180" t="n">
+        <v>4.2822</v>
+      </c>
+      <c r="G180" t="n">
+        <v>60530</v>
+      </c>
+      <c r="H180" t="n">
+        <v>60485.83333333334</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>61100</v>
+      </c>
+      <c r="C181" t="n">
+        <v>61100</v>
+      </c>
+      <c r="D181" t="n">
+        <v>61100</v>
+      </c>
+      <c r="E181" t="n">
+        <v>61100</v>
+      </c>
+      <c r="F181" t="n">
+        <v>14.991</v>
+      </c>
+      <c r="G181" t="n">
+        <v>60586.66666666666</v>
+      </c>
+      <c r="H181" t="n">
+        <v>60479.16666666666</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>61100</v>
+      </c>
+      <c r="C182" t="n">
+        <v>61100</v>
+      </c>
+      <c r="D182" t="n">
+        <v>61100</v>
+      </c>
+      <c r="E182" t="n">
+        <v>61100</v>
+      </c>
+      <c r="F182" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="G182" t="n">
+        <v>60643.33333333334</v>
+      </c>
+      <c r="H182" t="n">
+        <v>60477.5</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>60850</v>
+      </c>
+      <c r="C183" t="n">
+        <v>60850</v>
+      </c>
+      <c r="D183" t="n">
+        <v>60850</v>
+      </c>
+      <c r="E183" t="n">
+        <v>60850</v>
+      </c>
+      <c r="F183" t="n">
+        <v>13.61413853</v>
+      </c>
+      <c r="G183" t="n">
+        <v>60683.33333333334</v>
+      </c>
+      <c r="H183" t="n">
+        <v>60471.66666666666</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>60850</v>
+      </c>
+      <c r="C184" t="n">
+        <v>60850</v>
+      </c>
+      <c r="D184" t="n">
+        <v>60850</v>
+      </c>
+      <c r="E184" t="n">
+        <v>60850</v>
+      </c>
+      <c r="F184" t="n">
+        <v>13.5032</v>
+      </c>
+      <c r="G184" t="n">
+        <v>60723.33333333334</v>
+      </c>
+      <c r="H184" t="n">
+        <v>60470</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>60850</v>
+      </c>
+      <c r="C185" t="n">
+        <v>60950</v>
+      </c>
+      <c r="D185" t="n">
+        <v>60950</v>
+      </c>
+      <c r="E185" t="n">
+        <v>60850</v>
+      </c>
+      <c r="F185" t="n">
+        <v>0.02216147</v>
+      </c>
+      <c r="G185" t="n">
+        <v>60766.66666666666</v>
+      </c>
+      <c r="H185" t="n">
+        <v>60470</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>60950</v>
+      </c>
+      <c r="C186" t="n">
+        <v>61150</v>
+      </c>
+      <c r="D186" t="n">
+        <v>61150</v>
+      </c>
+      <c r="E186" t="n">
+        <v>60950</v>
+      </c>
+      <c r="F186" t="n">
+        <v>0.0165</v>
+      </c>
+      <c r="G186" t="n">
+        <v>60823.33333333334</v>
+      </c>
+      <c r="H186" t="n">
+        <v>60475</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>61150</v>
+      </c>
+      <c r="C187" t="n">
+        <v>61150</v>
+      </c>
+      <c r="D187" t="n">
+        <v>61150</v>
+      </c>
+      <c r="E187" t="n">
+        <v>61150</v>
+      </c>
+      <c r="F187" t="n">
+        <v>1.2643</v>
+      </c>
+      <c r="G187" t="n">
+        <v>60876.66666666666</v>
+      </c>
+      <c r="H187" t="n">
+        <v>60480</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>61150</v>
+      </c>
+      <c r="C188" t="n">
+        <v>61150</v>
+      </c>
+      <c r="D188" t="n">
+        <v>61150</v>
+      </c>
+      <c r="E188" t="n">
+        <v>61150</v>
+      </c>
+      <c r="F188" t="n">
+        <v>0.8401999999999999</v>
+      </c>
+      <c r="G188" t="n">
+        <v>60930</v>
+      </c>
+      <c r="H188" t="n">
+        <v>60485</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>61150</v>
+      </c>
+      <c r="C189" t="n">
+        <v>61150</v>
+      </c>
+      <c r="D189" t="n">
+        <v>61150</v>
+      </c>
+      <c r="E189" t="n">
+        <v>61150</v>
+      </c>
+      <c r="F189" t="n">
+        <v>3.1893</v>
+      </c>
+      <c r="G189" t="n">
+        <v>60953.33333333334</v>
+      </c>
+      <c r="H189" t="n">
+        <v>60491.66666666666</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>61150</v>
+      </c>
+      <c r="C190" t="n">
+        <v>61150</v>
+      </c>
+      <c r="D190" t="n">
+        <v>61150</v>
+      </c>
+      <c r="E190" t="n">
+        <v>61150</v>
+      </c>
+      <c r="F190" t="n">
+        <v>0.4025</v>
+      </c>
+      <c r="G190" t="n">
+        <v>60976.66666666666</v>
+      </c>
+      <c r="H190" t="n">
+        <v>60498.33333333334</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>60850</v>
+      </c>
+      <c r="C191" t="n">
+        <v>60850</v>
+      </c>
+      <c r="D191" t="n">
+        <v>60850</v>
+      </c>
+      <c r="E191" t="n">
+        <v>60850</v>
+      </c>
+      <c r="F191" t="n">
+        <v>1.9386</v>
+      </c>
+      <c r="G191" t="n">
+        <v>60980</v>
+      </c>
+      <c r="H191" t="n">
+        <v>60506.66666666666</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>60450</v>
+      </c>
+      <c r="C192" t="n">
+        <v>60450</v>
+      </c>
+      <c r="D192" t="n">
+        <v>60450</v>
+      </c>
+      <c r="E192" t="n">
+        <v>60450</v>
+      </c>
+      <c r="F192" t="n">
+        <v>15.3797</v>
+      </c>
+      <c r="G192" t="n">
+        <v>60953.33333333334</v>
+      </c>
+      <c r="H192" t="n">
+        <v>60508.33333333334</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>60450</v>
+      </c>
+      <c r="C193" t="n">
+        <v>60450</v>
+      </c>
+      <c r="D193" t="n">
+        <v>60450</v>
+      </c>
+      <c r="E193" t="n">
+        <v>60450</v>
+      </c>
+      <c r="F193" t="n">
+        <v>0.263</v>
+      </c>
+      <c r="G193" t="n">
+        <v>60936.66666666666</v>
+      </c>
+      <c r="H193" t="n">
+        <v>60505.83333333334</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>60450</v>
+      </c>
+      <c r="C194" t="n">
+        <v>60450</v>
+      </c>
+      <c r="D194" t="n">
+        <v>60450</v>
+      </c>
+      <c r="E194" t="n">
+        <v>60450</v>
+      </c>
+      <c r="F194" t="n">
+        <v>0.0373</v>
+      </c>
+      <c r="G194" t="n">
+        <v>60910</v>
+      </c>
+      <c r="H194" t="n">
+        <v>60503.33333333334</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>60350</v>
+      </c>
+      <c r="C195" t="n">
+        <v>60300</v>
+      </c>
+      <c r="D195" t="n">
+        <v>60350</v>
+      </c>
+      <c r="E195" t="n">
+        <v>60300</v>
+      </c>
+      <c r="F195" t="n">
+        <v>2</v>
+      </c>
+      <c r="G195" t="n">
+        <v>60873.33333333334</v>
+      </c>
+      <c r="H195" t="n">
+        <v>60498.33333333334</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>60300</v>
+      </c>
+      <c r="C196" t="n">
+        <v>60450</v>
+      </c>
+      <c r="D196" t="n">
+        <v>60450</v>
+      </c>
+      <c r="E196" t="n">
+        <v>60300</v>
+      </c>
+      <c r="F196" t="n">
+        <v>1.18381645</v>
+      </c>
+      <c r="G196" t="n">
+        <v>60830</v>
+      </c>
+      <c r="H196" t="n">
+        <v>60497.5</v>
+      </c>
+      <c r="I196" t="n">
+        <v>1</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
+      <c r="K196" t="n">
+        <v>60300</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>60100</v>
-      </c>
-      <c r="C146" t="n">
-        <v>60100</v>
-      </c>
-      <c r="D146" t="n">
-        <v>60100</v>
-      </c>
-      <c r="E146" t="n">
-        <v>60100</v>
-      </c>
-      <c r="F146" t="n">
-        <v>9.619300000000001</v>
-      </c>
-      <c r="G146" t="n">
-        <v>60905</v>
-      </c>
-      <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="n">
-        <v>60150</v>
-      </c>
-      <c r="K146" t="n">
-        <v>60100</v>
-      </c>
-      <c r="L146" t="inlineStr">
+      <c r="N196" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>60200</v>
+      </c>
+      <c r="C197" t="n">
+        <v>60200</v>
+      </c>
+      <c r="D197" t="n">
+        <v>60200</v>
+      </c>
+      <c r="E197" t="n">
+        <v>60200</v>
+      </c>
+      <c r="F197" t="n">
+        <v>17.1535</v>
+      </c>
+      <c r="G197" t="n">
+        <v>60770</v>
+      </c>
+      <c r="H197" t="n">
+        <v>60492.5</v>
+      </c>
+      <c r="I197" t="n">
+        <v>1</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
+      <c r="K197" t="n">
+        <v>60450</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>60000</v>
-      </c>
-      <c r="C147" t="n">
-        <v>60350</v>
-      </c>
-      <c r="D147" t="n">
-        <v>60350</v>
-      </c>
-      <c r="E147" t="n">
-        <v>60000</v>
-      </c>
-      <c r="F147" t="n">
-        <v>0.0171</v>
-      </c>
-      <c r="G147" t="n">
-        <v>60901.66666666666</v>
-      </c>
-      <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="n">
-        <v>60100</v>
-      </c>
-      <c r="K147" t="n">
-        <v>60100</v>
-      </c>
-      <c r="L147" t="inlineStr">
+      <c r="N197" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>60500</v>
+      </c>
+      <c r="C198" t="n">
+        <v>60500</v>
+      </c>
+      <c r="D198" t="n">
+        <v>60500</v>
+      </c>
+      <c r="E198" t="n">
+        <v>60500</v>
+      </c>
+      <c r="F198" t="n">
+        <v>0.0489</v>
+      </c>
+      <c r="G198" t="n">
+        <v>60746.66666666666</v>
+      </c>
+      <c r="H198" t="n">
+        <v>60489.16666666666</v>
+      </c>
+      <c r="I198" t="n">
+        <v>1</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
+      <c r="K198" t="n">
+        <v>60200</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>60200</v>
-      </c>
-      <c r="C148" t="n">
-        <v>60150</v>
-      </c>
-      <c r="D148" t="n">
-        <v>60200</v>
-      </c>
-      <c r="E148" t="n">
-        <v>60150</v>
-      </c>
-      <c r="F148" t="n">
-        <v>12.4221</v>
-      </c>
-      <c r="G148" t="n">
-        <v>60895.83333333334</v>
-      </c>
-      <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="n">
-        <v>60350</v>
-      </c>
-      <c r="K148" t="n">
-        <v>60100</v>
-      </c>
-      <c r="L148" t="inlineStr">
+      <c r="N198" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>60600</v>
+      </c>
+      <c r="C199" t="n">
+        <v>60600</v>
+      </c>
+      <c r="D199" t="n">
+        <v>60600</v>
+      </c>
+      <c r="E199" t="n">
+        <v>60600</v>
+      </c>
+      <c r="F199" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="G199" t="n">
+        <v>60730</v>
+      </c>
+      <c r="H199" t="n">
+        <v>60495.83333333334</v>
+      </c>
+      <c r="I199" t="n">
+        <v>1</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
+      <c r="K199" t="n">
+        <v>60500</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>60150</v>
-      </c>
-      <c r="C149" t="n">
-        <v>60150</v>
-      </c>
-      <c r="D149" t="n">
-        <v>60150</v>
-      </c>
-      <c r="E149" t="n">
-        <v>60150</v>
-      </c>
-      <c r="F149" t="n">
-        <v>115.7514</v>
-      </c>
-      <c r="G149" t="n">
-        <v>60880</v>
-      </c>
-      <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="n">
-        <v>60150</v>
-      </c>
-      <c r="K149" t="n">
-        <v>60100</v>
-      </c>
-      <c r="L149" t="inlineStr">
+      <c r="N199" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>61000</v>
+      </c>
+      <c r="C200" t="n">
+        <v>61000</v>
+      </c>
+      <c r="D200" t="n">
+        <v>61000</v>
+      </c>
+      <c r="E200" t="n">
+        <v>61000</v>
+      </c>
+      <c r="F200" t="n">
+        <v>0.5585</v>
+      </c>
+      <c r="G200" t="n">
+        <v>60733.33333333334</v>
+      </c>
+      <c r="H200" t="n">
+        <v>60509.16666666666</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>60150</v>
-      </c>
-      <c r="C150" t="n">
-        <v>59900</v>
-      </c>
-      <c r="D150" t="n">
-        <v>60150</v>
-      </c>
-      <c r="E150" t="n">
-        <v>59900</v>
-      </c>
-      <c r="F150" t="n">
-        <v>123.1377</v>
-      </c>
-      <c r="G150" t="n">
-        <v>60860</v>
-      </c>
-      <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="n">
-        <v>60150</v>
-      </c>
-      <c r="K150" t="n">
-        <v>60100</v>
-      </c>
-      <c r="L150" t="inlineStr">
+      <c r="N200" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>60900</v>
+      </c>
+      <c r="C201" t="n">
+        <v>60850</v>
+      </c>
+      <c r="D201" t="n">
+        <v>60900</v>
+      </c>
+      <c r="E201" t="n">
+        <v>60850</v>
+      </c>
+      <c r="F201" t="n">
+        <v>17.1535</v>
+      </c>
+      <c r="G201" t="n">
+        <v>60713.33333333334</v>
+      </c>
+      <c r="H201" t="n">
+        <v>60520</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>59900</v>
-      </c>
-      <c r="C151" t="n">
-        <v>59900</v>
-      </c>
-      <c r="D151" t="n">
-        <v>59900</v>
-      </c>
-      <c r="E151" t="n">
-        <v>59900</v>
-      </c>
-      <c r="F151" t="n">
-        <v>0.008699999999999999</v>
-      </c>
-      <c r="G151" t="n">
-        <v>60839.16666666666</v>
-      </c>
-      <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="n">
-        <v>59900</v>
-      </c>
-      <c r="K151" t="n">
-        <v>60100</v>
-      </c>
-      <c r="L151" t="inlineStr">
+      <c r="N201" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>60900</v>
+      </c>
+      <c r="C202" t="n">
+        <v>61200</v>
+      </c>
+      <c r="D202" t="n">
+        <v>61200</v>
+      </c>
+      <c r="E202" t="n">
+        <v>60900</v>
+      </c>
+      <c r="F202" t="n">
+        <v>0.0169</v>
+      </c>
+      <c r="G202" t="n">
+        <v>60716.66666666666</v>
+      </c>
+      <c r="H202" t="n">
+        <v>60538.33333333334</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>60300</v>
-      </c>
-      <c r="C152" t="n">
-        <v>60300</v>
-      </c>
-      <c r="D152" t="n">
-        <v>60300</v>
-      </c>
-      <c r="E152" t="n">
-        <v>60300</v>
-      </c>
-      <c r="F152" t="n">
-        <v>0.0086</v>
-      </c>
-      <c r="G152" t="n">
-        <v>60825.83333333334</v>
-      </c>
-      <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="n">
-        <v>59900</v>
-      </c>
-      <c r="K152" t="n">
-        <v>60100</v>
-      </c>
-      <c r="L152" t="inlineStr">
+      <c r="N202" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>61200</v>
+      </c>
+      <c r="C203" t="n">
+        <v>61200</v>
+      </c>
+      <c r="D203" t="n">
+        <v>61200</v>
+      </c>
+      <c r="E203" t="n">
+        <v>61200</v>
+      </c>
+      <c r="F203" t="n">
+        <v>2</v>
+      </c>
+      <c r="G203" t="n">
+        <v>60720</v>
+      </c>
+      <c r="H203" t="n">
+        <v>60556.66666666666</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>60300</v>
-      </c>
-      <c r="C153" t="n">
-        <v>60300</v>
-      </c>
-      <c r="D153" t="n">
-        <v>60300</v>
-      </c>
-      <c r="E153" t="n">
-        <v>60300</v>
-      </c>
-      <c r="F153" t="n">
-        <v>2.5271</v>
-      </c>
-      <c r="G153" t="n">
-        <v>60812.5</v>
-      </c>
-      <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="n">
-        <v>60300</v>
-      </c>
-      <c r="K153" t="n">
-        <v>60100</v>
-      </c>
-      <c r="L153" t="inlineStr">
+      <c r="N203" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>61150</v>
+      </c>
+      <c r="C204" t="n">
+        <v>61150</v>
+      </c>
+      <c r="D204" t="n">
+        <v>61150</v>
+      </c>
+      <c r="E204" t="n">
+        <v>61150</v>
+      </c>
+      <c r="F204" t="n">
+        <v>1</v>
+      </c>
+      <c r="G204" t="n">
+        <v>60720</v>
+      </c>
+      <c r="H204" t="n">
+        <v>60574.16666666666</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>60650</v>
-      </c>
-      <c r="C154" t="n">
-        <v>60650</v>
-      </c>
-      <c r="D154" t="n">
-        <v>60650</v>
-      </c>
-      <c r="E154" t="n">
-        <v>60650</v>
-      </c>
-      <c r="F154" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="G154" t="n">
-        <v>60805</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>60100</v>
-      </c>
-      <c r="L154" t="inlineStr">
+      <c r="N204" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>60950</v>
+      </c>
+      <c r="C205" t="n">
+        <v>60950</v>
+      </c>
+      <c r="D205" t="n">
+        <v>60950</v>
+      </c>
+      <c r="E205" t="n">
+        <v>60950</v>
+      </c>
+      <c r="F205" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="G205" t="n">
+        <v>60706.66666666666</v>
+      </c>
+      <c r="H205" t="n">
+        <v>60587.5</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>60600</v>
-      </c>
-      <c r="C155" t="n">
-        <v>60650</v>
-      </c>
-      <c r="D155" t="n">
-        <v>60650</v>
-      </c>
-      <c r="E155" t="n">
-        <v>60600</v>
-      </c>
-      <c r="F155" t="n">
-        <v>3.07593569</v>
-      </c>
-      <c r="G155" t="n">
-        <v>60796.66666666666</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>60100</v>
-      </c>
-      <c r="L155" t="inlineStr">
+      <c r="N205" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>60900</v>
+      </c>
+      <c r="C206" t="n">
+        <v>61250</v>
+      </c>
+      <c r="D206" t="n">
+        <v>61250</v>
+      </c>
+      <c r="E206" t="n">
+        <v>60900</v>
+      </c>
+      <c r="F206" t="n">
+        <v>146.0805</v>
+      </c>
+      <c r="G206" t="n">
+        <v>60733.33333333334</v>
+      </c>
+      <c r="H206" t="n">
+        <v>60606.66666666666</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
+      <c r="M206" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>60350</v>
-      </c>
-      <c r="C156" t="n">
-        <v>60350</v>
-      </c>
-      <c r="D156" t="n">
-        <v>60350</v>
-      </c>
-      <c r="E156" t="n">
-        <v>60350</v>
-      </c>
-      <c r="F156" t="n">
-        <v>0.8364</v>
-      </c>
-      <c r="G156" t="n">
+      <c r="N206" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>61250</v>
+      </c>
+      <c r="C207" t="n">
+        <v>61200</v>
+      </c>
+      <c r="D207" t="n">
+        <v>61250</v>
+      </c>
+      <c r="E207" t="n">
+        <v>61200</v>
+      </c>
+      <c r="F207" t="n">
+        <v>43.8117</v>
+      </c>
+      <c r="G207" t="n">
         <v>60783.33333333334</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>60100</v>
-      </c>
-      <c r="L156" t="inlineStr">
+      <c r="H207" t="n">
+        <v>60620.83333333334</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
+      <c r="M207" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>60350</v>
-      </c>
-      <c r="C157" t="n">
-        <v>60350</v>
-      </c>
-      <c r="D157" t="n">
-        <v>60350</v>
-      </c>
-      <c r="E157" t="n">
-        <v>60350</v>
-      </c>
-      <c r="F157" t="n">
-        <v>0.8349</v>
-      </c>
-      <c r="G157" t="n">
-        <v>60770</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>60100</v>
-      </c>
-      <c r="L157" t="inlineStr">
+      <c r="N207" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>61300</v>
+      </c>
+      <c r="C208" t="n">
+        <v>61300</v>
+      </c>
+      <c r="D208" t="n">
+        <v>61300</v>
+      </c>
+      <c r="E208" t="n">
+        <v>61300</v>
+      </c>
+      <c r="F208" t="n">
+        <v>0.3185</v>
+      </c>
+      <c r="G208" t="n">
+        <v>60840</v>
+      </c>
+      <c r="H208" t="n">
+        <v>60640</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
+      <c r="M208" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>60350</v>
-      </c>
-      <c r="C158" t="n">
-        <v>60200</v>
-      </c>
-      <c r="D158" t="n">
-        <v>60350</v>
-      </c>
-      <c r="E158" t="n">
-        <v>60200</v>
-      </c>
-      <c r="F158" t="n">
-        <v>14.2445</v>
-      </c>
-      <c r="G158" t="n">
-        <v>60754.16666666666</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>60100</v>
-      </c>
-      <c r="L158" t="inlineStr">
+      <c r="N208" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>61300</v>
+      </c>
+      <c r="C209" t="n">
+        <v>61300</v>
+      </c>
+      <c r="D209" t="n">
+        <v>61300</v>
+      </c>
+      <c r="E209" t="n">
+        <v>61300</v>
+      </c>
+      <c r="F209" t="n">
+        <v>6.0521</v>
+      </c>
+      <c r="G209" t="n">
+        <v>60896.66666666666</v>
+      </c>
+      <c r="H209" t="n">
+        <v>60659.16666666666</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
+      <c r="M209" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>60300</v>
-      </c>
-      <c r="C159" t="n">
-        <v>60300</v>
-      </c>
-      <c r="D159" t="n">
-        <v>60300</v>
-      </c>
-      <c r="E159" t="n">
-        <v>60300</v>
-      </c>
-      <c r="F159" t="n">
-        <v>3</v>
-      </c>
-      <c r="G159" t="n">
-        <v>60740</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>60100</v>
-      </c>
-      <c r="L159" t="inlineStr">
+      <c r="N209" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>61850</v>
+      </c>
+      <c r="C210" t="n">
+        <v>61850</v>
+      </c>
+      <c r="D210" t="n">
+        <v>61850</v>
+      </c>
+      <c r="E210" t="n">
+        <v>61850</v>
+      </c>
+      <c r="F210" t="n">
+        <v>5.3717</v>
+      </c>
+      <c r="G210" t="n">
+        <v>61000</v>
+      </c>
+      <c r="H210" t="n">
+        <v>60691.66666666666</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
+      <c r="M210" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>60550</v>
-      </c>
-      <c r="C160" t="n">
-        <v>60550</v>
-      </c>
-      <c r="D160" t="n">
-        <v>60550</v>
-      </c>
-      <c r="E160" t="n">
-        <v>60550</v>
-      </c>
-      <c r="F160" t="n">
-        <v>1.9632</v>
-      </c>
-      <c r="G160" t="n">
-        <v>60730</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>60100</v>
-      </c>
-      <c r="L160" t="inlineStr">
+      <c r="N210" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>61550</v>
+      </c>
+      <c r="C211" t="n">
+        <v>61350</v>
+      </c>
+      <c r="D211" t="n">
+        <v>61550</v>
+      </c>
+      <c r="E211" t="n">
+        <v>61350</v>
+      </c>
+      <c r="F211" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="G211" t="n">
+        <v>61060</v>
+      </c>
+      <c r="H211" t="n">
+        <v>60715.83333333334</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
+      <c r="M211" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>60550</v>
-      </c>
-      <c r="C161" t="n">
-        <v>60550</v>
-      </c>
-      <c r="D161" t="n">
-        <v>60550</v>
-      </c>
-      <c r="E161" t="n">
-        <v>60550</v>
-      </c>
-      <c r="F161" t="n">
-        <v>4.1662</v>
-      </c>
-      <c r="G161" t="n">
-        <v>60720.83333333334</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>60100</v>
-      </c>
-      <c r="L161" t="inlineStr">
+      <c r="N211" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>61200</v>
+      </c>
+      <c r="C212" t="n">
+        <v>61200</v>
+      </c>
+      <c r="D212" t="n">
+        <v>61200</v>
+      </c>
+      <c r="E212" t="n">
+        <v>61200</v>
+      </c>
+      <c r="F212" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="G212" t="n">
+        <v>61126.66666666666</v>
+      </c>
+      <c r="H212" t="n">
+        <v>60730.83333333334</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
+      <c r="M212" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>60550</v>
-      </c>
-      <c r="C162" t="n">
-        <v>60550</v>
-      </c>
-      <c r="D162" t="n">
-        <v>60550</v>
-      </c>
-      <c r="E162" t="n">
-        <v>60550</v>
-      </c>
-      <c r="F162" t="n">
-        <v>1.8372</v>
-      </c>
-      <c r="G162" t="n">
-        <v>60711.66666666666</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>60100</v>
-      </c>
-      <c r="L162" t="inlineStr">
+      <c r="N212" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>61150</v>
+      </c>
+      <c r="C213" t="n">
+        <v>61150</v>
+      </c>
+      <c r="D213" t="n">
+        <v>61150</v>
+      </c>
+      <c r="E213" t="n">
+        <v>61150</v>
+      </c>
+      <c r="F213" t="n">
+        <v>3.4317</v>
+      </c>
+      <c r="G213" t="n">
+        <v>61170</v>
+      </c>
+      <c r="H213" t="n">
+        <v>60745</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
+      <c r="M213" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>60700</v>
-      </c>
-      <c r="C163" t="n">
-        <v>60700</v>
-      </c>
-      <c r="D163" t="n">
-        <v>60700</v>
-      </c>
-      <c r="E163" t="n">
-        <v>60700</v>
-      </c>
-      <c r="F163" t="n">
-        <v>4.1309</v>
-      </c>
-      <c r="G163" t="n">
-        <v>60705.83333333334</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>60100</v>
-      </c>
-      <c r="L163" t="inlineStr">
+      <c r="N213" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>61350</v>
+      </c>
+      <c r="C214" t="n">
+        <v>61350</v>
+      </c>
+      <c r="D214" t="n">
+        <v>61350</v>
+      </c>
+      <c r="E214" t="n">
+        <v>61350</v>
+      </c>
+      <c r="F214" t="n">
+        <v>1.2643</v>
+      </c>
+      <c r="G214" t="n">
+        <v>61220</v>
+      </c>
+      <c r="H214" t="n">
+        <v>60756.66666666666</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
+      <c r="M214" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>60050</v>
-      </c>
-      <c r="C164" t="n">
-        <v>60050</v>
-      </c>
-      <c r="D164" t="n">
-        <v>60050</v>
-      </c>
-      <c r="E164" t="n">
-        <v>60050</v>
-      </c>
-      <c r="F164" t="n">
-        <v>0.4441</v>
-      </c>
-      <c r="G164" t="n">
-        <v>60686.66666666666</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>60100</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>60150</v>
-      </c>
-      <c r="C165" t="n">
-        <v>60050</v>
-      </c>
-      <c r="D165" t="n">
-        <v>60150</v>
-      </c>
-      <c r="E165" t="n">
-        <v>60050</v>
-      </c>
-      <c r="F165" t="n">
-        <v>13.0975</v>
-      </c>
-      <c r="G165" t="n">
-        <v>60667.5</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>60100</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>60250</v>
-      </c>
-      <c r="C166" t="n">
-        <v>60250</v>
-      </c>
-      <c r="D166" t="n">
-        <v>60250</v>
-      </c>
-      <c r="E166" t="n">
-        <v>60250</v>
-      </c>
-      <c r="F166" t="n">
-        <v>0.1339</v>
-      </c>
-      <c r="G166" t="n">
-        <v>60650</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>60100</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>60250</v>
-      </c>
-      <c r="C167" t="n">
-        <v>60250</v>
-      </c>
-      <c r="D167" t="n">
-        <v>60250</v>
-      </c>
-      <c r="E167" t="n">
-        <v>60250</v>
-      </c>
-      <c r="F167" t="n">
-        <v>0.8661</v>
-      </c>
-      <c r="G167" t="n">
-        <v>60635</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>60100</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>60250</v>
-      </c>
-      <c r="C168" t="n">
-        <v>60250</v>
-      </c>
-      <c r="D168" t="n">
-        <v>60250</v>
-      </c>
-      <c r="E168" t="n">
-        <v>60250</v>
-      </c>
-      <c r="F168" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="G168" t="n">
-        <v>60620.83333333334</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>60100</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>60250</v>
-      </c>
-      <c r="C169" t="n">
-        <v>60250</v>
-      </c>
-      <c r="D169" t="n">
-        <v>60250</v>
-      </c>
-      <c r="E169" t="n">
-        <v>60250</v>
-      </c>
-      <c r="F169" t="n">
-        <v>0.5765</v>
-      </c>
-      <c r="G169" t="n">
-        <v>60606.66666666666</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>60100</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>60300</v>
-      </c>
-      <c r="C170" t="n">
-        <v>60300</v>
-      </c>
-      <c r="D170" t="n">
-        <v>60300</v>
-      </c>
-      <c r="E170" t="n">
-        <v>60300</v>
-      </c>
-      <c r="F170" t="n">
-        <v>1.2733</v>
-      </c>
-      <c r="G170" t="n">
-        <v>60593.33333333334</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>60100</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>60300</v>
-      </c>
-      <c r="C171" t="n">
-        <v>60300</v>
-      </c>
-      <c r="D171" t="n">
-        <v>60300</v>
-      </c>
-      <c r="E171" t="n">
-        <v>60300</v>
-      </c>
-      <c r="F171" t="n">
-        <v>18.7267</v>
-      </c>
-      <c r="G171" t="n">
-        <v>60580</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>60100</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>60350</v>
-      </c>
-      <c r="C172" t="n">
-        <v>60350</v>
-      </c>
-      <c r="D172" t="n">
-        <v>60350</v>
-      </c>
-      <c r="E172" t="n">
-        <v>60350</v>
-      </c>
-      <c r="F172" t="n">
-        <v>3.2544</v>
-      </c>
-      <c r="G172" t="n">
-        <v>60567.5</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>60100</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>60350</v>
-      </c>
-      <c r="C173" t="n">
-        <v>60350</v>
-      </c>
-      <c r="D173" t="n">
-        <v>60350</v>
-      </c>
-      <c r="E173" t="n">
-        <v>60350</v>
-      </c>
-      <c r="F173" t="n">
-        <v>18.3163</v>
-      </c>
-      <c r="G173" t="n">
-        <v>60555</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>60100</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>60600</v>
-      </c>
-      <c r="C174" t="n">
-        <v>60800</v>
-      </c>
-      <c r="D174" t="n">
-        <v>60800</v>
-      </c>
-      <c r="E174" t="n">
-        <v>60600</v>
-      </c>
-      <c r="F174" t="n">
-        <v>32.8255</v>
-      </c>
-      <c r="G174" t="n">
-        <v>60548.33333333334</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>60100</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>60800</v>
-      </c>
-      <c r="C175" t="n">
-        <v>60800</v>
-      </c>
-      <c r="D175" t="n">
-        <v>60800</v>
-      </c>
-      <c r="E175" t="n">
-        <v>60800</v>
-      </c>
-      <c r="F175" t="n">
-        <v>7.9625</v>
-      </c>
-      <c r="G175" t="n">
-        <v>60541.66666666666</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>60100</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>60800</v>
-      </c>
-      <c r="C176" t="n">
-        <v>60800</v>
-      </c>
-      <c r="D176" t="n">
-        <v>60800</v>
-      </c>
-      <c r="E176" t="n">
-        <v>60800</v>
-      </c>
-      <c r="F176" t="n">
-        <v>14.9788</v>
-      </c>
-      <c r="G176" t="n">
-        <v>60535</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>60100</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>60850</v>
-      </c>
-      <c r="C177" t="n">
-        <v>60850</v>
-      </c>
-      <c r="D177" t="n">
-        <v>60850</v>
-      </c>
-      <c r="E177" t="n">
-        <v>60850</v>
-      </c>
-      <c r="F177" t="n">
-        <v>4.1961</v>
-      </c>
-      <c r="G177" t="n">
-        <v>60525.83333333334</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>60100</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>60700</v>
-      </c>
-      <c r="C178" t="n">
-        <v>60700</v>
-      </c>
-      <c r="D178" t="n">
-        <v>60700</v>
-      </c>
-      <c r="E178" t="n">
-        <v>60700</v>
-      </c>
-      <c r="F178" t="n">
-        <v>14.317</v>
-      </c>
-      <c r="G178" t="n">
-        <v>60512.5</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>60100</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>60550</v>
-      </c>
-      <c r="C179" t="n">
-        <v>60850</v>
-      </c>
-      <c r="D179" t="n">
-        <v>60850</v>
-      </c>
-      <c r="E179" t="n">
-        <v>60550</v>
-      </c>
-      <c r="F179" t="n">
-        <v>1.5938</v>
-      </c>
-      <c r="G179" t="n">
-        <v>60499.16666666666</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>60100</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>60850</v>
-      </c>
-      <c r="C180" t="n">
-        <v>60850</v>
-      </c>
-      <c r="D180" t="n">
-        <v>60850</v>
-      </c>
-      <c r="E180" t="n">
-        <v>60850</v>
-      </c>
-      <c r="F180" t="n">
-        <v>4.2822</v>
-      </c>
-      <c r="G180" t="n">
-        <v>60485.83333333334</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>60100</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>61100</v>
-      </c>
-      <c r="C181" t="n">
-        <v>61100</v>
-      </c>
-      <c r="D181" t="n">
-        <v>61100</v>
-      </c>
-      <c r="E181" t="n">
-        <v>61100</v>
-      </c>
-      <c r="F181" t="n">
-        <v>14.991</v>
-      </c>
-      <c r="G181" t="n">
-        <v>60479.16666666666</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>60100</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>61100</v>
-      </c>
-      <c r="C182" t="n">
-        <v>61100</v>
-      </c>
-      <c r="D182" t="n">
-        <v>61100</v>
-      </c>
-      <c r="E182" t="n">
-        <v>61100</v>
-      </c>
-      <c r="F182" t="n">
-        <v>0.008999999999999999</v>
-      </c>
-      <c r="G182" t="n">
-        <v>60477.5</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>60100</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>60850</v>
-      </c>
-      <c r="C183" t="n">
-        <v>60850</v>
-      </c>
-      <c r="D183" t="n">
-        <v>60850</v>
-      </c>
-      <c r="E183" t="n">
-        <v>60850</v>
-      </c>
-      <c r="F183" t="n">
-        <v>13.61413853</v>
-      </c>
-      <c r="G183" t="n">
-        <v>60471.66666666666</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>60100</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>60850</v>
-      </c>
-      <c r="C184" t="n">
-        <v>60850</v>
-      </c>
-      <c r="D184" t="n">
-        <v>60850</v>
-      </c>
-      <c r="E184" t="n">
-        <v>60850</v>
-      </c>
-      <c r="F184" t="n">
-        <v>13.5032</v>
-      </c>
-      <c r="G184" t="n">
-        <v>60470</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>60100</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>60850</v>
-      </c>
-      <c r="C185" t="n">
-        <v>60950</v>
-      </c>
-      <c r="D185" t="n">
-        <v>60950</v>
-      </c>
-      <c r="E185" t="n">
-        <v>60850</v>
-      </c>
-      <c r="F185" t="n">
-        <v>0.02216147</v>
-      </c>
-      <c r="G185" t="n">
-        <v>60470</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>60100</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>60950</v>
-      </c>
-      <c r="C186" t="n">
-        <v>61150</v>
-      </c>
-      <c r="D186" t="n">
-        <v>61150</v>
-      </c>
-      <c r="E186" t="n">
-        <v>60950</v>
-      </c>
-      <c r="F186" t="n">
-        <v>0.0165</v>
-      </c>
-      <c r="G186" t="n">
-        <v>60475</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>60100</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>61150</v>
-      </c>
-      <c r="C187" t="n">
-        <v>61150</v>
-      </c>
-      <c r="D187" t="n">
-        <v>61150</v>
-      </c>
-      <c r="E187" t="n">
-        <v>61150</v>
-      </c>
-      <c r="F187" t="n">
-        <v>1.2643</v>
-      </c>
-      <c r="G187" t="n">
-        <v>60480</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>60100</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>61150</v>
-      </c>
-      <c r="C188" t="n">
-        <v>61150</v>
-      </c>
-      <c r="D188" t="n">
-        <v>61150</v>
-      </c>
-      <c r="E188" t="n">
-        <v>61150</v>
-      </c>
-      <c r="F188" t="n">
-        <v>0.8401999999999999</v>
-      </c>
-      <c r="G188" t="n">
-        <v>60485</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>60100</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>61150</v>
-      </c>
-      <c r="C189" t="n">
-        <v>61150</v>
-      </c>
-      <c r="D189" t="n">
-        <v>61150</v>
-      </c>
-      <c r="E189" t="n">
-        <v>61150</v>
-      </c>
-      <c r="F189" t="n">
-        <v>3.1893</v>
-      </c>
-      <c r="G189" t="n">
-        <v>60491.66666666666</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>1</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>60100</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
-        <v>1.012470881863561</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>61150</v>
-      </c>
-      <c r="C190" t="n">
-        <v>61150</v>
-      </c>
-      <c r="D190" t="n">
-        <v>61150</v>
-      </c>
-      <c r="E190" t="n">
-        <v>61150</v>
-      </c>
-      <c r="F190" t="n">
-        <v>0.4025</v>
-      </c>
-      <c r="G190" t="n">
-        <v>60498.33333333334</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>1</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>60850</v>
-      </c>
-      <c r="C191" t="n">
-        <v>60850</v>
-      </c>
-      <c r="D191" t="n">
-        <v>60850</v>
-      </c>
-      <c r="E191" t="n">
-        <v>60850</v>
-      </c>
-      <c r="F191" t="n">
-        <v>1.9386</v>
-      </c>
-      <c r="G191" t="n">
-        <v>60506.66666666666</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="n">
-        <v>1</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>60450</v>
-      </c>
-      <c r="C192" t="n">
-        <v>60450</v>
-      </c>
-      <c r="D192" t="n">
-        <v>60450</v>
-      </c>
-      <c r="E192" t="n">
-        <v>60450</v>
-      </c>
-      <c r="F192" t="n">
-        <v>15.3797</v>
-      </c>
-      <c r="G192" t="n">
-        <v>60508.33333333334</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="n">
-        <v>1</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>60450</v>
-      </c>
-      <c r="C193" t="n">
-        <v>60450</v>
-      </c>
-      <c r="D193" t="n">
-        <v>60450</v>
-      </c>
-      <c r="E193" t="n">
-        <v>60450</v>
-      </c>
-      <c r="F193" t="n">
-        <v>0.263</v>
-      </c>
-      <c r="G193" t="n">
-        <v>60505.83333333334</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>60450</v>
-      </c>
-      <c r="C194" t="n">
-        <v>60450</v>
-      </c>
-      <c r="D194" t="n">
-        <v>60450</v>
-      </c>
-      <c r="E194" t="n">
-        <v>60450</v>
-      </c>
-      <c r="F194" t="n">
-        <v>0.0373</v>
-      </c>
-      <c r="G194" t="n">
-        <v>60503.33333333334</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>60350</v>
-      </c>
-      <c r="C195" t="n">
-        <v>60300</v>
-      </c>
-      <c r="D195" t="n">
-        <v>60350</v>
-      </c>
-      <c r="E195" t="n">
-        <v>60300</v>
-      </c>
-      <c r="F195" t="n">
-        <v>2</v>
-      </c>
-      <c r="G195" t="n">
-        <v>60498.33333333334</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>60300</v>
-      </c>
-      <c r="C196" t="n">
-        <v>60450</v>
-      </c>
-      <c r="D196" t="n">
-        <v>60450</v>
-      </c>
-      <c r="E196" t="n">
-        <v>60300</v>
-      </c>
-      <c r="F196" t="n">
-        <v>1.18381645</v>
-      </c>
-      <c r="G196" t="n">
-        <v>60497.5</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>60200</v>
-      </c>
-      <c r="C197" t="n">
-        <v>60200</v>
-      </c>
-      <c r="D197" t="n">
-        <v>60200</v>
-      </c>
-      <c r="E197" t="n">
-        <v>60200</v>
-      </c>
-      <c r="F197" t="n">
-        <v>17.1535</v>
-      </c>
-      <c r="G197" t="n">
-        <v>60492.5</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>60500</v>
-      </c>
-      <c r="C198" t="n">
-        <v>60500</v>
-      </c>
-      <c r="D198" t="n">
-        <v>60500</v>
-      </c>
-      <c r="E198" t="n">
-        <v>60500</v>
-      </c>
-      <c r="F198" t="n">
-        <v>0.0489</v>
-      </c>
-      <c r="G198" t="n">
-        <v>60489.16666666666</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>60600</v>
-      </c>
-      <c r="C199" t="n">
-        <v>60600</v>
-      </c>
-      <c r="D199" t="n">
-        <v>60600</v>
-      </c>
-      <c r="E199" t="n">
-        <v>60600</v>
-      </c>
-      <c r="F199" t="n">
-        <v>0.016</v>
-      </c>
-      <c r="G199" t="n">
-        <v>60495.83333333334</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>61000</v>
-      </c>
-      <c r="C200" t="n">
-        <v>61000</v>
-      </c>
-      <c r="D200" t="n">
-        <v>61000</v>
-      </c>
-      <c r="E200" t="n">
-        <v>61000</v>
-      </c>
-      <c r="F200" t="n">
-        <v>0.5585</v>
-      </c>
-      <c r="G200" t="n">
-        <v>60509.16666666666</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>60900</v>
-      </c>
-      <c r="C201" t="n">
-        <v>60850</v>
-      </c>
-      <c r="D201" t="n">
-        <v>60900</v>
-      </c>
-      <c r="E201" t="n">
-        <v>60850</v>
-      </c>
-      <c r="F201" t="n">
-        <v>17.1535</v>
-      </c>
-      <c r="G201" t="n">
-        <v>60520</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>60900</v>
-      </c>
-      <c r="C202" t="n">
-        <v>61200</v>
-      </c>
-      <c r="D202" t="n">
-        <v>61200</v>
-      </c>
-      <c r="E202" t="n">
-        <v>60900</v>
-      </c>
-      <c r="F202" t="n">
-        <v>0.0169</v>
-      </c>
-      <c r="G202" t="n">
-        <v>60538.33333333334</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>61200</v>
-      </c>
-      <c r="C203" t="n">
-        <v>61200</v>
-      </c>
-      <c r="D203" t="n">
-        <v>61200</v>
-      </c>
-      <c r="E203" t="n">
-        <v>61200</v>
-      </c>
-      <c r="F203" t="n">
-        <v>2</v>
-      </c>
-      <c r="G203" t="n">
-        <v>60556.66666666666</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="n">
-        <v>1</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>61150</v>
-      </c>
-      <c r="C204" t="n">
-        <v>61150</v>
-      </c>
-      <c r="D204" t="n">
-        <v>61150</v>
-      </c>
-      <c r="E204" t="n">
-        <v>61150</v>
-      </c>
-      <c r="F204" t="n">
-        <v>1</v>
-      </c>
-      <c r="G204" t="n">
-        <v>60574.16666666666</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="n">
-        <v>1</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
+      <c r="N214" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-22 BackTest ZEC.xlsx
+++ b/BackTest/2020-01-22 BackTest ZEC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M243"/>
+  <dimension ref="A1:N201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,28 +427,33 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>61850</v>
+        <v>61700</v>
       </c>
       <c r="C2" t="n">
-        <v>61900</v>
+        <v>61700</v>
       </c>
       <c r="D2" t="n">
-        <v>61900</v>
+        <v>61700</v>
       </c>
       <c r="E2" t="n">
-        <v>61850</v>
+        <v>61700</v>
       </c>
       <c r="F2" t="n">
-        <v>1.5898</v>
+        <v>2.5548</v>
       </c>
       <c r="G2" t="n">
-        <v>91.47247381000001</v>
+        <v>-81.83754500000002</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>62250</v>
+        <v>61700</v>
       </c>
       <c r="C3" t="n">
-        <v>62350</v>
+        <v>61900</v>
       </c>
       <c r="D3" t="n">
-        <v>62350</v>
+        <v>61900</v>
       </c>
       <c r="E3" t="n">
-        <v>62250</v>
+        <v>61700</v>
       </c>
       <c r="F3" t="n">
-        <v>2.8</v>
+        <v>1.8547</v>
       </c>
       <c r="G3" t="n">
-        <v>94.27247381000001</v>
+        <v>-79.98284500000003</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,34 +503,35 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>62600</v>
+        <v>61850</v>
       </c>
       <c r="C4" t="n">
-        <v>62600</v>
+        <v>61850</v>
       </c>
       <c r="D4" t="n">
-        <v>62600</v>
+        <v>61850</v>
       </c>
       <c r="E4" t="n">
-        <v>62600</v>
+        <v>61850</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5692</v>
+        <v>0.8376</v>
       </c>
       <c r="G4" t="n">
-        <v>94.84167381</v>
+        <v>-80.82044500000002</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -532,28 +539,29 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>62850</v>
+        <v>61750</v>
       </c>
       <c r="C5" t="n">
-        <v>62850</v>
+        <v>61650</v>
       </c>
       <c r="D5" t="n">
-        <v>62850</v>
+        <v>61750</v>
       </c>
       <c r="E5" t="n">
-        <v>62850</v>
+        <v>61650</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4286</v>
+        <v>19.6915</v>
       </c>
       <c r="G5" t="n">
-        <v>95.27027381000001</v>
+        <v>-100.511945</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,34 +575,35 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>62850</v>
+        <v>61650</v>
       </c>
       <c r="C6" t="n">
-        <v>62700</v>
+        <v>61650</v>
       </c>
       <c r="D6" t="n">
-        <v>62850</v>
+        <v>61650</v>
       </c>
       <c r="E6" t="n">
-        <v>62700</v>
+        <v>61650</v>
       </c>
       <c r="F6" t="n">
-        <v>6.875</v>
+        <v>8.6114</v>
       </c>
       <c r="G6" t="n">
-        <v>88.39527381000001</v>
+        <v>-100.511945</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -602,34 +611,35 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>62850</v>
+        <v>61650</v>
       </c>
       <c r="C7" t="n">
-        <v>62850</v>
+        <v>61650</v>
       </c>
       <c r="D7" t="n">
-        <v>62850</v>
+        <v>61650</v>
       </c>
       <c r="E7" t="n">
-        <v>62850</v>
+        <v>61650</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3065</v>
+        <v>16.1048</v>
       </c>
       <c r="G7" t="n">
-        <v>88.70177381000001</v>
+        <v>-100.511945</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -637,34 +647,35 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>62900</v>
+        <v>61850</v>
       </c>
       <c r="C8" t="n">
-        <v>62900</v>
+        <v>61850</v>
       </c>
       <c r="D8" t="n">
-        <v>62900</v>
+        <v>61850</v>
       </c>
       <c r="E8" t="n">
-        <v>62900</v>
+        <v>61850</v>
       </c>
       <c r="F8" t="n">
-        <v>0.285</v>
+        <v>0.98</v>
       </c>
       <c r="G8" t="n">
-        <v>88.98677381</v>
+        <v>-99.53194500000002</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -672,34 +683,35 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>62850</v>
+        <v>61850</v>
       </c>
       <c r="C9" t="n">
-        <v>62850</v>
+        <v>61900</v>
       </c>
       <c r="D9" t="n">
-        <v>62850</v>
+        <v>61900</v>
       </c>
       <c r="E9" t="n">
-        <v>62850</v>
+        <v>61850</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8108</v>
+        <v>11.3832</v>
       </c>
       <c r="G9" t="n">
-        <v>88.17597381</v>
+        <v>-88.14874500000002</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -707,34 +719,35 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>62850</v>
+        <v>61950</v>
       </c>
       <c r="C10" t="n">
-        <v>62850</v>
+        <v>61950</v>
       </c>
       <c r="D10" t="n">
-        <v>62850</v>
+        <v>62000</v>
       </c>
       <c r="E10" t="n">
-        <v>62850</v>
+        <v>61950</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9164</v>
+        <v>7.6977</v>
       </c>
       <c r="G10" t="n">
-        <v>88.17597381</v>
+        <v>-80.45104500000002</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -742,34 +755,35 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>62750</v>
+        <v>61900</v>
       </c>
       <c r="C11" t="n">
-        <v>62800</v>
+        <v>61900</v>
       </c>
       <c r="D11" t="n">
-        <v>62800</v>
+        <v>61900</v>
       </c>
       <c r="E11" t="n">
-        <v>62750</v>
+        <v>61900</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7935</v>
+        <v>0.0086</v>
       </c>
       <c r="G11" t="n">
-        <v>87.38247381000001</v>
+        <v>-80.45964500000002</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -777,34 +791,35 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>62600</v>
+        <v>61850</v>
       </c>
       <c r="C12" t="n">
-        <v>62600</v>
+        <v>61850</v>
       </c>
       <c r="D12" t="n">
-        <v>62600</v>
+        <v>61850</v>
       </c>
       <c r="E12" t="n">
-        <v>62600</v>
+        <v>61850</v>
       </c>
       <c r="F12" t="n">
-        <v>9.3833</v>
+        <v>0.4578</v>
       </c>
       <c r="G12" t="n">
-        <v>77.99917381</v>
+        <v>-80.91744500000003</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -812,28 +827,29 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>62600</v>
+        <v>61750</v>
       </c>
       <c r="C13" t="n">
-        <v>62600</v>
+        <v>61850</v>
       </c>
       <c r="D13" t="n">
-        <v>62600</v>
+        <v>61850</v>
       </c>
       <c r="E13" t="n">
-        <v>62600</v>
+        <v>61750</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0001</v>
+        <v>1.5581</v>
       </c>
       <c r="G13" t="n">
-        <v>77.99917381</v>
+        <v>-80.91744500000003</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -847,28 +863,29 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>62200</v>
+        <v>61850</v>
       </c>
       <c r="C14" t="n">
-        <v>62200</v>
+        <v>62000</v>
       </c>
       <c r="D14" t="n">
-        <v>62200</v>
+        <v>62000</v>
       </c>
       <c r="E14" t="n">
-        <v>62200</v>
+        <v>61850</v>
       </c>
       <c r="F14" t="n">
-        <v>6.8251</v>
+        <v>2.7583</v>
       </c>
       <c r="G14" t="n">
-        <v>71.17407381</v>
+        <v>-78.15914500000002</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -882,28 +899,29 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>62100</v>
+        <v>62000</v>
       </c>
       <c r="C15" t="n">
-        <v>62100</v>
+        <v>62000</v>
       </c>
       <c r="D15" t="n">
-        <v>62100</v>
+        <v>62000</v>
       </c>
       <c r="E15" t="n">
-        <v>62100</v>
+        <v>62000</v>
       </c>
       <c r="F15" t="n">
-        <v>1.1273</v>
+        <v>1.1241</v>
       </c>
       <c r="G15" t="n">
-        <v>70.04677380999999</v>
+        <v>-78.15914500000002</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -917,28 +935,29 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>62200</v>
+        <v>62000</v>
       </c>
       <c r="C16" t="n">
-        <v>62200</v>
+        <v>62100</v>
       </c>
       <c r="D16" t="n">
-        <v>62200</v>
+        <v>62100</v>
       </c>
       <c r="E16" t="n">
-        <v>62200</v>
+        <v>62000</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9784</v>
+        <v>0.3506</v>
       </c>
       <c r="G16" t="n">
-        <v>71.02517380999998</v>
+        <v>-77.80854500000002</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -952,28 +971,29 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>62200</v>
+        <v>62100</v>
       </c>
       <c r="C17" t="n">
-        <v>62200</v>
+        <v>62350</v>
       </c>
       <c r="D17" t="n">
-        <v>62200</v>
+        <v>62350</v>
       </c>
       <c r="E17" t="n">
-        <v>62200</v>
+        <v>62100</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1965</v>
+        <v>5.042</v>
       </c>
       <c r="G17" t="n">
-        <v>71.02517380999998</v>
+        <v>-72.76654500000002</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -987,28 +1007,29 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>62600</v>
+        <v>62350</v>
       </c>
       <c r="C18" t="n">
-        <v>62600</v>
+        <v>62350</v>
       </c>
       <c r="D18" t="n">
-        <v>62600</v>
+        <v>62350</v>
       </c>
       <c r="E18" t="n">
-        <v>62600</v>
+        <v>62350</v>
       </c>
       <c r="F18" t="n">
-        <v>3.8794</v>
+        <v>0.0214</v>
       </c>
       <c r="G18" t="n">
-        <v>74.90457380999999</v>
+        <v>-72.76654500000002</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1022,28 +1043,29 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>62600</v>
+        <v>62350</v>
       </c>
       <c r="C19" t="n">
-        <v>62600</v>
+        <v>62350</v>
       </c>
       <c r="D19" t="n">
-        <v>62600</v>
+        <v>62350</v>
       </c>
       <c r="E19" t="n">
-        <v>62600</v>
+        <v>62350</v>
       </c>
       <c r="F19" t="n">
-        <v>5.19780095</v>
+        <v>0.0043</v>
       </c>
       <c r="G19" t="n">
-        <v>74.90457380999999</v>
+        <v>-72.76654500000002</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1057,6 +1079,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1066,19 +1089,19 @@
         <v>62600</v>
       </c>
       <c r="C20" t="n">
-        <v>62600</v>
+        <v>62650</v>
       </c>
       <c r="D20" t="n">
-        <v>62600</v>
+        <v>62650</v>
       </c>
       <c r="E20" t="n">
         <v>62600</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8751</v>
+        <v>10.8317</v>
       </c>
       <c r="G20" t="n">
-        <v>74.90457380999999</v>
+        <v>-61.93484500000002</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1092,28 +1115,29 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>62600</v>
+        <v>62650</v>
       </c>
       <c r="C21" t="n">
-        <v>62600</v>
+        <v>62650</v>
       </c>
       <c r="D21" t="n">
-        <v>62600</v>
+        <v>62650</v>
       </c>
       <c r="E21" t="n">
-        <v>62600</v>
+        <v>62650</v>
       </c>
       <c r="F21" t="n">
-        <v>3.9823</v>
+        <v>9.1683</v>
       </c>
       <c r="G21" t="n">
-        <v>74.90457380999999</v>
+        <v>-61.93484500000002</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1127,28 +1151,29 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>62600</v>
+        <v>62350</v>
       </c>
       <c r="C22" t="n">
-        <v>62750</v>
+        <v>62350</v>
       </c>
       <c r="D22" t="n">
-        <v>62750</v>
+        <v>62350</v>
       </c>
       <c r="E22" t="n">
-        <v>62600</v>
+        <v>62350</v>
       </c>
       <c r="F22" t="n">
-        <v>0.31888119</v>
+        <v>0.0121</v>
       </c>
       <c r="G22" t="n">
-        <v>75.22345499999999</v>
+        <v>-61.94694500000002</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1162,28 +1187,29 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>62700</v>
+        <v>62650</v>
       </c>
       <c r="C23" t="n">
-        <v>62500</v>
+        <v>62750</v>
       </c>
       <c r="D23" t="n">
-        <v>62700</v>
+        <v>62750</v>
       </c>
       <c r="E23" t="n">
-        <v>62500</v>
+        <v>62650</v>
       </c>
       <c r="F23" t="n">
-        <v>2.7435</v>
+        <v>23.8</v>
       </c>
       <c r="G23" t="n">
-        <v>72.47995499999999</v>
+        <v>-38.14694500000002</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1197,28 +1223,29 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>62150</v>
+        <v>62750</v>
       </c>
       <c r="C24" t="n">
-        <v>62100</v>
+        <v>62850</v>
       </c>
       <c r="D24" t="n">
-        <v>62150</v>
+        <v>62850</v>
       </c>
       <c r="E24" t="n">
-        <v>62100</v>
+        <v>62650</v>
       </c>
       <c r="F24" t="n">
-        <v>5</v>
+        <v>17.0586</v>
       </c>
       <c r="G24" t="n">
-        <v>67.47995499999999</v>
+        <v>-21.08834500000002</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1232,28 +1259,29 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>62150</v>
+        <v>62850</v>
       </c>
       <c r="C25" t="n">
-        <v>62100</v>
+        <v>62900</v>
       </c>
       <c r="D25" t="n">
-        <v>62150</v>
+        <v>62900</v>
       </c>
       <c r="E25" t="n">
-        <v>62100</v>
+        <v>62850</v>
       </c>
       <c r="F25" t="n">
-        <v>10.79</v>
+        <v>8.570600000000001</v>
       </c>
       <c r="G25" t="n">
-        <v>67.47995499999999</v>
+        <v>-12.51774500000002</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1267,28 +1295,29 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>62150</v>
+        <v>62900</v>
       </c>
       <c r="C26" t="n">
-        <v>62150</v>
+        <v>62900</v>
       </c>
       <c r="D26" t="n">
-        <v>62150</v>
+        <v>62900</v>
       </c>
       <c r="E26" t="n">
-        <v>62150</v>
+        <v>62900</v>
       </c>
       <c r="F26" t="n">
-        <v>6.5636</v>
+        <v>4.2336</v>
       </c>
       <c r="G26" t="n">
-        <v>74.04355499999998</v>
+        <v>-12.51774500000002</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1302,34 +1331,35 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>62150</v>
+        <v>62900</v>
       </c>
       <c r="C27" t="n">
-        <v>62150</v>
+        <v>62700</v>
       </c>
       <c r="D27" t="n">
-        <v>62150</v>
+        <v>63100</v>
       </c>
       <c r="E27" t="n">
-        <v>62150</v>
+        <v>62700</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1952</v>
+        <v>5.93</v>
       </c>
       <c r="G27" t="n">
-        <v>74.04355499999998</v>
+        <v>-18.44774500000002</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1337,34 +1367,35 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>62200</v>
+        <v>62800</v>
       </c>
       <c r="C28" t="n">
-        <v>62200</v>
+        <v>62850</v>
       </c>
       <c r="D28" t="n">
-        <v>62200</v>
+        <v>62850</v>
       </c>
       <c r="E28" t="n">
-        <v>62200</v>
+        <v>62800</v>
       </c>
       <c r="F28" t="n">
-        <v>0.3188</v>
+        <v>3.3373</v>
       </c>
       <c r="G28" t="n">
-        <v>74.36235499999998</v>
+        <v>-15.11044500000002</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -1372,34 +1403,35 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>62150</v>
+        <v>62600</v>
       </c>
       <c r="C29" t="n">
-        <v>61850</v>
+        <v>62600</v>
       </c>
       <c r="D29" t="n">
-        <v>62150</v>
+        <v>62600</v>
       </c>
       <c r="E29" t="n">
-        <v>61850</v>
+        <v>62600</v>
       </c>
       <c r="F29" t="n">
-        <v>17.3518</v>
+        <v>0.0798722</v>
       </c>
       <c r="G29" t="n">
-        <v>57.01055499999998</v>
+        <v>-15.19031720000002</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -1407,34 +1439,35 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>61850</v>
+        <v>62700</v>
       </c>
       <c r="C30" t="n">
-        <v>61800</v>
+        <v>62700</v>
       </c>
       <c r="D30" t="n">
-        <v>62500</v>
+        <v>62700</v>
       </c>
       <c r="E30" t="n">
-        <v>61800</v>
+        <v>62700</v>
       </c>
       <c r="F30" t="n">
-        <v>11.0397</v>
+        <v>3.0837</v>
       </c>
       <c r="G30" t="n">
-        <v>45.97085499999999</v>
+        <v>-12.10661720000002</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -1442,34 +1475,35 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>61800</v>
+        <v>62300</v>
       </c>
       <c r="C31" t="n">
-        <v>61600</v>
+        <v>62300</v>
       </c>
       <c r="D31" t="n">
-        <v>62200</v>
+        <v>62300</v>
       </c>
       <c r="E31" t="n">
-        <v>61600</v>
+        <v>62300</v>
       </c>
       <c r="F31" t="n">
-        <v>32.0803</v>
+        <v>16</v>
       </c>
       <c r="G31" t="n">
-        <v>13.89055499999998</v>
+        <v>-28.10661720000002</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -1477,34 +1511,35 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>61650</v>
+        <v>62250</v>
       </c>
       <c r="C32" t="n">
-        <v>62200</v>
+        <v>62250</v>
       </c>
       <c r="D32" t="n">
-        <v>62200</v>
+        <v>62250</v>
       </c>
       <c r="E32" t="n">
-        <v>61650</v>
+        <v>62250</v>
       </c>
       <c r="F32" t="n">
-        <v>15.4</v>
+        <v>2.8195</v>
       </c>
       <c r="G32" t="n">
-        <v>29.29055499999998</v>
+        <v>-30.92611720000002</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -1512,34 +1547,35 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>62300</v>
+        <v>62200</v>
       </c>
       <c r="C33" t="n">
-        <v>62300</v>
+        <v>62200</v>
       </c>
       <c r="D33" t="n">
-        <v>62300</v>
+        <v>62200</v>
       </c>
       <c r="E33" t="n">
-        <v>62300</v>
+        <v>62200</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1</v>
+        <v>1.8603</v>
       </c>
       <c r="G33" t="n">
-        <v>29.39055499999998</v>
+        <v>-32.78641720000002</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -1547,34 +1583,35 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>62500</v>
+        <v>61750</v>
       </c>
       <c r="C34" t="n">
-        <v>62500</v>
+        <v>61650</v>
       </c>
       <c r="D34" t="n">
-        <v>62500</v>
+        <v>61750</v>
       </c>
       <c r="E34" t="n">
-        <v>62500</v>
+        <v>61650</v>
       </c>
       <c r="F34" t="n">
-        <v>1.1969</v>
+        <v>1.073</v>
       </c>
       <c r="G34" t="n">
-        <v>30.58745499999998</v>
+        <v>-33.85941720000002</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
@@ -1582,34 +1619,35 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>62400</v>
+        <v>61500</v>
       </c>
       <c r="C35" t="n">
-        <v>62400</v>
+        <v>61350</v>
       </c>
       <c r="D35" t="n">
-        <v>62400</v>
+        <v>61500</v>
       </c>
       <c r="E35" t="n">
-        <v>62400</v>
+        <v>61350</v>
       </c>
       <c r="F35" t="n">
-        <v>0.85</v>
+        <v>11.91</v>
       </c>
       <c r="G35" t="n">
-        <v>29.73745499999998</v>
+        <v>-45.76941720000002</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
@@ -1617,28 +1655,29 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>61900</v>
+        <v>61100</v>
       </c>
       <c r="C36" t="n">
-        <v>62000</v>
+        <v>60950</v>
       </c>
       <c r="D36" t="n">
-        <v>62050</v>
+        <v>61200</v>
       </c>
       <c r="E36" t="n">
-        <v>61900</v>
+        <v>60950</v>
       </c>
       <c r="F36" t="n">
-        <v>95.10850000000001</v>
+        <v>6.0374</v>
       </c>
       <c r="G36" t="n">
-        <v>-65.37104500000002</v>
+        <v>-51.80681720000002</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1652,28 +1691,29 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>62000</v>
+        <v>61500</v>
       </c>
       <c r="C37" t="n">
-        <v>62000</v>
+        <v>61500</v>
       </c>
       <c r="D37" t="n">
-        <v>62000</v>
+        <v>61500</v>
       </c>
       <c r="E37" t="n">
-        <v>62000</v>
+        <v>61500</v>
       </c>
       <c r="F37" t="n">
-        <v>5.4321</v>
+        <v>11.9999</v>
       </c>
       <c r="G37" t="n">
-        <v>-65.37104500000002</v>
+        <v>-39.80691720000002</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1687,28 +1727,29 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>61900</v>
+        <v>61500</v>
       </c>
       <c r="C38" t="n">
-        <v>61800</v>
+        <v>61500</v>
       </c>
       <c r="D38" t="n">
-        <v>61900</v>
+        <v>61500</v>
       </c>
       <c r="E38" t="n">
-        <v>61800</v>
+        <v>61500</v>
       </c>
       <c r="F38" t="n">
-        <v>8.2332</v>
+        <v>0.0001</v>
       </c>
       <c r="G38" t="n">
-        <v>-73.60424500000002</v>
+        <v>-39.80691720000002</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1722,28 +1763,29 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>61800</v>
+        <v>61350</v>
       </c>
       <c r="C39" t="n">
-        <v>61800</v>
+        <v>61300</v>
       </c>
       <c r="D39" t="n">
-        <v>61800</v>
+        <v>61350</v>
       </c>
       <c r="E39" t="n">
-        <v>61800</v>
+        <v>61300</v>
       </c>
       <c r="F39" t="n">
-        <v>59.0024</v>
+        <v>2.0083</v>
       </c>
       <c r="G39" t="n">
-        <v>-73.60424500000002</v>
+        <v>-41.81521720000001</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1757,28 +1799,29 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>61850</v>
+        <v>61500</v>
       </c>
       <c r="C40" t="n">
-        <v>61800</v>
+        <v>61500</v>
       </c>
       <c r="D40" t="n">
-        <v>61850</v>
+        <v>61500</v>
       </c>
       <c r="E40" t="n">
-        <v>61800</v>
+        <v>61500</v>
       </c>
       <c r="F40" t="n">
-        <v>24.5284</v>
+        <v>33.1003</v>
       </c>
       <c r="G40" t="n">
-        <v>-73.60424500000002</v>
+        <v>-8.714917200000016</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1792,28 +1835,29 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>61800</v>
+        <v>61500</v>
       </c>
       <c r="C41" t="n">
-        <v>61800</v>
+        <v>61500</v>
       </c>
       <c r="D41" t="n">
-        <v>61800</v>
+        <v>61500</v>
       </c>
       <c r="E41" t="n">
-        <v>61800</v>
+        <v>61500</v>
       </c>
       <c r="F41" t="n">
-        <v>24.5285</v>
+        <v>9.1028</v>
       </c>
       <c r="G41" t="n">
-        <v>-73.60424500000002</v>
+        <v>-8.714917200000016</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1827,28 +1871,29 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>61750</v>
+        <v>61350</v>
       </c>
       <c r="C42" t="n">
-        <v>61700</v>
+        <v>61350</v>
       </c>
       <c r="D42" t="n">
-        <v>61750</v>
+        <v>61350</v>
       </c>
       <c r="E42" t="n">
-        <v>61700</v>
+        <v>61350</v>
       </c>
       <c r="F42" t="n">
-        <v>8.2333</v>
+        <v>2</v>
       </c>
       <c r="G42" t="n">
-        <v>-81.83754500000002</v>
+        <v>-10.71491720000002</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1862,28 +1907,29 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>61750</v>
+        <v>60950</v>
       </c>
       <c r="C43" t="n">
-        <v>61700</v>
+        <v>61050</v>
       </c>
       <c r="D43" t="n">
-        <v>61750</v>
+        <v>61050</v>
       </c>
       <c r="E43" t="n">
-        <v>61700</v>
+        <v>60950</v>
       </c>
       <c r="F43" t="n">
-        <v>63.3156</v>
+        <v>7.9805</v>
       </c>
       <c r="G43" t="n">
-        <v>-81.83754500000002</v>
+        <v>-18.69541720000002</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1897,28 +1943,29 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>61700</v>
+        <v>61000</v>
       </c>
       <c r="C44" t="n">
-        <v>61700</v>
+        <v>61000</v>
       </c>
       <c r="D44" t="n">
-        <v>61700</v>
+        <v>61000</v>
       </c>
       <c r="E44" t="n">
-        <v>61700</v>
+        <v>61000</v>
       </c>
       <c r="F44" t="n">
-        <v>2.5548</v>
+        <v>12.9212</v>
       </c>
       <c r="G44" t="n">
-        <v>-81.83754500000002</v>
+        <v>-31.61661720000001</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1932,28 +1979,29 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>61700</v>
+        <v>61000</v>
       </c>
       <c r="C45" t="n">
-        <v>61900</v>
+        <v>61000</v>
       </c>
       <c r="D45" t="n">
-        <v>61900</v>
+        <v>61000</v>
       </c>
       <c r="E45" t="n">
-        <v>61700</v>
+        <v>61000</v>
       </c>
       <c r="F45" t="n">
-        <v>1.8547</v>
+        <v>9.097799999999999</v>
       </c>
       <c r="G45" t="n">
-        <v>-79.98284500000003</v>
+        <v>-31.61661720000001</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1967,28 +2015,29 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>61850</v>
+        <v>60950</v>
       </c>
       <c r="C46" t="n">
-        <v>61850</v>
+        <v>60700</v>
       </c>
       <c r="D46" t="n">
-        <v>61850</v>
+        <v>60950</v>
       </c>
       <c r="E46" t="n">
-        <v>61850</v>
+        <v>60500</v>
       </c>
       <c r="F46" t="n">
-        <v>0.8376</v>
+        <v>14.3581</v>
       </c>
       <c r="G46" t="n">
-        <v>-80.82044500000002</v>
+        <v>-45.97471720000001</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2002,28 +2051,29 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>61750</v>
+        <v>60500</v>
       </c>
       <c r="C47" t="n">
-        <v>61650</v>
+        <v>60500</v>
       </c>
       <c r="D47" t="n">
-        <v>61750</v>
+        <v>60500</v>
       </c>
       <c r="E47" t="n">
-        <v>61650</v>
+        <v>60500</v>
       </c>
       <c r="F47" t="n">
-        <v>19.6915</v>
+        <v>16.5585</v>
       </c>
       <c r="G47" t="n">
-        <v>-100.511945</v>
+        <v>-62.53321720000001</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2037,28 +2087,29 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>61650</v>
+        <v>60450</v>
       </c>
       <c r="C48" t="n">
-        <v>61650</v>
+        <v>60450</v>
       </c>
       <c r="D48" t="n">
-        <v>61650</v>
+        <v>60450</v>
       </c>
       <c r="E48" t="n">
-        <v>61650</v>
+        <v>60450</v>
       </c>
       <c r="F48" t="n">
-        <v>8.6114</v>
+        <v>0.6263</v>
       </c>
       <c r="G48" t="n">
-        <v>-100.511945</v>
+        <v>-63.15951720000001</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2072,28 +2123,29 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>61650</v>
+        <v>60500</v>
       </c>
       <c r="C49" t="n">
-        <v>61650</v>
+        <v>60500</v>
       </c>
       <c r="D49" t="n">
-        <v>61650</v>
+        <v>60500</v>
       </c>
       <c r="E49" t="n">
-        <v>61650</v>
+        <v>60500</v>
       </c>
       <c r="F49" t="n">
-        <v>16.1048</v>
+        <v>10.0029</v>
       </c>
       <c r="G49" t="n">
-        <v>-100.511945</v>
+        <v>-53.15661720000001</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2107,28 +2159,29 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>61850</v>
+        <v>60500</v>
       </c>
       <c r="C50" t="n">
-        <v>61850</v>
+        <v>60500</v>
       </c>
       <c r="D50" t="n">
-        <v>61850</v>
+        <v>60500</v>
       </c>
       <c r="E50" t="n">
-        <v>61850</v>
+        <v>60500</v>
       </c>
       <c r="F50" t="n">
-        <v>0.98</v>
+        <v>9.9971</v>
       </c>
       <c r="G50" t="n">
-        <v>-99.53194500000002</v>
+        <v>-53.15661720000001</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2142,28 +2195,29 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>61850</v>
+        <v>60900</v>
       </c>
       <c r="C51" t="n">
-        <v>61900</v>
+        <v>60750</v>
       </c>
       <c r="D51" t="n">
-        <v>61900</v>
+        <v>60900</v>
       </c>
       <c r="E51" t="n">
-        <v>61850</v>
+        <v>60750</v>
       </c>
       <c r="F51" t="n">
-        <v>11.3832</v>
+        <v>9.7568</v>
       </c>
       <c r="G51" t="n">
-        <v>-88.14874500000002</v>
+        <v>-43.39981720000002</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2177,28 +2231,29 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>61950</v>
+        <v>60700</v>
       </c>
       <c r="C52" t="n">
-        <v>61950</v>
+        <v>60700</v>
       </c>
       <c r="D52" t="n">
-        <v>62000</v>
+        <v>60700</v>
       </c>
       <c r="E52" t="n">
-        <v>61950</v>
+        <v>60700</v>
       </c>
       <c r="F52" t="n">
-        <v>7.6977</v>
+        <v>3.3218</v>
       </c>
       <c r="G52" t="n">
-        <v>-80.45104500000002</v>
+        <v>-46.72161720000002</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2212,28 +2267,29 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>61900</v>
+        <v>60500</v>
       </c>
       <c r="C53" t="n">
-        <v>61900</v>
+        <v>60500</v>
       </c>
       <c r="D53" t="n">
-        <v>61900</v>
+        <v>60500</v>
       </c>
       <c r="E53" t="n">
-        <v>61900</v>
+        <v>60500</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0086</v>
+        <v>13.9922</v>
       </c>
       <c r="G53" t="n">
-        <v>-80.45964500000002</v>
+        <v>-60.71381720000002</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2247,28 +2303,29 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>61850</v>
+        <v>60500</v>
       </c>
       <c r="C54" t="n">
-        <v>61850</v>
+        <v>60500</v>
       </c>
       <c r="D54" t="n">
-        <v>61850</v>
+        <v>60500</v>
       </c>
       <c r="E54" t="n">
-        <v>61850</v>
+        <v>60500</v>
       </c>
       <c r="F54" t="n">
-        <v>0.4578</v>
+        <v>1.0605</v>
       </c>
       <c r="G54" t="n">
-        <v>-80.91744500000003</v>
+        <v>-60.71381720000002</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2282,28 +2339,29 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>61750</v>
+        <v>60600</v>
       </c>
       <c r="C55" t="n">
-        <v>61850</v>
+        <v>60500</v>
       </c>
       <c r="D55" t="n">
-        <v>61850</v>
+        <v>60600</v>
       </c>
       <c r="E55" t="n">
-        <v>61750</v>
+        <v>60500</v>
       </c>
       <c r="F55" t="n">
-        <v>1.5581</v>
+        <v>50</v>
       </c>
       <c r="G55" t="n">
-        <v>-80.91744500000003</v>
+        <v>-60.71381720000002</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2317,28 +2375,29 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>61850</v>
+        <v>60500</v>
       </c>
       <c r="C56" t="n">
-        <v>62000</v>
+        <v>60500</v>
       </c>
       <c r="D56" t="n">
-        <v>62000</v>
+        <v>60500</v>
       </c>
       <c r="E56" t="n">
-        <v>61850</v>
+        <v>60500</v>
       </c>
       <c r="F56" t="n">
-        <v>2.7583</v>
+        <v>1.8769</v>
       </c>
       <c r="G56" t="n">
-        <v>-78.15914500000002</v>
+        <v>-60.71381720000002</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2352,28 +2411,29 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>62000</v>
+        <v>60500</v>
       </c>
       <c r="C57" t="n">
-        <v>62000</v>
+        <v>60500</v>
       </c>
       <c r="D57" t="n">
-        <v>62000</v>
+        <v>60500</v>
       </c>
       <c r="E57" t="n">
-        <v>62000</v>
+        <v>60500</v>
       </c>
       <c r="F57" t="n">
-        <v>1.1241</v>
+        <v>100</v>
       </c>
       <c r="G57" t="n">
-        <v>-78.15914500000002</v>
+        <v>-60.71381720000002</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2387,28 +2447,29 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>62000</v>
+        <v>60700</v>
       </c>
       <c r="C58" t="n">
-        <v>62100</v>
+        <v>60700</v>
       </c>
       <c r="D58" t="n">
-        <v>62100</v>
+        <v>60700</v>
       </c>
       <c r="E58" t="n">
-        <v>62000</v>
+        <v>60700</v>
       </c>
       <c r="F58" t="n">
-        <v>0.3506</v>
+        <v>1.0018</v>
       </c>
       <c r="G58" t="n">
-        <v>-77.80854500000002</v>
+        <v>-59.71201720000002</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2422,28 +2483,29 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>62100</v>
+        <v>60200</v>
       </c>
       <c r="C59" t="n">
-        <v>62350</v>
+        <v>60000</v>
       </c>
       <c r="D59" t="n">
-        <v>62350</v>
+        <v>60200</v>
       </c>
       <c r="E59" t="n">
-        <v>62100</v>
+        <v>60000</v>
       </c>
       <c r="F59" t="n">
-        <v>5.042</v>
+        <v>12</v>
       </c>
       <c r="G59" t="n">
-        <v>-72.76654500000002</v>
+        <v>-71.71201720000002</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2457,28 +2519,29 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>62350</v>
+        <v>60200</v>
       </c>
       <c r="C60" t="n">
-        <v>62350</v>
+        <v>60200</v>
       </c>
       <c r="D60" t="n">
-        <v>62350</v>
+        <v>60200</v>
       </c>
       <c r="E60" t="n">
-        <v>62350</v>
+        <v>60200</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0214</v>
+        <v>2.8196</v>
       </c>
       <c r="G60" t="n">
-        <v>-72.76654500000002</v>
+        <v>-68.89241720000003</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2492,28 +2555,29 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>62350</v>
+        <v>60200</v>
       </c>
       <c r="C61" t="n">
-        <v>62350</v>
+        <v>60200</v>
       </c>
       <c r="D61" t="n">
-        <v>62350</v>
+        <v>60200</v>
       </c>
       <c r="E61" t="n">
-        <v>62350</v>
+        <v>60200</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0043</v>
+        <v>3.6922</v>
       </c>
       <c r="G61" t="n">
-        <v>-72.76654500000002</v>
+        <v>-68.89241720000003</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2527,28 +2591,29 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>62600</v>
+        <v>60200</v>
       </c>
       <c r="C62" t="n">
-        <v>62650</v>
+        <v>60200</v>
       </c>
       <c r="D62" t="n">
-        <v>62650</v>
+        <v>60200</v>
       </c>
       <c r="E62" t="n">
-        <v>62600</v>
+        <v>60200</v>
       </c>
       <c r="F62" t="n">
-        <v>10.8317</v>
+        <v>0.541</v>
       </c>
       <c r="G62" t="n">
-        <v>-61.93484500000002</v>
+        <v>-68.89241720000003</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2562,28 +2627,29 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>62650</v>
+        <v>60200</v>
       </c>
       <c r="C63" t="n">
-        <v>62650</v>
+        <v>60200</v>
       </c>
       <c r="D63" t="n">
-        <v>62650</v>
+        <v>60200</v>
       </c>
       <c r="E63" t="n">
-        <v>62650</v>
+        <v>60200</v>
       </c>
       <c r="F63" t="n">
-        <v>9.1683</v>
+        <v>4.7668</v>
       </c>
       <c r="G63" t="n">
-        <v>-61.93484500000002</v>
+        <v>-68.89241720000003</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2597,28 +2663,29 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>62350</v>
+        <v>60400</v>
       </c>
       <c r="C64" t="n">
-        <v>62350</v>
+        <v>60400</v>
       </c>
       <c r="D64" t="n">
-        <v>62350</v>
+        <v>60400</v>
       </c>
       <c r="E64" t="n">
-        <v>62350</v>
+        <v>60400</v>
       </c>
       <c r="F64" t="n">
-        <v>0.0121</v>
+        <v>5</v>
       </c>
       <c r="G64" t="n">
-        <v>-61.94694500000002</v>
+        <v>-63.89241720000003</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2632,28 +2699,29 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>62650</v>
+        <v>60400</v>
       </c>
       <c r="C65" t="n">
-        <v>62750</v>
+        <v>60400</v>
       </c>
       <c r="D65" t="n">
-        <v>62750</v>
+        <v>60400</v>
       </c>
       <c r="E65" t="n">
-        <v>62650</v>
+        <v>60400</v>
       </c>
       <c r="F65" t="n">
-        <v>23.8</v>
+        <v>1.4814</v>
       </c>
       <c r="G65" t="n">
-        <v>-38.14694500000002</v>
+        <v>-63.89241720000003</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2667,28 +2735,29 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>62750</v>
+        <v>60400</v>
       </c>
       <c r="C66" t="n">
-        <v>62850</v>
+        <v>60400</v>
       </c>
       <c r="D66" t="n">
-        <v>62850</v>
+        <v>60400</v>
       </c>
       <c r="E66" t="n">
-        <v>62650</v>
+        <v>60400</v>
       </c>
       <c r="F66" t="n">
-        <v>17.0586</v>
+        <v>2.4486</v>
       </c>
       <c r="G66" t="n">
-        <v>-21.08834500000002</v>
+        <v>-63.89241720000003</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2702,28 +2771,29 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>62850</v>
+        <v>60400</v>
       </c>
       <c r="C67" t="n">
-        <v>62900</v>
+        <v>60100</v>
       </c>
       <c r="D67" t="n">
-        <v>62900</v>
+        <v>60400</v>
       </c>
       <c r="E67" t="n">
-        <v>62850</v>
+        <v>60100</v>
       </c>
       <c r="F67" t="n">
-        <v>8.570600000000001</v>
+        <v>12.0584</v>
       </c>
       <c r="G67" t="n">
-        <v>-12.51774500000002</v>
+        <v>-75.95081720000003</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2737,28 +2807,29 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>62900</v>
+        <v>60300</v>
       </c>
       <c r="C68" t="n">
-        <v>62900</v>
+        <v>60300</v>
       </c>
       <c r="D68" t="n">
-        <v>62900</v>
+        <v>60300</v>
       </c>
       <c r="E68" t="n">
-        <v>62900</v>
+        <v>60300</v>
       </c>
       <c r="F68" t="n">
-        <v>4.2336</v>
+        <v>32.3716</v>
       </c>
       <c r="G68" t="n">
-        <v>-12.51774500000002</v>
+        <v>-43.57921720000003</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2772,34 +2843,35 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>62900</v>
+        <v>60400</v>
       </c>
       <c r="C69" t="n">
-        <v>62700</v>
+        <v>60300</v>
       </c>
       <c r="D69" t="n">
-        <v>63100</v>
+        <v>60400</v>
       </c>
       <c r="E69" t="n">
-        <v>62700</v>
+        <v>60300</v>
       </c>
       <c r="F69" t="n">
-        <v>5.93</v>
+        <v>48.9085</v>
       </c>
       <c r="G69" t="n">
-        <v>-18.44774500000002</v>
+        <v>-43.57921720000003</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
@@ -2807,34 +2879,35 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>62800</v>
+        <v>60300</v>
       </c>
       <c r="C70" t="n">
-        <v>62850</v>
+        <v>60300</v>
       </c>
       <c r="D70" t="n">
-        <v>62850</v>
+        <v>60400</v>
       </c>
       <c r="E70" t="n">
-        <v>62800</v>
+        <v>60300</v>
       </c>
       <c r="F70" t="n">
-        <v>3.3373</v>
+        <v>173.39</v>
       </c>
       <c r="G70" t="n">
-        <v>-15.11044500000002</v>
+        <v>-43.57921720000003</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
@@ -2842,28 +2915,29 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>62600</v>
+        <v>60200</v>
       </c>
       <c r="C71" t="n">
-        <v>62600</v>
+        <v>60200</v>
       </c>
       <c r="D71" t="n">
-        <v>62600</v>
+        <v>60200</v>
       </c>
       <c r="E71" t="n">
-        <v>62600</v>
+        <v>60200</v>
       </c>
       <c r="F71" t="n">
-        <v>0.0798722</v>
+        <v>1.3774</v>
       </c>
       <c r="G71" t="n">
-        <v>-15.19031720000002</v>
+        <v>-44.95661720000003</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2877,28 +2951,29 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>62700</v>
+        <v>60200</v>
       </c>
       <c r="C72" t="n">
-        <v>62700</v>
+        <v>60200</v>
       </c>
       <c r="D72" t="n">
-        <v>62700</v>
+        <v>60200</v>
       </c>
       <c r="E72" t="n">
-        <v>62700</v>
+        <v>60200</v>
       </c>
       <c r="F72" t="n">
-        <v>3.0837</v>
+        <v>0.2408</v>
       </c>
       <c r="G72" t="n">
-        <v>-12.10661720000002</v>
+        <v>-44.95661720000003</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2912,28 +2987,29 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>62300</v>
+        <v>60550</v>
       </c>
       <c r="C73" t="n">
-        <v>62300</v>
+        <v>60550</v>
       </c>
       <c r="D73" t="n">
-        <v>62300</v>
+        <v>60550</v>
       </c>
       <c r="E73" t="n">
-        <v>62300</v>
+        <v>60550</v>
       </c>
       <c r="F73" t="n">
-        <v>16</v>
+        <v>1.8769</v>
       </c>
       <c r="G73" t="n">
-        <v>-28.10661720000002</v>
+        <v>-43.07971720000003</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2947,28 +3023,29 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>62250</v>
+        <v>60550</v>
       </c>
       <c r="C74" t="n">
-        <v>62250</v>
+        <v>60550</v>
       </c>
       <c r="D74" t="n">
-        <v>62250</v>
+        <v>60550</v>
       </c>
       <c r="E74" t="n">
-        <v>62250</v>
+        <v>60550</v>
       </c>
       <c r="F74" t="n">
-        <v>2.8195</v>
+        <v>2.3485</v>
       </c>
       <c r="G74" t="n">
-        <v>-30.92611720000002</v>
+        <v>-43.07971720000003</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2982,28 +3059,29 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>62200</v>
+        <v>60500</v>
       </c>
       <c r="C75" t="n">
-        <v>62200</v>
+        <v>60500</v>
       </c>
       <c r="D75" t="n">
-        <v>62200</v>
+        <v>60500</v>
       </c>
       <c r="E75" t="n">
-        <v>62200</v>
+        <v>60500</v>
       </c>
       <c r="F75" t="n">
-        <v>1.8603</v>
+        <v>12.5112</v>
       </c>
       <c r="G75" t="n">
-        <v>-32.78641720000002</v>
+        <v>-55.59091720000004</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3017,28 +3095,29 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>61750</v>
+        <v>61100</v>
       </c>
       <c r="C76" t="n">
-        <v>61650</v>
+        <v>61100</v>
       </c>
       <c r="D76" t="n">
-        <v>61750</v>
+        <v>61100</v>
       </c>
       <c r="E76" t="n">
-        <v>61650</v>
+        <v>61100</v>
       </c>
       <c r="F76" t="n">
-        <v>1.073</v>
+        <v>18.1943</v>
       </c>
       <c r="G76" t="n">
-        <v>-33.85941720000002</v>
+        <v>-37.39661720000004</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3052,28 +3131,29 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>61500</v>
+        <v>61100</v>
       </c>
       <c r="C77" t="n">
-        <v>61350</v>
+        <v>61100</v>
       </c>
       <c r="D77" t="n">
-        <v>61500</v>
+        <v>61100</v>
       </c>
       <c r="E77" t="n">
-        <v>61350</v>
+        <v>61100</v>
       </c>
       <c r="F77" t="n">
-        <v>11.91</v>
+        <v>2.1932</v>
       </c>
       <c r="G77" t="n">
-        <v>-45.76941720000002</v>
+        <v>-37.39661720000004</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3087,28 +3167,29 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>61100</v>
+        <v>61150</v>
       </c>
       <c r="C78" t="n">
-        <v>60950</v>
+        <v>61150</v>
       </c>
       <c r="D78" t="n">
-        <v>61200</v>
+        <v>61150</v>
       </c>
       <c r="E78" t="n">
-        <v>60950</v>
+        <v>61150</v>
       </c>
       <c r="F78" t="n">
-        <v>6.0374</v>
+        <v>0.2987</v>
       </c>
       <c r="G78" t="n">
-        <v>-51.80681720000002</v>
+        <v>-37.09791720000004</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3122,28 +3203,29 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>61500</v>
+        <v>61100</v>
       </c>
       <c r="C79" t="n">
-        <v>61500</v>
+        <v>61100</v>
       </c>
       <c r="D79" t="n">
-        <v>61500</v>
+        <v>61100</v>
       </c>
       <c r="E79" t="n">
-        <v>61500</v>
+        <v>61100</v>
       </c>
       <c r="F79" t="n">
-        <v>11.9999</v>
+        <v>52.9</v>
       </c>
       <c r="G79" t="n">
-        <v>-39.80691720000002</v>
+        <v>-89.99791720000005</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3157,28 +3239,29 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>61500</v>
+        <v>61100</v>
       </c>
       <c r="C80" t="n">
-        <v>61500</v>
+        <v>61100</v>
       </c>
       <c r="D80" t="n">
-        <v>61500</v>
+        <v>61100</v>
       </c>
       <c r="E80" t="n">
-        <v>61500</v>
+        <v>61100</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0001</v>
+        <v>23.6848</v>
       </c>
       <c r="G80" t="n">
-        <v>-39.80691720000002</v>
+        <v>-89.99791720000005</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3192,28 +3275,29 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>61350</v>
+        <v>61100</v>
       </c>
       <c r="C81" t="n">
-        <v>61300</v>
+        <v>61100</v>
       </c>
       <c r="D81" t="n">
-        <v>61350</v>
+        <v>61100</v>
       </c>
       <c r="E81" t="n">
-        <v>61300</v>
+        <v>61100</v>
       </c>
       <c r="F81" t="n">
-        <v>2.0083</v>
+        <v>8.327999999999999</v>
       </c>
       <c r="G81" t="n">
-        <v>-41.81521720000001</v>
+        <v>-89.99791720000005</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3227,28 +3311,29 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>61500</v>
+        <v>61150</v>
       </c>
       <c r="C82" t="n">
-        <v>61500</v>
+        <v>61150</v>
       </c>
       <c r="D82" t="n">
-        <v>61500</v>
+        <v>61150</v>
       </c>
       <c r="E82" t="n">
-        <v>61500</v>
+        <v>61150</v>
       </c>
       <c r="F82" t="n">
-        <v>33.1003</v>
+        <v>2.0354</v>
       </c>
       <c r="G82" t="n">
-        <v>-8.714917200000016</v>
+        <v>-87.96251720000005</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3262,28 +3347,29 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>61500</v>
+        <v>61150</v>
       </c>
       <c r="C83" t="n">
-        <v>61500</v>
+        <v>61150</v>
       </c>
       <c r="D83" t="n">
-        <v>61500</v>
+        <v>61150</v>
       </c>
       <c r="E83" t="n">
-        <v>61500</v>
+        <v>61150</v>
       </c>
       <c r="F83" t="n">
-        <v>9.1028</v>
+        <v>0.4644</v>
       </c>
       <c r="G83" t="n">
-        <v>-8.714917200000016</v>
+        <v>-87.96251720000005</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3297,28 +3383,29 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>61350</v>
+        <v>61150</v>
       </c>
       <c r="C84" t="n">
-        <v>61350</v>
+        <v>61150</v>
       </c>
       <c r="D84" t="n">
-        <v>61350</v>
+        <v>61150</v>
       </c>
       <c r="E84" t="n">
-        <v>61350</v>
+        <v>61150</v>
       </c>
       <c r="F84" t="n">
-        <v>2</v>
+        <v>8.146699999999999</v>
       </c>
       <c r="G84" t="n">
-        <v>-10.71491720000002</v>
+        <v>-87.96251720000005</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3332,28 +3419,29 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>60950</v>
+        <v>61150</v>
       </c>
       <c r="C85" t="n">
-        <v>61050</v>
+        <v>61150</v>
       </c>
       <c r="D85" t="n">
-        <v>61050</v>
+        <v>61150</v>
       </c>
       <c r="E85" t="n">
-        <v>60950</v>
+        <v>61150</v>
       </c>
       <c r="F85" t="n">
-        <v>7.9805</v>
+        <v>0.0137</v>
       </c>
       <c r="G85" t="n">
-        <v>-18.69541720000002</v>
+        <v>-87.96251720000005</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3367,28 +3455,29 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>61000</v>
+        <v>61150</v>
       </c>
       <c r="C86" t="n">
-        <v>61000</v>
+        <v>61150</v>
       </c>
       <c r="D86" t="n">
-        <v>61000</v>
+        <v>61150</v>
       </c>
       <c r="E86" t="n">
-        <v>61000</v>
+        <v>61150</v>
       </c>
       <c r="F86" t="n">
-        <v>12.9212</v>
+        <v>0.1653</v>
       </c>
       <c r="G86" t="n">
-        <v>-31.61661720000001</v>
+        <v>-87.96251720000005</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3402,28 +3491,29 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>61000</v>
+        <v>61150</v>
       </c>
       <c r="C87" t="n">
-        <v>61000</v>
+        <v>61150</v>
       </c>
       <c r="D87" t="n">
-        <v>61000</v>
+        <v>61150</v>
       </c>
       <c r="E87" t="n">
-        <v>61000</v>
+        <v>61150</v>
       </c>
       <c r="F87" t="n">
-        <v>9.097799999999999</v>
+        <v>4.0971</v>
       </c>
       <c r="G87" t="n">
-        <v>-31.61661720000001</v>
+        <v>-87.96251720000005</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3437,28 +3527,29 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>60950</v>
+        <v>61150</v>
       </c>
       <c r="C88" t="n">
-        <v>60700</v>
+        <v>61100</v>
       </c>
       <c r="D88" t="n">
-        <v>60950</v>
+        <v>61150</v>
       </c>
       <c r="E88" t="n">
-        <v>60500</v>
+        <v>61100</v>
       </c>
       <c r="F88" t="n">
-        <v>14.3581</v>
+        <v>6.3108</v>
       </c>
       <c r="G88" t="n">
-        <v>-45.97471720000001</v>
+        <v>-94.27331720000005</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3472,28 +3563,29 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>60500</v>
+        <v>61100</v>
       </c>
       <c r="C89" t="n">
-        <v>60500</v>
+        <v>61100</v>
       </c>
       <c r="D89" t="n">
-        <v>60500</v>
+        <v>61100</v>
       </c>
       <c r="E89" t="n">
-        <v>60500</v>
+        <v>61100</v>
       </c>
       <c r="F89" t="n">
-        <v>16.5585</v>
+        <v>26.6914</v>
       </c>
       <c r="G89" t="n">
-        <v>-62.53321720000001</v>
+        <v>-94.27331720000005</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3507,28 +3599,29 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>60450</v>
+        <v>61050</v>
       </c>
       <c r="C90" t="n">
-        <v>60450</v>
+        <v>61050</v>
       </c>
       <c r="D90" t="n">
-        <v>60450</v>
+        <v>61050</v>
       </c>
       <c r="E90" t="n">
-        <v>60450</v>
+        <v>61050</v>
       </c>
       <c r="F90" t="n">
-        <v>0.6263</v>
+        <v>0.0492</v>
       </c>
       <c r="G90" t="n">
-        <v>-63.15951720000001</v>
+        <v>-94.32251720000005</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3542,278 +3635,245 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>60500</v>
+        <v>61050</v>
       </c>
       <c r="C91" t="n">
-        <v>60500</v>
+        <v>61200</v>
       </c>
       <c r="D91" t="n">
-        <v>60500</v>
+        <v>61200</v>
       </c>
       <c r="E91" t="n">
-        <v>60500</v>
+        <v>61050</v>
       </c>
       <c r="F91" t="n">
-        <v>10.0029</v>
+        <v>3.0492</v>
       </c>
       <c r="G91" t="n">
-        <v>-53.15661720000001</v>
+        <v>-91.27331720000005</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>60450</v>
-      </c>
-      <c r="K91" t="n">
-        <v>60450</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>60500</v>
+        <v>61200</v>
       </c>
       <c r="C92" t="n">
-        <v>60500</v>
+        <v>61200</v>
       </c>
       <c r="D92" t="n">
-        <v>60500</v>
+        <v>61200</v>
       </c>
       <c r="E92" t="n">
-        <v>60500</v>
+        <v>61200</v>
       </c>
       <c r="F92" t="n">
-        <v>9.9971</v>
+        <v>3</v>
       </c>
       <c r="G92" t="n">
-        <v>-53.15661720000001</v>
+        <v>-91.27331720000005</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>60500</v>
-      </c>
-      <c r="K92" t="n">
-        <v>60450</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>60900</v>
+        <v>61250</v>
       </c>
       <c r="C93" t="n">
-        <v>60750</v>
+        <v>61300</v>
       </c>
       <c r="D93" t="n">
-        <v>60900</v>
+        <v>61300</v>
       </c>
       <c r="E93" t="n">
-        <v>60750</v>
+        <v>61250</v>
       </c>
       <c r="F93" t="n">
-        <v>9.7568</v>
+        <v>4</v>
       </c>
       <c r="G93" t="n">
-        <v>-43.39981720000002</v>
+        <v>-87.27331720000005</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>60500</v>
-      </c>
-      <c r="K93" t="n">
-        <v>60450</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>60700</v>
+        <v>61200</v>
       </c>
       <c r="C94" t="n">
-        <v>60700</v>
+        <v>61150</v>
       </c>
       <c r="D94" t="n">
-        <v>60700</v>
+        <v>61200</v>
       </c>
       <c r="E94" t="n">
-        <v>60700</v>
+        <v>61150</v>
       </c>
       <c r="F94" t="n">
-        <v>3.3218</v>
+        <v>4.041</v>
       </c>
       <c r="G94" t="n">
-        <v>-46.72161720000002</v>
+        <v>-91.31431720000005</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>60750</v>
-      </c>
-      <c r="K94" t="n">
-        <v>60750</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>60500</v>
+        <v>61100</v>
       </c>
       <c r="C95" t="n">
-        <v>60500</v>
+        <v>61100</v>
       </c>
       <c r="D95" t="n">
-        <v>60500</v>
+        <v>61100</v>
       </c>
       <c r="E95" t="n">
-        <v>60500</v>
+        <v>61100</v>
       </c>
       <c r="F95" t="n">
-        <v>13.9922</v>
+        <v>0.0328</v>
       </c>
       <c r="G95" t="n">
-        <v>-60.71381720000002</v>
+        <v>-91.34711720000004</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>60700</v>
-      </c>
-      <c r="K95" t="n">
-        <v>60750</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>60500</v>
+        <v>61100</v>
       </c>
       <c r="C96" t="n">
-        <v>60500</v>
+        <v>61100</v>
       </c>
       <c r="D96" t="n">
-        <v>60500</v>
+        <v>61100</v>
       </c>
       <c r="E96" t="n">
-        <v>60500</v>
+        <v>61100</v>
       </c>
       <c r="F96" t="n">
-        <v>1.0605</v>
+        <v>0.0328</v>
       </c>
       <c r="G96" t="n">
-        <v>-60.71381720000002</v>
+        <v>-91.34711720000004</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>60500</v>
-      </c>
-      <c r="K96" t="n">
-        <v>60750</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>60600</v>
+        <v>61100</v>
       </c>
       <c r="C97" t="n">
-        <v>60500</v>
+        <v>61100</v>
       </c>
       <c r="D97" t="n">
-        <v>60600</v>
+        <v>61100</v>
       </c>
       <c r="E97" t="n">
-        <v>60500</v>
+        <v>61100</v>
       </c>
       <c r="F97" t="n">
-        <v>50</v>
+        <v>0.0246</v>
       </c>
       <c r="G97" t="n">
-        <v>-60.71381720000002</v>
+        <v>-91.34711720000004</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3827,28 +3887,29 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>60500</v>
+        <v>61100</v>
       </c>
       <c r="C98" t="n">
-        <v>60500</v>
+        <v>61100</v>
       </c>
       <c r="D98" t="n">
-        <v>60500</v>
+        <v>61100</v>
       </c>
       <c r="E98" t="n">
-        <v>60500</v>
+        <v>61100</v>
       </c>
       <c r="F98" t="n">
-        <v>1.8769</v>
+        <v>0.0328</v>
       </c>
       <c r="G98" t="n">
-        <v>-60.71381720000002</v>
+        <v>-91.34711720000004</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3862,28 +3923,29 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>60500</v>
+        <v>61100</v>
       </c>
       <c r="C99" t="n">
-        <v>60500</v>
+        <v>61100</v>
       </c>
       <c r="D99" t="n">
-        <v>60500</v>
+        <v>61100</v>
       </c>
       <c r="E99" t="n">
-        <v>60500</v>
+        <v>61100</v>
       </c>
       <c r="F99" t="n">
-        <v>100</v>
+        <v>0.041</v>
       </c>
       <c r="G99" t="n">
-        <v>-60.71381720000002</v>
+        <v>-91.34711720000004</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3897,28 +3959,29 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>60700</v>
+        <v>61100</v>
       </c>
       <c r="C100" t="n">
-        <v>60700</v>
+        <v>61100</v>
       </c>
       <c r="D100" t="n">
-        <v>60700</v>
+        <v>61100</v>
       </c>
       <c r="E100" t="n">
-        <v>60700</v>
+        <v>61100</v>
       </c>
       <c r="F100" t="n">
-        <v>1.0018</v>
+        <v>61632</v>
       </c>
       <c r="G100" t="n">
-        <v>-59.71201720000002</v>
+        <v>-91.34711720000004</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3932,28 +3995,29 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>60200</v>
+        <v>61200</v>
       </c>
       <c r="C101" t="n">
-        <v>60000</v>
+        <v>61200</v>
       </c>
       <c r="D101" t="n">
-        <v>60200</v>
+        <v>61200</v>
       </c>
       <c r="E101" t="n">
-        <v>60000</v>
+        <v>61200</v>
       </c>
       <c r="F101" t="n">
-        <v>12</v>
+        <v>9.065300000000001</v>
       </c>
       <c r="G101" t="n">
-        <v>-71.71201720000002</v>
+        <v>-82.28181720000003</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3967,28 +4031,29 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>60200</v>
+        <v>61200</v>
       </c>
       <c r="C102" t="n">
-        <v>60200</v>
+        <v>61200</v>
       </c>
       <c r="D102" t="n">
-        <v>60200</v>
+        <v>61200</v>
       </c>
       <c r="E102" t="n">
-        <v>60200</v>
+        <v>61100</v>
       </c>
       <c r="F102" t="n">
-        <v>2.8196</v>
+        <v>40.7938</v>
       </c>
       <c r="G102" t="n">
-        <v>-68.89241720000003</v>
+        <v>-82.28181720000003</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4002,28 +4067,29 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>60200</v>
+        <v>61200</v>
       </c>
       <c r="C103" t="n">
-        <v>60200</v>
+        <v>61200</v>
       </c>
       <c r="D103" t="n">
-        <v>60200</v>
+        <v>61200</v>
       </c>
       <c r="E103" t="n">
-        <v>60200</v>
+        <v>61200</v>
       </c>
       <c r="F103" t="n">
-        <v>3.6922</v>
+        <v>4.518</v>
       </c>
       <c r="G103" t="n">
-        <v>-68.89241720000003</v>
+        <v>-82.28181720000003</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4037,28 +4103,29 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>60200</v>
+        <v>61400</v>
       </c>
       <c r="C104" t="n">
-        <v>60200</v>
+        <v>61400</v>
       </c>
       <c r="D104" t="n">
-        <v>60200</v>
+        <v>61400</v>
       </c>
       <c r="E104" t="n">
-        <v>60200</v>
+        <v>61400</v>
       </c>
       <c r="F104" t="n">
-        <v>0.541</v>
+        <v>3.2992</v>
       </c>
       <c r="G104" t="n">
-        <v>-68.89241720000003</v>
+        <v>-78.98261720000004</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4072,28 +4139,29 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>60200</v>
+        <v>61400</v>
       </c>
       <c r="C105" t="n">
-        <v>60200</v>
+        <v>61500</v>
       </c>
       <c r="D105" t="n">
-        <v>60200</v>
+        <v>61500</v>
       </c>
       <c r="E105" t="n">
-        <v>60200</v>
+        <v>61400</v>
       </c>
       <c r="F105" t="n">
-        <v>4.7668</v>
+        <v>31.469</v>
       </c>
       <c r="G105" t="n">
-        <v>-68.89241720000003</v>
+        <v>-47.51361720000003</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4107,28 +4175,29 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>60400</v>
+        <v>61650</v>
       </c>
       <c r="C106" t="n">
-        <v>60400</v>
+        <v>61650</v>
       </c>
       <c r="D106" t="n">
-        <v>60400</v>
+        <v>61650</v>
       </c>
       <c r="E106" t="n">
-        <v>60400</v>
+        <v>61650</v>
       </c>
       <c r="F106" t="n">
-        <v>5</v>
+        <v>107.056</v>
       </c>
       <c r="G106" t="n">
-        <v>-63.89241720000003</v>
+        <v>59.54238279999996</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4142,28 +4211,29 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>60400</v>
+        <v>61650</v>
       </c>
       <c r="C107" t="n">
-        <v>60400</v>
+        <v>61650</v>
       </c>
       <c r="D107" t="n">
-        <v>60400</v>
+        <v>61650</v>
       </c>
       <c r="E107" t="n">
-        <v>60400</v>
+        <v>61650</v>
       </c>
       <c r="F107" t="n">
-        <v>1.4814</v>
+        <v>0.1661</v>
       </c>
       <c r="G107" t="n">
-        <v>-63.89241720000003</v>
+        <v>59.54238279999996</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4177,28 +4247,29 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>60400</v>
+        <v>61500</v>
       </c>
       <c r="C108" t="n">
-        <v>60400</v>
+        <v>61500</v>
       </c>
       <c r="D108" t="n">
-        <v>60400</v>
+        <v>61500</v>
       </c>
       <c r="E108" t="n">
-        <v>60400</v>
+        <v>61500</v>
       </c>
       <c r="F108" t="n">
-        <v>2.4486</v>
+        <v>6</v>
       </c>
       <c r="G108" t="n">
-        <v>-63.89241720000003</v>
+        <v>53.54238279999996</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4212,28 +4283,29 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>60400</v>
+        <v>61400</v>
       </c>
       <c r="C109" t="n">
-        <v>60100</v>
+        <v>61200</v>
       </c>
       <c r="D109" t="n">
-        <v>60400</v>
+        <v>61400</v>
       </c>
       <c r="E109" t="n">
-        <v>60100</v>
+        <v>61200</v>
       </c>
       <c r="F109" t="n">
-        <v>12.0584</v>
+        <v>7.7754</v>
       </c>
       <c r="G109" t="n">
-        <v>-75.95081720000003</v>
+        <v>45.76698279999997</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4247,28 +4319,29 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>60300</v>
+        <v>61200</v>
       </c>
       <c r="C110" t="n">
-        <v>60300</v>
+        <v>61200</v>
       </c>
       <c r="D110" t="n">
-        <v>60300</v>
+        <v>61200</v>
       </c>
       <c r="E110" t="n">
-        <v>60300</v>
+        <v>61200</v>
       </c>
       <c r="F110" t="n">
-        <v>32.3716</v>
+        <v>0.0233</v>
       </c>
       <c r="G110" t="n">
-        <v>-43.57921720000003</v>
+        <v>45.76698279999997</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4282,28 +4355,29 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>60400</v>
+        <v>61200</v>
       </c>
       <c r="C111" t="n">
-        <v>60300</v>
+        <v>60950</v>
       </c>
       <c r="D111" t="n">
-        <v>60400</v>
+        <v>61200</v>
       </c>
       <c r="E111" t="n">
-        <v>60300</v>
+        <v>60950</v>
       </c>
       <c r="F111" t="n">
-        <v>48.9085</v>
+        <v>1.6178</v>
       </c>
       <c r="G111" t="n">
-        <v>-43.57921720000003</v>
+        <v>44.14918279999996</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4317,28 +4391,29 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>60300</v>
+        <v>60950</v>
       </c>
       <c r="C112" t="n">
-        <v>60300</v>
+        <v>60950</v>
       </c>
       <c r="D112" t="n">
-        <v>60400</v>
+        <v>60950</v>
       </c>
       <c r="E112" t="n">
-        <v>60300</v>
+        <v>60950</v>
       </c>
       <c r="F112" t="n">
-        <v>173.39</v>
+        <v>2.0912</v>
       </c>
       <c r="G112" t="n">
-        <v>-43.57921720000003</v>
+        <v>44.14918279999996</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4352,28 +4427,29 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>60200</v>
+        <v>60850</v>
       </c>
       <c r="C113" t="n">
-        <v>60200</v>
+        <v>60850</v>
       </c>
       <c r="D113" t="n">
-        <v>60200</v>
+        <v>60850</v>
       </c>
       <c r="E113" t="n">
-        <v>60200</v>
+        <v>60850</v>
       </c>
       <c r="F113" t="n">
-        <v>1.3774</v>
+        <v>0.408</v>
       </c>
       <c r="G113" t="n">
-        <v>-44.95661720000003</v>
+        <v>43.74118279999996</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4387,28 +4463,29 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>60200</v>
+        <v>60850</v>
       </c>
       <c r="C114" t="n">
-        <v>60200</v>
+        <v>60850</v>
       </c>
       <c r="D114" t="n">
-        <v>60200</v>
+        <v>60850</v>
       </c>
       <c r="E114" t="n">
-        <v>60200</v>
+        <v>60750</v>
       </c>
       <c r="F114" t="n">
-        <v>0.2408</v>
+        <v>2.1905</v>
       </c>
       <c r="G114" t="n">
-        <v>-44.95661720000003</v>
+        <v>43.74118279999996</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4422,28 +4499,29 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>60550</v>
+        <v>60850</v>
       </c>
       <c r="C115" t="n">
-        <v>60550</v>
+        <v>60850</v>
       </c>
       <c r="D115" t="n">
-        <v>60550</v>
+        <v>60850</v>
       </c>
       <c r="E115" t="n">
-        <v>60550</v>
+        <v>60850</v>
       </c>
       <c r="F115" t="n">
-        <v>1.8769</v>
+        <v>0.5038</v>
       </c>
       <c r="G115" t="n">
-        <v>-43.07971720000003</v>
+        <v>43.74118279999996</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4457,28 +4535,29 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>60550</v>
+        <v>60750</v>
       </c>
       <c r="C116" t="n">
-        <v>60550</v>
+        <v>60750</v>
       </c>
       <c r="D116" t="n">
-        <v>60550</v>
+        <v>60750</v>
       </c>
       <c r="E116" t="n">
-        <v>60550</v>
+        <v>60750</v>
       </c>
       <c r="F116" t="n">
-        <v>2.3485</v>
+        <v>0.0138</v>
       </c>
       <c r="G116" t="n">
-        <v>-43.07971720000003</v>
+        <v>43.72738279999996</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4492,28 +4571,29 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>60500</v>
+        <v>60750</v>
       </c>
       <c r="C117" t="n">
-        <v>60500</v>
+        <v>60750</v>
       </c>
       <c r="D117" t="n">
-        <v>60500</v>
+        <v>60750</v>
       </c>
       <c r="E117" t="n">
-        <v>60500</v>
+        <v>60750</v>
       </c>
       <c r="F117" t="n">
-        <v>12.5112</v>
+        <v>1.5677</v>
       </c>
       <c r="G117" t="n">
-        <v>-55.59091720000004</v>
+        <v>43.72738279999996</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4527,28 +4607,29 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>61100</v>
+        <v>60350</v>
       </c>
       <c r="C118" t="n">
-        <v>61100</v>
+        <v>60350</v>
       </c>
       <c r="D118" t="n">
-        <v>61100</v>
+        <v>60350</v>
       </c>
       <c r="E118" t="n">
-        <v>61100</v>
+        <v>60350</v>
       </c>
       <c r="F118" t="n">
-        <v>18.1943</v>
+        <v>0.8325</v>
       </c>
       <c r="G118" t="n">
-        <v>-37.39661720000004</v>
+        <v>42.89488279999996</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4562,28 +4643,29 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>61100</v>
+        <v>60350</v>
       </c>
       <c r="C119" t="n">
-        <v>61100</v>
+        <v>60350</v>
       </c>
       <c r="D119" t="n">
-        <v>61100</v>
+        <v>60350</v>
       </c>
       <c r="E119" t="n">
-        <v>61100</v>
+        <v>60350</v>
       </c>
       <c r="F119" t="n">
-        <v>2.1932</v>
+        <v>19.1675</v>
       </c>
       <c r="G119" t="n">
-        <v>-37.39661720000004</v>
+        <v>42.89488279999996</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4597,28 +4679,29 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>61150</v>
+        <v>60550</v>
       </c>
       <c r="C120" t="n">
-        <v>61150</v>
+        <v>60600</v>
       </c>
       <c r="D120" t="n">
-        <v>61150</v>
+        <v>60600</v>
       </c>
       <c r="E120" t="n">
-        <v>61150</v>
+        <v>60550</v>
       </c>
       <c r="F120" t="n">
-        <v>0.2987</v>
+        <v>6.6304</v>
       </c>
       <c r="G120" t="n">
-        <v>-37.09791720000004</v>
+        <v>49.52528279999996</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4632,28 +4715,29 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>61100</v>
+        <v>60600</v>
       </c>
       <c r="C121" t="n">
-        <v>61100</v>
+        <v>60600</v>
       </c>
       <c r="D121" t="n">
-        <v>61100</v>
+        <v>60600</v>
       </c>
       <c r="E121" t="n">
-        <v>61100</v>
+        <v>60600</v>
       </c>
       <c r="F121" t="n">
-        <v>52.9</v>
+        <v>0.067</v>
       </c>
       <c r="G121" t="n">
-        <v>-89.99791720000005</v>
+        <v>49.52528279999996</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4667,28 +4751,29 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>61100</v>
+        <v>60600</v>
       </c>
       <c r="C122" t="n">
-        <v>61100</v>
+        <v>60600</v>
       </c>
       <c r="D122" t="n">
-        <v>61100</v>
+        <v>60600</v>
       </c>
       <c r="E122" t="n">
-        <v>61100</v>
+        <v>60600</v>
       </c>
       <c r="F122" t="n">
-        <v>23.6848</v>
+        <v>4.3171</v>
       </c>
       <c r="G122" t="n">
-        <v>-89.99791720000005</v>
+        <v>49.52528279999996</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4702,28 +4787,29 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>61100</v>
+        <v>60500</v>
       </c>
       <c r="C123" t="n">
-        <v>61100</v>
+        <v>60500</v>
       </c>
       <c r="D123" t="n">
-        <v>61100</v>
+        <v>60500</v>
       </c>
       <c r="E123" t="n">
-        <v>61100</v>
+        <v>60500</v>
       </c>
       <c r="F123" t="n">
-        <v>8.327999999999999</v>
+        <v>33.0873</v>
       </c>
       <c r="G123" t="n">
-        <v>-89.99791720000005</v>
+        <v>16.43798279999996</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4737,28 +4823,29 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>61150</v>
+        <v>60500</v>
       </c>
       <c r="C124" t="n">
-        <v>61150</v>
+        <v>60500</v>
       </c>
       <c r="D124" t="n">
-        <v>61150</v>
+        <v>60500</v>
       </c>
       <c r="E124" t="n">
-        <v>61150</v>
+        <v>60500</v>
       </c>
       <c r="F124" t="n">
-        <v>2.0354</v>
+        <v>0.8395</v>
       </c>
       <c r="G124" t="n">
-        <v>-87.96251720000005</v>
+        <v>16.43798279999996</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4772,28 +4859,29 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>61150</v>
+        <v>60700</v>
       </c>
       <c r="C125" t="n">
-        <v>61150</v>
+        <v>60700</v>
       </c>
       <c r="D125" t="n">
-        <v>61150</v>
+        <v>60700</v>
       </c>
       <c r="E125" t="n">
-        <v>61150</v>
+        <v>60700</v>
       </c>
       <c r="F125" t="n">
-        <v>0.4644</v>
+        <v>5.55</v>
       </c>
       <c r="G125" t="n">
-        <v>-87.96251720000005</v>
+        <v>21.98798279999996</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4807,28 +4895,29 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>61150</v>
+        <v>60200</v>
       </c>
       <c r="C126" t="n">
-        <v>61150</v>
+        <v>60200</v>
       </c>
       <c r="D126" t="n">
-        <v>61150</v>
+        <v>60200</v>
       </c>
       <c r="E126" t="n">
-        <v>61150</v>
+        <v>60200</v>
       </c>
       <c r="F126" t="n">
-        <v>8.146699999999999</v>
+        <v>1.3443</v>
       </c>
       <c r="G126" t="n">
-        <v>-87.96251720000005</v>
+        <v>20.64368279999996</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4842,28 +4931,29 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>61150</v>
+        <v>60200</v>
       </c>
       <c r="C127" t="n">
-        <v>61150</v>
+        <v>60200</v>
       </c>
       <c r="D127" t="n">
-        <v>61150</v>
+        <v>60200</v>
       </c>
       <c r="E127" t="n">
-        <v>61150</v>
+        <v>60200</v>
       </c>
       <c r="F127" t="n">
-        <v>0.0137</v>
+        <v>14.4657</v>
       </c>
       <c r="G127" t="n">
-        <v>-87.96251720000005</v>
+        <v>20.64368279999996</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4877,28 +4967,29 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>61150</v>
+        <v>60200</v>
       </c>
       <c r="C128" t="n">
-        <v>61150</v>
+        <v>60200</v>
       </c>
       <c r="D128" t="n">
-        <v>61150</v>
+        <v>60200</v>
       </c>
       <c r="E128" t="n">
-        <v>61150</v>
+        <v>60200</v>
       </c>
       <c r="F128" t="n">
-        <v>0.1653</v>
+        <v>35.2191</v>
       </c>
       <c r="G128" t="n">
-        <v>-87.96251720000005</v>
+        <v>20.64368279999996</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4912,28 +5003,29 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>61150</v>
+        <v>60200</v>
       </c>
       <c r="C129" t="n">
-        <v>61150</v>
+        <v>60100</v>
       </c>
       <c r="D129" t="n">
-        <v>61150</v>
+        <v>60200</v>
       </c>
       <c r="E129" t="n">
-        <v>61150</v>
+        <v>60100</v>
       </c>
       <c r="F129" t="n">
-        <v>4.0971</v>
+        <v>86.1614</v>
       </c>
       <c r="G129" t="n">
-        <v>-87.96251720000005</v>
+        <v>-65.51771720000005</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4947,28 +5039,29 @@
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>61150</v>
+        <v>60100</v>
       </c>
       <c r="C130" t="n">
-        <v>61100</v>
+        <v>60100</v>
       </c>
       <c r="D130" t="n">
-        <v>61150</v>
+        <v>60100</v>
       </c>
       <c r="E130" t="n">
-        <v>61100</v>
+        <v>60100</v>
       </c>
       <c r="F130" t="n">
-        <v>6.3108</v>
+        <v>12.7</v>
       </c>
       <c r="G130" t="n">
-        <v>-94.27331720000005</v>
+        <v>-65.51771720000005</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4982,28 +5075,29 @@
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>61100</v>
+        <v>60100</v>
       </c>
       <c r="C131" t="n">
-        <v>61100</v>
+        <v>60100</v>
       </c>
       <c r="D131" t="n">
-        <v>61100</v>
+        <v>60100</v>
       </c>
       <c r="E131" t="n">
-        <v>61100</v>
+        <v>60100</v>
       </c>
       <c r="F131" t="n">
-        <v>26.6914</v>
+        <v>195.3013</v>
       </c>
       <c r="G131" t="n">
-        <v>-94.27331720000005</v>
+        <v>-65.51771720000005</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5017,28 +5111,29 @@
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>61050</v>
+        <v>60100</v>
       </c>
       <c r="C132" t="n">
-        <v>61050</v>
+        <v>60150</v>
       </c>
       <c r="D132" t="n">
-        <v>61050</v>
+        <v>60150</v>
       </c>
       <c r="E132" t="n">
-        <v>61050</v>
+        <v>59900</v>
       </c>
       <c r="F132" t="n">
-        <v>0.0492</v>
+        <v>29.2777</v>
       </c>
       <c r="G132" t="n">
-        <v>-94.32251720000005</v>
+        <v>-36.24001720000005</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5052,28 +5147,29 @@
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>61050</v>
+        <v>60100</v>
       </c>
       <c r="C133" t="n">
-        <v>61200</v>
+        <v>60100</v>
       </c>
       <c r="D133" t="n">
-        <v>61200</v>
+        <v>60100</v>
       </c>
       <c r="E133" t="n">
-        <v>61050</v>
+        <v>60100</v>
       </c>
       <c r="F133" t="n">
-        <v>3.0492</v>
+        <v>9.619300000000001</v>
       </c>
       <c r="G133" t="n">
-        <v>-91.27331720000005</v>
+        <v>-45.85931720000006</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5087,28 +5183,29 @@
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>61200</v>
+        <v>60000</v>
       </c>
       <c r="C134" t="n">
-        <v>61200</v>
+        <v>60350</v>
       </c>
       <c r="D134" t="n">
-        <v>61200</v>
+        <v>60350</v>
       </c>
       <c r="E134" t="n">
-        <v>61200</v>
+        <v>60000</v>
       </c>
       <c r="F134" t="n">
-        <v>3</v>
+        <v>0.0171</v>
       </c>
       <c r="G134" t="n">
-        <v>-91.27331720000005</v>
+        <v>-45.84221720000006</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5122,28 +5219,29 @@
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>61250</v>
+        <v>60200</v>
       </c>
       <c r="C135" t="n">
-        <v>61300</v>
+        <v>60150</v>
       </c>
       <c r="D135" t="n">
-        <v>61300</v>
+        <v>60200</v>
       </c>
       <c r="E135" t="n">
-        <v>61250</v>
+        <v>60150</v>
       </c>
       <c r="F135" t="n">
-        <v>4</v>
+        <v>12.4221</v>
       </c>
       <c r="G135" t="n">
-        <v>-87.27331720000005</v>
+        <v>-58.26431720000006</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5157,28 +5255,29 @@
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>61200</v>
+        <v>60150</v>
       </c>
       <c r="C136" t="n">
-        <v>61150</v>
+        <v>60150</v>
       </c>
       <c r="D136" t="n">
-        <v>61200</v>
+        <v>60150</v>
       </c>
       <c r="E136" t="n">
-        <v>61150</v>
+        <v>60150</v>
       </c>
       <c r="F136" t="n">
-        <v>4.041</v>
+        <v>115.7514</v>
       </c>
       <c r="G136" t="n">
-        <v>-91.31431720000005</v>
+        <v>-58.26431720000006</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5192,28 +5291,29 @@
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>61100</v>
+        <v>60150</v>
       </c>
       <c r="C137" t="n">
-        <v>61100</v>
+        <v>59900</v>
       </c>
       <c r="D137" t="n">
-        <v>61100</v>
+        <v>60150</v>
       </c>
       <c r="E137" t="n">
-        <v>61100</v>
+        <v>59900</v>
       </c>
       <c r="F137" t="n">
-        <v>0.0328</v>
+        <v>123.1377</v>
       </c>
       <c r="G137" t="n">
-        <v>-91.34711720000004</v>
+        <v>-181.4020172</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5227,203 +5327,241 @@
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>61100</v>
+        <v>59900</v>
       </c>
       <c r="C138" t="n">
-        <v>61100</v>
+        <v>59900</v>
       </c>
       <c r="D138" t="n">
-        <v>61100</v>
+        <v>59900</v>
       </c>
       <c r="E138" t="n">
-        <v>61100</v>
+        <v>59900</v>
       </c>
       <c r="F138" t="n">
-        <v>0.0328</v>
+        <v>0.008699999999999999</v>
       </c>
       <c r="G138" t="n">
-        <v>-91.34711720000004</v>
+        <v>-181.4020172</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>59900</v>
+      </c>
+      <c r="K138" t="n">
+        <v>59900</v>
+      </c>
       <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>61100</v>
+        <v>60300</v>
       </c>
       <c r="C139" t="n">
-        <v>61100</v>
+        <v>60300</v>
       </c>
       <c r="D139" t="n">
-        <v>61100</v>
+        <v>60300</v>
       </c>
       <c r="E139" t="n">
-        <v>61100</v>
+        <v>60300</v>
       </c>
       <c r="F139" t="n">
-        <v>0.0246</v>
+        <v>0.0086</v>
       </c>
       <c r="G139" t="n">
-        <v>-91.34711720000004</v>
+        <v>-181.3934172</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>59900</v>
+      </c>
+      <c r="K139" t="n">
+        <v>59900</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
+      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>61100</v>
+        <v>60300</v>
       </c>
       <c r="C140" t="n">
-        <v>61100</v>
+        <v>60300</v>
       </c>
       <c r="D140" t="n">
-        <v>61100</v>
+        <v>60300</v>
       </c>
       <c r="E140" t="n">
-        <v>61100</v>
+        <v>60300</v>
       </c>
       <c r="F140" t="n">
-        <v>0.0328</v>
+        <v>2.5271</v>
       </c>
       <c r="G140" t="n">
-        <v>-91.34711720000004</v>
+        <v>-181.3934172</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>60300</v>
+      </c>
+      <c r="K140" t="n">
+        <v>59900</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
+      <c r="N140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>61100</v>
+        <v>60650</v>
       </c>
       <c r="C141" t="n">
-        <v>61100</v>
+        <v>60650</v>
       </c>
       <c r="D141" t="n">
-        <v>61100</v>
+        <v>60650</v>
       </c>
       <c r="E141" t="n">
-        <v>61100</v>
+        <v>60650</v>
       </c>
       <c r="F141" t="n">
-        <v>0.041</v>
+        <v>0.74</v>
       </c>
       <c r="G141" t="n">
-        <v>-91.34711720000004</v>
+        <v>-180.6534172</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>60300</v>
+      </c>
+      <c r="K141" t="n">
+        <v>60300</v>
+      </c>
       <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
+      <c r="N141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>61100</v>
+        <v>60600</v>
       </c>
       <c r="C142" t="n">
-        <v>61100</v>
+        <v>60650</v>
       </c>
       <c r="D142" t="n">
-        <v>61100</v>
+        <v>60650</v>
       </c>
       <c r="E142" t="n">
-        <v>61100</v>
+        <v>60600</v>
       </c>
       <c r="F142" t="n">
-        <v>61632</v>
+        <v>3.07593569</v>
       </c>
       <c r="G142" t="n">
-        <v>-91.34711720000004</v>
+        <v>-180.6534172</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>60650</v>
+      </c>
+      <c r="K142" t="n">
+        <v>60300</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
+      <c r="N142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>61200</v>
+        <v>60350</v>
       </c>
       <c r="C143" t="n">
-        <v>61200</v>
+        <v>60350</v>
       </c>
       <c r="D143" t="n">
-        <v>61200</v>
+        <v>60350</v>
       </c>
       <c r="E143" t="n">
-        <v>61200</v>
+        <v>60350</v>
       </c>
       <c r="F143" t="n">
-        <v>9.065300000000001</v>
+        <v>0.8364</v>
       </c>
       <c r="G143" t="n">
-        <v>-82.28181720000003</v>
+        <v>-181.4898172</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5432,33 +5570,40 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>60300</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
+      <c r="N143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>61200</v>
+        <v>60350</v>
       </c>
       <c r="C144" t="n">
-        <v>61200</v>
+        <v>60350</v>
       </c>
       <c r="D144" t="n">
-        <v>61200</v>
+        <v>60350</v>
       </c>
       <c r="E144" t="n">
-        <v>61100</v>
+        <v>60350</v>
       </c>
       <c r="F144" t="n">
-        <v>40.7938</v>
+        <v>0.8349</v>
       </c>
       <c r="G144" t="n">
-        <v>-82.28181720000003</v>
+        <v>-181.4898172</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5472,28 +5617,29 @@
       <c r="M144" t="n">
         <v>1</v>
       </c>
+      <c r="N144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>61200</v>
+        <v>60350</v>
       </c>
       <c r="C145" t="n">
-        <v>61200</v>
+        <v>60200</v>
       </c>
       <c r="D145" t="n">
-        <v>61200</v>
+        <v>60350</v>
       </c>
       <c r="E145" t="n">
-        <v>61200</v>
+        <v>60200</v>
       </c>
       <c r="F145" t="n">
-        <v>4.518</v>
+        <v>14.2445</v>
       </c>
       <c r="G145" t="n">
-        <v>-82.28181720000003</v>
+        <v>-195.7343172</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5507,28 +5653,29 @@
       <c r="M145" t="n">
         <v>1</v>
       </c>
+      <c r="N145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>61400</v>
+        <v>60300</v>
       </c>
       <c r="C146" t="n">
-        <v>61400</v>
+        <v>60300</v>
       </c>
       <c r="D146" t="n">
-        <v>61400</v>
+        <v>60300</v>
       </c>
       <c r="E146" t="n">
-        <v>61400</v>
+        <v>60300</v>
       </c>
       <c r="F146" t="n">
-        <v>3.2992</v>
+        <v>3</v>
       </c>
       <c r="G146" t="n">
-        <v>-78.98261720000004</v>
+        <v>-192.7343172</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5542,28 +5689,29 @@
       <c r="M146" t="n">
         <v>1</v>
       </c>
+      <c r="N146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>61400</v>
+        <v>60550</v>
       </c>
       <c r="C147" t="n">
-        <v>61500</v>
+        <v>60550</v>
       </c>
       <c r="D147" t="n">
-        <v>61500</v>
+        <v>60550</v>
       </c>
       <c r="E147" t="n">
-        <v>61400</v>
+        <v>60550</v>
       </c>
       <c r="F147" t="n">
-        <v>31.469</v>
+        <v>1.9632</v>
       </c>
       <c r="G147" t="n">
-        <v>-47.51361720000003</v>
+        <v>-190.7711172</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5577,28 +5725,29 @@
       <c r="M147" t="n">
         <v>1</v>
       </c>
+      <c r="N147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>61650</v>
+        <v>60550</v>
       </c>
       <c r="C148" t="n">
-        <v>61650</v>
+        <v>60550</v>
       </c>
       <c r="D148" t="n">
-        <v>61650</v>
+        <v>60550</v>
       </c>
       <c r="E148" t="n">
-        <v>61650</v>
+        <v>60550</v>
       </c>
       <c r="F148" t="n">
-        <v>107.056</v>
+        <v>4.1662</v>
       </c>
       <c r="G148" t="n">
-        <v>59.54238279999996</v>
+        <v>-190.7711172</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5612,28 +5761,29 @@
       <c r="M148" t="n">
         <v>1</v>
       </c>
+      <c r="N148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>61650</v>
+        <v>60550</v>
       </c>
       <c r="C149" t="n">
-        <v>61650</v>
+        <v>60550</v>
       </c>
       <c r="D149" t="n">
-        <v>61650</v>
+        <v>60550</v>
       </c>
       <c r="E149" t="n">
-        <v>61650</v>
+        <v>60550</v>
       </c>
       <c r="F149" t="n">
-        <v>0.1661</v>
+        <v>1.8372</v>
       </c>
       <c r="G149" t="n">
-        <v>59.54238279999996</v>
+        <v>-190.7711172</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5647,28 +5797,29 @@
       <c r="M149" t="n">
         <v>1</v>
       </c>
+      <c r="N149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>61500</v>
+        <v>60700</v>
       </c>
       <c r="C150" t="n">
-        <v>61500</v>
+        <v>60700</v>
       </c>
       <c r="D150" t="n">
-        <v>61500</v>
+        <v>60700</v>
       </c>
       <c r="E150" t="n">
-        <v>61500</v>
+        <v>60700</v>
       </c>
       <c r="F150" t="n">
-        <v>6</v>
+        <v>4.1309</v>
       </c>
       <c r="G150" t="n">
-        <v>53.54238279999996</v>
+        <v>-186.6402172</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5682,28 +5833,29 @@
       <c r="M150" t="n">
         <v>1</v>
       </c>
+      <c r="N150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>61400</v>
+        <v>60050</v>
       </c>
       <c r="C151" t="n">
-        <v>61200</v>
+        <v>60050</v>
       </c>
       <c r="D151" t="n">
-        <v>61400</v>
+        <v>60050</v>
       </c>
       <c r="E151" t="n">
-        <v>61200</v>
+        <v>60050</v>
       </c>
       <c r="F151" t="n">
-        <v>7.7754</v>
+        <v>0.4441</v>
       </c>
       <c r="G151" t="n">
-        <v>45.76698279999997</v>
+        <v>-187.0843172</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5717,28 +5869,29 @@
       <c r="M151" t="n">
         <v>1</v>
       </c>
+      <c r="N151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>61200</v>
+        <v>60150</v>
       </c>
       <c r="C152" t="n">
-        <v>61200</v>
+        <v>60050</v>
       </c>
       <c r="D152" t="n">
-        <v>61200</v>
+        <v>60150</v>
       </c>
       <c r="E152" t="n">
-        <v>61200</v>
+        <v>60050</v>
       </c>
       <c r="F152" t="n">
-        <v>0.0233</v>
+        <v>13.0975</v>
       </c>
       <c r="G152" t="n">
-        <v>45.76698279999997</v>
+        <v>-187.0843172</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5752,251 +5905,303 @@
       <c r="M152" t="n">
         <v>1</v>
       </c>
+      <c r="N152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>61200</v>
+        <v>60250</v>
       </c>
       <c r="C153" t="n">
-        <v>60950</v>
+        <v>60250</v>
       </c>
       <c r="D153" t="n">
-        <v>61200</v>
+        <v>60250</v>
       </c>
       <c r="E153" t="n">
-        <v>60950</v>
+        <v>60250</v>
       </c>
       <c r="F153" t="n">
-        <v>1.6178</v>
+        <v>0.1339</v>
       </c>
       <c r="G153" t="n">
-        <v>44.14918279999996</v>
+        <v>-186.9504172</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>60050</v>
+      </c>
+      <c r="K153" t="n">
+        <v>60050</v>
+      </c>
       <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
+      <c r="N153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>60950</v>
+        <v>60250</v>
       </c>
       <c r="C154" t="n">
-        <v>60950</v>
+        <v>60250</v>
       </c>
       <c r="D154" t="n">
-        <v>60950</v>
+        <v>60250</v>
       </c>
       <c r="E154" t="n">
-        <v>60950</v>
+        <v>60250</v>
       </c>
       <c r="F154" t="n">
-        <v>2.0912</v>
+        <v>0.8661</v>
       </c>
       <c r="G154" t="n">
-        <v>44.14918279999996</v>
+        <v>-186.9504172</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>60250</v>
+      </c>
+      <c r="K154" t="n">
+        <v>60050</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
+      <c r="N154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>60850</v>
+        <v>60250</v>
       </c>
       <c r="C155" t="n">
-        <v>60850</v>
+        <v>60250</v>
       </c>
       <c r="D155" t="n">
-        <v>60850</v>
+        <v>60250</v>
       </c>
       <c r="E155" t="n">
-        <v>60850</v>
+        <v>60250</v>
       </c>
       <c r="F155" t="n">
-        <v>0.408</v>
+        <v>0.97</v>
       </c>
       <c r="G155" t="n">
-        <v>43.74118279999996</v>
+        <v>-186.9504172</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>60250</v>
+      </c>
+      <c r="K155" t="n">
+        <v>60050</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
+      <c r="N155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>60850</v>
+        <v>60250</v>
       </c>
       <c r="C156" t="n">
-        <v>60850</v>
+        <v>60250</v>
       </c>
       <c r="D156" t="n">
-        <v>60850</v>
+        <v>60250</v>
       </c>
       <c r="E156" t="n">
-        <v>60750</v>
+        <v>60250</v>
       </c>
       <c r="F156" t="n">
-        <v>2.1905</v>
+        <v>0.5765</v>
       </c>
       <c r="G156" t="n">
-        <v>43.74118279999996</v>
+        <v>-186.9504172</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>60250</v>
+      </c>
+      <c r="K156" t="n">
+        <v>60250</v>
+      </c>
       <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
         <v>1</v>
       </c>
+      <c r="N156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>60850</v>
+        <v>60300</v>
       </c>
       <c r="C157" t="n">
-        <v>60850</v>
+        <v>60300</v>
       </c>
       <c r="D157" t="n">
-        <v>60850</v>
+        <v>60300</v>
       </c>
       <c r="E157" t="n">
-        <v>60850</v>
+        <v>60300</v>
       </c>
       <c r="F157" t="n">
-        <v>0.5038</v>
+        <v>1.2733</v>
       </c>
       <c r="G157" t="n">
-        <v>43.74118279999996</v>
+        <v>-185.6771172</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>60250</v>
+      </c>
+      <c r="K157" t="n">
+        <v>60250</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
+      <c r="N157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>60750</v>
+        <v>60300</v>
       </c>
       <c r="C158" t="n">
-        <v>60750</v>
+        <v>60300</v>
       </c>
       <c r="D158" t="n">
-        <v>60750</v>
+        <v>60300</v>
       </c>
       <c r="E158" t="n">
-        <v>60750</v>
+        <v>60300</v>
       </c>
       <c r="F158" t="n">
-        <v>0.0138</v>
+        <v>18.7267</v>
       </c>
       <c r="G158" t="n">
-        <v>43.72738279999996</v>
+        <v>-185.6771172</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>60300</v>
+      </c>
+      <c r="K158" t="n">
+        <v>60250</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
+      <c r="N158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>60750</v>
+        <v>60350</v>
       </c>
       <c r="C159" t="n">
-        <v>60750</v>
+        <v>60350</v>
       </c>
       <c r="D159" t="n">
-        <v>60750</v>
+        <v>60350</v>
       </c>
       <c r="E159" t="n">
-        <v>60750</v>
+        <v>60350</v>
       </c>
       <c r="F159" t="n">
-        <v>1.5677</v>
+        <v>3.2544</v>
       </c>
       <c r="G159" t="n">
-        <v>43.72738279999996</v>
+        <v>-182.4227172</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>60300</v>
+      </c>
+      <c r="K159" t="n">
+        <v>60300</v>
+      </c>
       <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
       </c>
+      <c r="N159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6015,185 +6220,226 @@
         <v>60350</v>
       </c>
       <c r="F160" t="n">
-        <v>0.8325</v>
+        <v>18.3163</v>
       </c>
       <c r="G160" t="n">
-        <v>42.89488279999996</v>
+        <v>-182.4227172</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>60350</v>
+      </c>
+      <c r="K160" t="n">
+        <v>60300</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
+      <c r="N160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="n">
+        <v>60600</v>
+      </c>
+      <c r="C161" t="n">
+        <v>60800</v>
+      </c>
+      <c r="D161" t="n">
+        <v>60800</v>
+      </c>
+      <c r="E161" t="n">
+        <v>60600</v>
+      </c>
+      <c r="F161" t="n">
+        <v>32.8255</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-149.5972172</v>
+      </c>
+      <c r="H161" t="n">
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="n">
         <v>60350</v>
       </c>
-      <c r="C161" t="n">
-        <v>60350</v>
-      </c>
-      <c r="D161" t="n">
-        <v>60350</v>
-      </c>
-      <c r="E161" t="n">
-        <v>60350</v>
-      </c>
-      <c r="F161" t="n">
-        <v>19.1675</v>
-      </c>
-      <c r="G161" t="n">
-        <v>42.89488279999996</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>60300</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M161" t="n">
         <v>1</v>
       </c>
+      <c r="N161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>60550</v>
+        <v>60800</v>
       </c>
       <c r="C162" t="n">
-        <v>60600</v>
+        <v>60800</v>
       </c>
       <c r="D162" t="n">
-        <v>60600</v>
+        <v>60800</v>
       </c>
       <c r="E162" t="n">
-        <v>60550</v>
+        <v>60800</v>
       </c>
       <c r="F162" t="n">
-        <v>6.6304</v>
+        <v>7.9625</v>
       </c>
       <c r="G162" t="n">
-        <v>49.52528279999996</v>
+        <v>-149.5972172</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>60800</v>
+      </c>
+      <c r="K162" t="n">
+        <v>60800</v>
+      </c>
       <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
       </c>
+      <c r="N162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>60600</v>
+        <v>60800</v>
       </c>
       <c r="C163" t="n">
-        <v>60600</v>
+        <v>60800</v>
       </c>
       <c r="D163" t="n">
-        <v>60600</v>
+        <v>60800</v>
       </c>
       <c r="E163" t="n">
-        <v>60600</v>
+        <v>60800</v>
       </c>
       <c r="F163" t="n">
-        <v>0.067</v>
+        <v>14.9788</v>
       </c>
       <c r="G163" t="n">
-        <v>49.52528279999996</v>
+        <v>-149.5972172</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>60800</v>
+      </c>
+      <c r="K163" t="n">
+        <v>60800</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M163" t="n">
         <v>1</v>
       </c>
+      <c r="N163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>60600</v>
+        <v>60850</v>
       </c>
       <c r="C164" t="n">
-        <v>60600</v>
+        <v>60850</v>
       </c>
       <c r="D164" t="n">
-        <v>60600</v>
+        <v>60850</v>
       </c>
       <c r="E164" t="n">
-        <v>60600</v>
+        <v>60850</v>
       </c>
       <c r="F164" t="n">
-        <v>4.3171</v>
+        <v>4.1961</v>
       </c>
       <c r="G164" t="n">
-        <v>49.52528279999996</v>
+        <v>-145.4011172</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>60800</v>
+      </c>
+      <c r="K164" t="n">
+        <v>60800</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M164" t="n">
         <v>1</v>
       </c>
+      <c r="N164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>60500</v>
+        <v>60700</v>
       </c>
       <c r="C165" t="n">
-        <v>60500</v>
+        <v>60700</v>
       </c>
       <c r="D165" t="n">
-        <v>60500</v>
+        <v>60700</v>
       </c>
       <c r="E165" t="n">
-        <v>60500</v>
+        <v>60700</v>
       </c>
       <c r="F165" t="n">
-        <v>33.0873</v>
+        <v>14.317</v>
       </c>
       <c r="G165" t="n">
-        <v>16.43798279999996</v>
+        <v>-159.7181172</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6207,28 +6453,29 @@
       <c r="M165" t="n">
         <v>1</v>
       </c>
+      <c r="N165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>60500</v>
+        <v>60550</v>
       </c>
       <c r="C166" t="n">
-        <v>60500</v>
+        <v>60850</v>
       </c>
       <c r="D166" t="n">
-        <v>60500</v>
+        <v>60850</v>
       </c>
       <c r="E166" t="n">
-        <v>60500</v>
+        <v>60550</v>
       </c>
       <c r="F166" t="n">
-        <v>0.8395</v>
+        <v>1.5938</v>
       </c>
       <c r="G166" t="n">
-        <v>16.43798279999996</v>
+        <v>-158.1243172</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6242,28 +6489,29 @@
       <c r="M166" t="n">
         <v>1</v>
       </c>
+      <c r="N166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>60700</v>
+        <v>60850</v>
       </c>
       <c r="C167" t="n">
-        <v>60700</v>
+        <v>60850</v>
       </c>
       <c r="D167" t="n">
-        <v>60700</v>
+        <v>60850</v>
       </c>
       <c r="E167" t="n">
-        <v>60700</v>
+        <v>60850</v>
       </c>
       <c r="F167" t="n">
-        <v>5.55</v>
+        <v>4.2822</v>
       </c>
       <c r="G167" t="n">
-        <v>21.98798279999996</v>
+        <v>-158.1243172</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6277,28 +6525,29 @@
       <c r="M167" t="n">
         <v>1</v>
       </c>
+      <c r="N167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>60200</v>
+        <v>61100</v>
       </c>
       <c r="C168" t="n">
-        <v>60200</v>
+        <v>61100</v>
       </c>
       <c r="D168" t="n">
-        <v>60200</v>
+        <v>61100</v>
       </c>
       <c r="E168" t="n">
-        <v>60200</v>
+        <v>61100</v>
       </c>
       <c r="F168" t="n">
-        <v>1.3443</v>
+        <v>14.991</v>
       </c>
       <c r="G168" t="n">
-        <v>20.64368279999996</v>
+        <v>-143.1333172</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6312,28 +6561,29 @@
       <c r="M168" t="n">
         <v>1</v>
       </c>
+      <c r="N168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>60200</v>
+        <v>61100</v>
       </c>
       <c r="C169" t="n">
-        <v>60200</v>
+        <v>61100</v>
       </c>
       <c r="D169" t="n">
-        <v>60200</v>
+        <v>61100</v>
       </c>
       <c r="E169" t="n">
-        <v>60200</v>
+        <v>61100</v>
       </c>
       <c r="F169" t="n">
-        <v>14.4657</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="G169" t="n">
-        <v>20.64368279999996</v>
+        <v>-143.1333172</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6347,28 +6597,29 @@
       <c r="M169" t="n">
         <v>1</v>
       </c>
+      <c r="N169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>60200</v>
+        <v>60850</v>
       </c>
       <c r="C170" t="n">
-        <v>60200</v>
+        <v>60850</v>
       </c>
       <c r="D170" t="n">
-        <v>60200</v>
+        <v>60850</v>
       </c>
       <c r="E170" t="n">
-        <v>60200</v>
+        <v>60850</v>
       </c>
       <c r="F170" t="n">
-        <v>35.2191</v>
+        <v>13.61413853</v>
       </c>
       <c r="G170" t="n">
-        <v>20.64368279999996</v>
+        <v>-156.74745573</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6382,28 +6633,29 @@
       <c r="M170" t="n">
         <v>1</v>
       </c>
+      <c r="N170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>60200</v>
+        <v>60850</v>
       </c>
       <c r="C171" t="n">
-        <v>60100</v>
+        <v>60850</v>
       </c>
       <c r="D171" t="n">
-        <v>60200</v>
+        <v>60850</v>
       </c>
       <c r="E171" t="n">
-        <v>60100</v>
+        <v>60850</v>
       </c>
       <c r="F171" t="n">
-        <v>86.1614</v>
+        <v>13.5032</v>
       </c>
       <c r="G171" t="n">
-        <v>-65.51771720000005</v>
+        <v>-156.74745573</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6417,28 +6669,29 @@
       <c r="M171" t="n">
         <v>1</v>
       </c>
+      <c r="N171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>60100</v>
+        <v>60850</v>
       </c>
       <c r="C172" t="n">
-        <v>60100</v>
+        <v>60950</v>
       </c>
       <c r="D172" t="n">
-        <v>60100</v>
+        <v>60950</v>
       </c>
       <c r="E172" t="n">
-        <v>60100</v>
+        <v>60850</v>
       </c>
       <c r="F172" t="n">
-        <v>12.7</v>
+        <v>0.02216147</v>
       </c>
       <c r="G172" t="n">
-        <v>-65.51771720000005</v>
+        <v>-156.72529426</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6452,28 +6705,29 @@
       <c r="M172" t="n">
         <v>1</v>
       </c>
+      <c r="N172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>60100</v>
+        <v>60950</v>
       </c>
       <c r="C173" t="n">
-        <v>60100</v>
+        <v>61150</v>
       </c>
       <c r="D173" t="n">
-        <v>60100</v>
+        <v>61150</v>
       </c>
       <c r="E173" t="n">
-        <v>60100</v>
+        <v>60950</v>
       </c>
       <c r="F173" t="n">
-        <v>195.3013</v>
+        <v>0.0165</v>
       </c>
       <c r="G173" t="n">
-        <v>-65.51771720000005</v>
+        <v>-156.70879426</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6487,28 +6741,29 @@
       <c r="M173" t="n">
         <v>1</v>
       </c>
+      <c r="N173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>60100</v>
+        <v>61150</v>
       </c>
       <c r="C174" t="n">
-        <v>60150</v>
+        <v>61150</v>
       </c>
       <c r="D174" t="n">
-        <v>60150</v>
+        <v>61150</v>
       </c>
       <c r="E174" t="n">
-        <v>59900</v>
+        <v>61150</v>
       </c>
       <c r="F174" t="n">
-        <v>29.2777</v>
+        <v>1.2643</v>
       </c>
       <c r="G174" t="n">
-        <v>-36.24001720000005</v>
+        <v>-156.70879426</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6522,28 +6777,29 @@
       <c r="M174" t="n">
         <v>1</v>
       </c>
+      <c r="N174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>60100</v>
+        <v>61150</v>
       </c>
       <c r="C175" t="n">
-        <v>60100</v>
+        <v>61150</v>
       </c>
       <c r="D175" t="n">
-        <v>60100</v>
+        <v>61150</v>
       </c>
       <c r="E175" t="n">
-        <v>60100</v>
+        <v>61150</v>
       </c>
       <c r="F175" t="n">
-        <v>9.619300000000001</v>
+        <v>0.8401999999999999</v>
       </c>
       <c r="G175" t="n">
-        <v>-45.85931720000006</v>
+        <v>-156.70879426</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6557,28 +6813,29 @@
       <c r="M175" t="n">
         <v>1</v>
       </c>
+      <c r="N175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>60000</v>
+        <v>61150</v>
       </c>
       <c r="C176" t="n">
-        <v>60350</v>
+        <v>61150</v>
       </c>
       <c r="D176" t="n">
-        <v>60350</v>
+        <v>61150</v>
       </c>
       <c r="E176" t="n">
-        <v>60000</v>
+        <v>61150</v>
       </c>
       <c r="F176" t="n">
-        <v>0.0171</v>
+        <v>3.1893</v>
       </c>
       <c r="G176" t="n">
-        <v>-45.84221720000006</v>
+        <v>-156.70879426</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6592,28 +6849,29 @@
       <c r="M176" t="n">
         <v>1</v>
       </c>
+      <c r="N176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>60200</v>
+        <v>61150</v>
       </c>
       <c r="C177" t="n">
-        <v>60150</v>
+        <v>61150</v>
       </c>
       <c r="D177" t="n">
-        <v>60200</v>
+        <v>61150</v>
       </c>
       <c r="E177" t="n">
-        <v>60150</v>
+        <v>61150</v>
       </c>
       <c r="F177" t="n">
-        <v>12.4221</v>
+        <v>0.4025</v>
       </c>
       <c r="G177" t="n">
-        <v>-58.26431720000006</v>
+        <v>-156.70879426</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6627,28 +6885,29 @@
       <c r="M177" t="n">
         <v>1</v>
       </c>
+      <c r="N177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>60150</v>
+        <v>60850</v>
       </c>
       <c r="C178" t="n">
-        <v>60150</v>
+        <v>60850</v>
       </c>
       <c r="D178" t="n">
-        <v>60150</v>
+        <v>60850</v>
       </c>
       <c r="E178" t="n">
-        <v>60150</v>
+        <v>60850</v>
       </c>
       <c r="F178" t="n">
-        <v>115.7514</v>
+        <v>1.9386</v>
       </c>
       <c r="G178" t="n">
-        <v>-58.26431720000006</v>
+        <v>-158.64739426</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6662,28 +6921,29 @@
       <c r="M178" t="n">
         <v>1</v>
       </c>
+      <c r="N178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>60150</v>
+        <v>60450</v>
       </c>
       <c r="C179" t="n">
-        <v>59900</v>
+        <v>60450</v>
       </c>
       <c r="D179" t="n">
-        <v>60150</v>
+        <v>60450</v>
       </c>
       <c r="E179" t="n">
-        <v>59900</v>
+        <v>60450</v>
       </c>
       <c r="F179" t="n">
-        <v>123.1377</v>
+        <v>15.3797</v>
       </c>
       <c r="G179" t="n">
-        <v>-181.4020172</v>
+        <v>-174.02709426</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6697,28 +6957,29 @@
       <c r="M179" t="n">
         <v>1</v>
       </c>
+      <c r="N179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>59900</v>
+        <v>60450</v>
       </c>
       <c r="C180" t="n">
-        <v>59900</v>
+        <v>60450</v>
       </c>
       <c r="D180" t="n">
-        <v>59900</v>
+        <v>60450</v>
       </c>
       <c r="E180" t="n">
-        <v>59900</v>
+        <v>60450</v>
       </c>
       <c r="F180" t="n">
-        <v>0.008699999999999999</v>
+        <v>0.263</v>
       </c>
       <c r="G180" t="n">
-        <v>-181.4020172</v>
+        <v>-174.02709426</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6732,28 +6993,29 @@
       <c r="M180" t="n">
         <v>1</v>
       </c>
+      <c r="N180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>60300</v>
+        <v>60450</v>
       </c>
       <c r="C181" t="n">
-        <v>60300</v>
+        <v>60450</v>
       </c>
       <c r="D181" t="n">
-        <v>60300</v>
+        <v>60450</v>
       </c>
       <c r="E181" t="n">
-        <v>60300</v>
+        <v>60450</v>
       </c>
       <c r="F181" t="n">
-        <v>0.0086</v>
+        <v>0.0373</v>
       </c>
       <c r="G181" t="n">
-        <v>-181.3934172</v>
+        <v>-174.02709426</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6767,28 +7029,29 @@
       <c r="M181" t="n">
         <v>1</v>
       </c>
+      <c r="N181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>60300</v>
+        <v>60350</v>
       </c>
       <c r="C182" t="n">
         <v>60300</v>
       </c>
       <c r="D182" t="n">
-        <v>60300</v>
+        <v>60350</v>
       </c>
       <c r="E182" t="n">
         <v>60300</v>
       </c>
       <c r="F182" t="n">
-        <v>2.5271</v>
+        <v>2</v>
       </c>
       <c r="G182" t="n">
-        <v>-181.3934172</v>
+        <v>-176.02709426</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6802,28 +7065,29 @@
       <c r="M182" t="n">
         <v>1</v>
       </c>
+      <c r="N182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>60650</v>
+        <v>60300</v>
       </c>
       <c r="C183" t="n">
-        <v>60650</v>
+        <v>60450</v>
       </c>
       <c r="D183" t="n">
-        <v>60650</v>
+        <v>60450</v>
       </c>
       <c r="E183" t="n">
-        <v>60650</v>
+        <v>60300</v>
       </c>
       <c r="F183" t="n">
-        <v>0.74</v>
+        <v>1.18381645</v>
       </c>
       <c r="G183" t="n">
-        <v>-180.6534172</v>
+        <v>-174.84327781</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6837,28 +7101,29 @@
       <c r="M183" t="n">
         <v>1</v>
       </c>
+      <c r="N183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>60600</v>
+        <v>60200</v>
       </c>
       <c r="C184" t="n">
-        <v>60650</v>
+        <v>60200</v>
       </c>
       <c r="D184" t="n">
-        <v>60650</v>
+        <v>60200</v>
       </c>
       <c r="E184" t="n">
-        <v>60600</v>
+        <v>60200</v>
       </c>
       <c r="F184" t="n">
-        <v>3.07593569</v>
+        <v>17.1535</v>
       </c>
       <c r="G184" t="n">
-        <v>-180.6534172</v>
+        <v>-191.99677781</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6872,28 +7137,29 @@
       <c r="M184" t="n">
         <v>1</v>
       </c>
+      <c r="N184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>60350</v>
+        <v>60500</v>
       </c>
       <c r="C185" t="n">
-        <v>60350</v>
+        <v>60500</v>
       </c>
       <c r="D185" t="n">
-        <v>60350</v>
+        <v>60500</v>
       </c>
       <c r="E185" t="n">
-        <v>60350</v>
+        <v>60500</v>
       </c>
       <c r="F185" t="n">
-        <v>0.8364</v>
+        <v>0.0489</v>
       </c>
       <c r="G185" t="n">
-        <v>-181.4898172</v>
+        <v>-191.94787781</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -6907,63 +7173,69 @@
       <c r="M185" t="n">
         <v>1</v>
       </c>
+      <c r="N185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>60350</v>
+        <v>60600</v>
       </c>
       <c r="C186" t="n">
-        <v>60350</v>
+        <v>60600</v>
       </c>
       <c r="D186" t="n">
-        <v>60350</v>
+        <v>60600</v>
       </c>
       <c r="E186" t="n">
-        <v>60350</v>
+        <v>60600</v>
       </c>
       <c r="F186" t="n">
-        <v>0.8349</v>
+        <v>0.016</v>
       </c>
       <c r="G186" t="n">
-        <v>-181.4898172</v>
+        <v>-191.93187781</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>60500</v>
+      </c>
+      <c r="K186" t="n">
+        <v>60500</v>
+      </c>
       <c r="L186" t="inlineStr"/>
       <c r="M186" t="n">
         <v>1</v>
       </c>
+      <c r="N186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>60350</v>
+        <v>61000</v>
       </c>
       <c r="C187" t="n">
-        <v>60200</v>
+        <v>61000</v>
       </c>
       <c r="D187" t="n">
-        <v>60350</v>
+        <v>61000</v>
       </c>
       <c r="E187" t="n">
-        <v>60200</v>
+        <v>61000</v>
       </c>
       <c r="F187" t="n">
-        <v>14.2445</v>
+        <v>0.5585</v>
       </c>
       <c r="G187" t="n">
-        <v>-195.7343172</v>
+        <v>-191.37337781</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -6972,33 +7244,40 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>60500</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M187" t="n">
         <v>1</v>
       </c>
+      <c r="N187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>60300</v>
+        <v>60900</v>
       </c>
       <c r="C188" t="n">
-        <v>60300</v>
+        <v>60850</v>
       </c>
       <c r="D188" t="n">
-        <v>60300</v>
+        <v>60900</v>
       </c>
       <c r="E188" t="n">
-        <v>60300</v>
+        <v>60850</v>
       </c>
       <c r="F188" t="n">
-        <v>3</v>
+        <v>17.1535</v>
       </c>
       <c r="G188" t="n">
-        <v>-192.7343172</v>
+        <v>-208.52687781</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7007,33 +7286,40 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>60500</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M188" t="n">
         <v>1</v>
       </c>
+      <c r="N188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>60550</v>
+        <v>60900</v>
       </c>
       <c r="C189" t="n">
-        <v>60550</v>
+        <v>61200</v>
       </c>
       <c r="D189" t="n">
-        <v>60550</v>
+        <v>61200</v>
       </c>
       <c r="E189" t="n">
-        <v>60550</v>
+        <v>60900</v>
       </c>
       <c r="F189" t="n">
-        <v>1.9632</v>
+        <v>0.0169</v>
       </c>
       <c r="G189" t="n">
-        <v>-190.7711172</v>
+        <v>-208.50997781</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7047,28 +7333,29 @@
       <c r="M189" t="n">
         <v>1</v>
       </c>
+      <c r="N189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>60550</v>
+        <v>61200</v>
       </c>
       <c r="C190" t="n">
-        <v>60550</v>
+        <v>61200</v>
       </c>
       <c r="D190" t="n">
-        <v>60550</v>
+        <v>61200</v>
       </c>
       <c r="E190" t="n">
-        <v>60550</v>
+        <v>61200</v>
       </c>
       <c r="F190" t="n">
-        <v>4.1662</v>
+        <v>2</v>
       </c>
       <c r="G190" t="n">
-        <v>-190.7711172</v>
+        <v>-208.50997781</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7082,28 +7369,29 @@
       <c r="M190" t="n">
         <v>1</v>
       </c>
+      <c r="N190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>60550</v>
+        <v>61150</v>
       </c>
       <c r="C191" t="n">
-        <v>60550</v>
+        <v>61150</v>
       </c>
       <c r="D191" t="n">
-        <v>60550</v>
+        <v>61150</v>
       </c>
       <c r="E191" t="n">
-        <v>60550</v>
+        <v>61150</v>
       </c>
       <c r="F191" t="n">
-        <v>1.8372</v>
+        <v>1</v>
       </c>
       <c r="G191" t="n">
-        <v>-190.7711172</v>
+        <v>-209.50997781</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7117,28 +7405,29 @@
       <c r="M191" t="n">
         <v>1</v>
       </c>
+      <c r="N191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>60700</v>
+        <v>60950</v>
       </c>
       <c r="C192" t="n">
-        <v>60700</v>
+        <v>60950</v>
       </c>
       <c r="D192" t="n">
-        <v>60700</v>
+        <v>60950</v>
       </c>
       <c r="E192" t="n">
-        <v>60700</v>
+        <v>60950</v>
       </c>
       <c r="F192" t="n">
-        <v>4.1309</v>
+        <v>0.65</v>
       </c>
       <c r="G192" t="n">
-        <v>-186.6402172</v>
+        <v>-210.15997781</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7152,28 +7441,29 @@
       <c r="M192" t="n">
         <v>1</v>
       </c>
+      <c r="N192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>60050</v>
+        <v>60900</v>
       </c>
       <c r="C193" t="n">
-        <v>60050</v>
+        <v>61250</v>
       </c>
       <c r="D193" t="n">
-        <v>60050</v>
+        <v>61250</v>
       </c>
       <c r="E193" t="n">
-        <v>60050</v>
+        <v>60900</v>
       </c>
       <c r="F193" t="n">
-        <v>0.4441</v>
+        <v>146.0805</v>
       </c>
       <c r="G193" t="n">
-        <v>-187.0843172</v>
+        <v>-64.07947781000004</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7187,28 +7477,29 @@
       <c r="M193" t="n">
         <v>1</v>
       </c>
+      <c r="N193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>60150</v>
+        <v>61250</v>
       </c>
       <c r="C194" t="n">
-        <v>60050</v>
+        <v>61200</v>
       </c>
       <c r="D194" t="n">
-        <v>60150</v>
+        <v>61250</v>
       </c>
       <c r="E194" t="n">
-        <v>60050</v>
+        <v>61200</v>
       </c>
       <c r="F194" t="n">
-        <v>13.0975</v>
+        <v>43.8117</v>
       </c>
       <c r="G194" t="n">
-        <v>-187.0843172</v>
+        <v>-107.89117781</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7222,28 +7513,29 @@
       <c r="M194" t="n">
         <v>1</v>
       </c>
+      <c r="N194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>60250</v>
+        <v>61300</v>
       </c>
       <c r="C195" t="n">
-        <v>60250</v>
+        <v>61300</v>
       </c>
       <c r="D195" t="n">
-        <v>60250</v>
+        <v>61300</v>
       </c>
       <c r="E195" t="n">
-        <v>60250</v>
+        <v>61300</v>
       </c>
       <c r="F195" t="n">
-        <v>0.1339</v>
+        <v>0.3185</v>
       </c>
       <c r="G195" t="n">
-        <v>-186.9504172</v>
+        <v>-107.57267781</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7257,28 +7549,29 @@
       <c r="M195" t="n">
         <v>1</v>
       </c>
+      <c r="N195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>60250</v>
+        <v>61300</v>
       </c>
       <c r="C196" t="n">
-        <v>60250</v>
+        <v>61300</v>
       </c>
       <c r="D196" t="n">
-        <v>60250</v>
+        <v>61300</v>
       </c>
       <c r="E196" t="n">
-        <v>60250</v>
+        <v>61300</v>
       </c>
       <c r="F196" t="n">
-        <v>0.8661</v>
+        <v>6.0521</v>
       </c>
       <c r="G196" t="n">
-        <v>-186.9504172</v>
+        <v>-107.57267781</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7292,28 +7585,29 @@
       <c r="M196" t="n">
         <v>1</v>
       </c>
+      <c r="N196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>60250</v>
+        <v>61850</v>
       </c>
       <c r="C197" t="n">
-        <v>60250</v>
+        <v>61850</v>
       </c>
       <c r="D197" t="n">
-        <v>60250</v>
+        <v>61850</v>
       </c>
       <c r="E197" t="n">
-        <v>60250</v>
+        <v>61850</v>
       </c>
       <c r="F197" t="n">
-        <v>0.97</v>
+        <v>5.3717</v>
       </c>
       <c r="G197" t="n">
-        <v>-186.9504172</v>
+        <v>-102.20097781</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7327,28 +7621,29 @@
       <c r="M197" t="n">
         <v>1</v>
       </c>
+      <c r="N197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>60250</v>
+        <v>61550</v>
       </c>
       <c r="C198" t="n">
-        <v>60250</v>
+        <v>61350</v>
       </c>
       <c r="D198" t="n">
-        <v>60250</v>
+        <v>61550</v>
       </c>
       <c r="E198" t="n">
-        <v>60250</v>
+        <v>61350</v>
       </c>
       <c r="F198" t="n">
-        <v>0.5765</v>
+        <v>32.2</v>
       </c>
       <c r="G198" t="n">
-        <v>-186.9504172</v>
+        <v>-134.40097781</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7362,28 +7657,29 @@
       <c r="M198" t="n">
         <v>1</v>
       </c>
+      <c r="N198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>60300</v>
+        <v>61200</v>
       </c>
       <c r="C199" t="n">
-        <v>60300</v>
+        <v>61200</v>
       </c>
       <c r="D199" t="n">
-        <v>60300</v>
+        <v>61200</v>
       </c>
       <c r="E199" t="n">
-        <v>60300</v>
+        <v>61200</v>
       </c>
       <c r="F199" t="n">
-        <v>1.2733</v>
+        <v>1.94</v>
       </c>
       <c r="G199" t="n">
-        <v>-185.6771172</v>
+        <v>-136.34097781</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7397,28 +7693,29 @@
       <c r="M199" t="n">
         <v>1</v>
       </c>
+      <c r="N199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>60300</v>
+        <v>61150</v>
       </c>
       <c r="C200" t="n">
-        <v>60300</v>
+        <v>61150</v>
       </c>
       <c r="D200" t="n">
-        <v>60300</v>
+        <v>61150</v>
       </c>
       <c r="E200" t="n">
-        <v>60300</v>
+        <v>61150</v>
       </c>
       <c r="F200" t="n">
-        <v>18.7267</v>
+        <v>3.4317</v>
       </c>
       <c r="G200" t="n">
-        <v>-185.6771172</v>
+        <v>-139.77267781</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7432,28 +7729,29 @@
       <c r="M200" t="n">
         <v>1</v>
       </c>
+      <c r="N200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>60350</v>
+        <v>61350</v>
       </c>
       <c r="C201" t="n">
-        <v>60350</v>
+        <v>61350</v>
       </c>
       <c r="D201" t="n">
-        <v>60350</v>
+        <v>61350</v>
       </c>
       <c r="E201" t="n">
-        <v>60350</v>
+        <v>61350</v>
       </c>
       <c r="F201" t="n">
-        <v>3.2544</v>
+        <v>1.2643</v>
       </c>
       <c r="G201" t="n">
-        <v>-182.4227172</v>
+        <v>-138.50837781</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7467,1476 +7765,7 @@
       <c r="M201" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>60350</v>
-      </c>
-      <c r="C202" t="n">
-        <v>60350</v>
-      </c>
-      <c r="D202" t="n">
-        <v>60350</v>
-      </c>
-      <c r="E202" t="n">
-        <v>60350</v>
-      </c>
-      <c r="F202" t="n">
-        <v>18.3163</v>
-      </c>
-      <c r="G202" t="n">
-        <v>-182.4227172</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>60600</v>
-      </c>
-      <c r="C203" t="n">
-        <v>60800</v>
-      </c>
-      <c r="D203" t="n">
-        <v>60800</v>
-      </c>
-      <c r="E203" t="n">
-        <v>60600</v>
-      </c>
-      <c r="F203" t="n">
-        <v>32.8255</v>
-      </c>
-      <c r="G203" t="n">
-        <v>-149.5972172</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>60800</v>
-      </c>
-      <c r="C204" t="n">
-        <v>60800</v>
-      </c>
-      <c r="D204" t="n">
-        <v>60800</v>
-      </c>
-      <c r="E204" t="n">
-        <v>60800</v>
-      </c>
-      <c r="F204" t="n">
-        <v>7.9625</v>
-      </c>
-      <c r="G204" t="n">
-        <v>-149.5972172</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>60800</v>
-      </c>
-      <c r="C205" t="n">
-        <v>60800</v>
-      </c>
-      <c r="D205" t="n">
-        <v>60800</v>
-      </c>
-      <c r="E205" t="n">
-        <v>60800</v>
-      </c>
-      <c r="F205" t="n">
-        <v>14.9788</v>
-      </c>
-      <c r="G205" t="n">
-        <v>-149.5972172</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>60850</v>
-      </c>
-      <c r="C206" t="n">
-        <v>60850</v>
-      </c>
-      <c r="D206" t="n">
-        <v>60850</v>
-      </c>
-      <c r="E206" t="n">
-        <v>60850</v>
-      </c>
-      <c r="F206" t="n">
-        <v>4.1961</v>
-      </c>
-      <c r="G206" t="n">
-        <v>-145.4011172</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>60700</v>
-      </c>
-      <c r="C207" t="n">
-        <v>60700</v>
-      </c>
-      <c r="D207" t="n">
-        <v>60700</v>
-      </c>
-      <c r="E207" t="n">
-        <v>60700</v>
-      </c>
-      <c r="F207" t="n">
-        <v>14.317</v>
-      </c>
-      <c r="G207" t="n">
-        <v>-159.7181172</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>60550</v>
-      </c>
-      <c r="C208" t="n">
-        <v>60850</v>
-      </c>
-      <c r="D208" t="n">
-        <v>60850</v>
-      </c>
-      <c r="E208" t="n">
-        <v>60550</v>
-      </c>
-      <c r="F208" t="n">
-        <v>1.5938</v>
-      </c>
-      <c r="G208" t="n">
-        <v>-158.1243172</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>60850</v>
-      </c>
-      <c r="C209" t="n">
-        <v>60850</v>
-      </c>
-      <c r="D209" t="n">
-        <v>60850</v>
-      </c>
-      <c r="E209" t="n">
-        <v>60850</v>
-      </c>
-      <c r="F209" t="n">
-        <v>4.2822</v>
-      </c>
-      <c r="G209" t="n">
-        <v>-158.1243172</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>61100</v>
-      </c>
-      <c r="C210" t="n">
-        <v>61100</v>
-      </c>
-      <c r="D210" t="n">
-        <v>61100</v>
-      </c>
-      <c r="E210" t="n">
-        <v>61100</v>
-      </c>
-      <c r="F210" t="n">
-        <v>14.991</v>
-      </c>
-      <c r="G210" t="n">
-        <v>-143.1333172</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>61100</v>
-      </c>
-      <c r="C211" t="n">
-        <v>61100</v>
-      </c>
-      <c r="D211" t="n">
-        <v>61100</v>
-      </c>
-      <c r="E211" t="n">
-        <v>61100</v>
-      </c>
-      <c r="F211" t="n">
-        <v>0.008999999999999999</v>
-      </c>
-      <c r="G211" t="n">
-        <v>-143.1333172</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>60850</v>
-      </c>
-      <c r="C212" t="n">
-        <v>60850</v>
-      </c>
-      <c r="D212" t="n">
-        <v>60850</v>
-      </c>
-      <c r="E212" t="n">
-        <v>60850</v>
-      </c>
-      <c r="F212" t="n">
-        <v>13.61413853</v>
-      </c>
-      <c r="G212" t="n">
-        <v>-156.74745573</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>60850</v>
-      </c>
-      <c r="C213" t="n">
-        <v>60850</v>
-      </c>
-      <c r="D213" t="n">
-        <v>60850</v>
-      </c>
-      <c r="E213" t="n">
-        <v>60850</v>
-      </c>
-      <c r="F213" t="n">
-        <v>13.5032</v>
-      </c>
-      <c r="G213" t="n">
-        <v>-156.74745573</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>60850</v>
-      </c>
-      <c r="C214" t="n">
-        <v>60950</v>
-      </c>
-      <c r="D214" t="n">
-        <v>60950</v>
-      </c>
-      <c r="E214" t="n">
-        <v>60850</v>
-      </c>
-      <c r="F214" t="n">
-        <v>0.02216147</v>
-      </c>
-      <c r="G214" t="n">
-        <v>-156.72529426</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>60950</v>
-      </c>
-      <c r="C215" t="n">
-        <v>61150</v>
-      </c>
-      <c r="D215" t="n">
-        <v>61150</v>
-      </c>
-      <c r="E215" t="n">
-        <v>60950</v>
-      </c>
-      <c r="F215" t="n">
-        <v>0.0165</v>
-      </c>
-      <c r="G215" t="n">
-        <v>-156.70879426</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>61150</v>
-      </c>
-      <c r="C216" t="n">
-        <v>61150</v>
-      </c>
-      <c r="D216" t="n">
-        <v>61150</v>
-      </c>
-      <c r="E216" t="n">
-        <v>61150</v>
-      </c>
-      <c r="F216" t="n">
-        <v>1.2643</v>
-      </c>
-      <c r="G216" t="n">
-        <v>-156.70879426</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>61150</v>
-      </c>
-      <c r="C217" t="n">
-        <v>61150</v>
-      </c>
-      <c r="D217" t="n">
-        <v>61150</v>
-      </c>
-      <c r="E217" t="n">
-        <v>61150</v>
-      </c>
-      <c r="F217" t="n">
-        <v>0.8401999999999999</v>
-      </c>
-      <c r="G217" t="n">
-        <v>-156.70879426</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>61150</v>
-      </c>
-      <c r="C218" t="n">
-        <v>61150</v>
-      </c>
-      <c r="D218" t="n">
-        <v>61150</v>
-      </c>
-      <c r="E218" t="n">
-        <v>61150</v>
-      </c>
-      <c r="F218" t="n">
-        <v>3.1893</v>
-      </c>
-      <c r="G218" t="n">
-        <v>-156.70879426</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>61150</v>
-      </c>
-      <c r="C219" t="n">
-        <v>61150</v>
-      </c>
-      <c r="D219" t="n">
-        <v>61150</v>
-      </c>
-      <c r="E219" t="n">
-        <v>61150</v>
-      </c>
-      <c r="F219" t="n">
-        <v>0.4025</v>
-      </c>
-      <c r="G219" t="n">
-        <v>-156.70879426</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>60850</v>
-      </c>
-      <c r="C220" t="n">
-        <v>60850</v>
-      </c>
-      <c r="D220" t="n">
-        <v>60850</v>
-      </c>
-      <c r="E220" t="n">
-        <v>60850</v>
-      </c>
-      <c r="F220" t="n">
-        <v>1.9386</v>
-      </c>
-      <c r="G220" t="n">
-        <v>-158.64739426</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>60450</v>
-      </c>
-      <c r="C221" t="n">
-        <v>60450</v>
-      </c>
-      <c r="D221" t="n">
-        <v>60450</v>
-      </c>
-      <c r="E221" t="n">
-        <v>60450</v>
-      </c>
-      <c r="F221" t="n">
-        <v>15.3797</v>
-      </c>
-      <c r="G221" t="n">
-        <v>-174.02709426</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>60450</v>
-      </c>
-      <c r="C222" t="n">
-        <v>60450</v>
-      </c>
-      <c r="D222" t="n">
-        <v>60450</v>
-      </c>
-      <c r="E222" t="n">
-        <v>60450</v>
-      </c>
-      <c r="F222" t="n">
-        <v>0.263</v>
-      </c>
-      <c r="G222" t="n">
-        <v>-174.02709426</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>60450</v>
-      </c>
-      <c r="C223" t="n">
-        <v>60450</v>
-      </c>
-      <c r="D223" t="n">
-        <v>60450</v>
-      </c>
-      <c r="E223" t="n">
-        <v>60450</v>
-      </c>
-      <c r="F223" t="n">
-        <v>0.0373</v>
-      </c>
-      <c r="G223" t="n">
-        <v>-174.02709426</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="n">
-        <v>60350</v>
-      </c>
-      <c r="C224" t="n">
-        <v>60300</v>
-      </c>
-      <c r="D224" t="n">
-        <v>60350</v>
-      </c>
-      <c r="E224" t="n">
-        <v>60300</v>
-      </c>
-      <c r="F224" t="n">
-        <v>2</v>
-      </c>
-      <c r="G224" t="n">
-        <v>-176.02709426</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="n">
-        <v>60300</v>
-      </c>
-      <c r="C225" t="n">
-        <v>60450</v>
-      </c>
-      <c r="D225" t="n">
-        <v>60450</v>
-      </c>
-      <c r="E225" t="n">
-        <v>60300</v>
-      </c>
-      <c r="F225" t="n">
-        <v>1.18381645</v>
-      </c>
-      <c r="G225" t="n">
-        <v>-174.84327781</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="n">
-        <v>60200</v>
-      </c>
-      <c r="C226" t="n">
-        <v>60200</v>
-      </c>
-      <c r="D226" t="n">
-        <v>60200</v>
-      </c>
-      <c r="E226" t="n">
-        <v>60200</v>
-      </c>
-      <c r="F226" t="n">
-        <v>17.1535</v>
-      </c>
-      <c r="G226" t="n">
-        <v>-191.99677781</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B227" t="n">
-        <v>60500</v>
-      </c>
-      <c r="C227" t="n">
-        <v>60500</v>
-      </c>
-      <c r="D227" t="n">
-        <v>60500</v>
-      </c>
-      <c r="E227" t="n">
-        <v>60500</v>
-      </c>
-      <c r="F227" t="n">
-        <v>0.0489</v>
-      </c>
-      <c r="G227" t="n">
-        <v>-191.94787781</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="B228" t="n">
-        <v>60600</v>
-      </c>
-      <c r="C228" t="n">
-        <v>60600</v>
-      </c>
-      <c r="D228" t="n">
-        <v>60600</v>
-      </c>
-      <c r="E228" t="n">
-        <v>60600</v>
-      </c>
-      <c r="F228" t="n">
-        <v>0.016</v>
-      </c>
-      <c r="G228" t="n">
-        <v>-191.93187781</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>227</v>
-      </c>
-      <c r="B229" t="n">
-        <v>61000</v>
-      </c>
-      <c r="C229" t="n">
-        <v>61000</v>
-      </c>
-      <c r="D229" t="n">
-        <v>61000</v>
-      </c>
-      <c r="E229" t="n">
-        <v>61000</v>
-      </c>
-      <c r="F229" t="n">
-        <v>0.5585</v>
-      </c>
-      <c r="G229" t="n">
-        <v>-191.37337781</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
-        <v>228</v>
-      </c>
-      <c r="B230" t="n">
-        <v>60900</v>
-      </c>
-      <c r="C230" t="n">
-        <v>60850</v>
-      </c>
-      <c r="D230" t="n">
-        <v>60900</v>
-      </c>
-      <c r="E230" t="n">
-        <v>60850</v>
-      </c>
-      <c r="F230" t="n">
-        <v>17.1535</v>
-      </c>
-      <c r="G230" t="n">
-        <v>-208.52687781</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="B231" t="n">
-        <v>60900</v>
-      </c>
-      <c r="C231" t="n">
-        <v>61200</v>
-      </c>
-      <c r="D231" t="n">
-        <v>61200</v>
-      </c>
-      <c r="E231" t="n">
-        <v>60900</v>
-      </c>
-      <c r="F231" t="n">
-        <v>0.0169</v>
-      </c>
-      <c r="G231" t="n">
-        <v>-208.50997781</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
-        <v>230</v>
-      </c>
-      <c r="B232" t="n">
-        <v>61200</v>
-      </c>
-      <c r="C232" t="n">
-        <v>61200</v>
-      </c>
-      <c r="D232" t="n">
-        <v>61200</v>
-      </c>
-      <c r="E232" t="n">
-        <v>61200</v>
-      </c>
-      <c r="F232" t="n">
-        <v>2</v>
-      </c>
-      <c r="G232" t="n">
-        <v>-208.50997781</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>231</v>
-      </c>
-      <c r="B233" t="n">
-        <v>61150</v>
-      </c>
-      <c r="C233" t="n">
-        <v>61150</v>
-      </c>
-      <c r="D233" t="n">
-        <v>61150</v>
-      </c>
-      <c r="E233" t="n">
-        <v>61150</v>
-      </c>
-      <c r="F233" t="n">
-        <v>1</v>
-      </c>
-      <c r="G233" t="n">
-        <v>-209.50997781</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
-        <v>232</v>
-      </c>
-      <c r="B234" t="n">
-        <v>60950</v>
-      </c>
-      <c r="C234" t="n">
-        <v>60950</v>
-      </c>
-      <c r="D234" t="n">
-        <v>60950</v>
-      </c>
-      <c r="E234" t="n">
-        <v>60950</v>
-      </c>
-      <c r="F234" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="G234" t="n">
-        <v>-210.15997781</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
-        <v>233</v>
-      </c>
-      <c r="B235" t="n">
-        <v>60900</v>
-      </c>
-      <c r="C235" t="n">
-        <v>61250</v>
-      </c>
-      <c r="D235" t="n">
-        <v>61250</v>
-      </c>
-      <c r="E235" t="n">
-        <v>60900</v>
-      </c>
-      <c r="F235" t="n">
-        <v>146.0805</v>
-      </c>
-      <c r="G235" t="n">
-        <v>-64.07947781000004</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
-        <v>234</v>
-      </c>
-      <c r="B236" t="n">
-        <v>61250</v>
-      </c>
-      <c r="C236" t="n">
-        <v>61200</v>
-      </c>
-      <c r="D236" t="n">
-        <v>61250</v>
-      </c>
-      <c r="E236" t="n">
-        <v>61200</v>
-      </c>
-      <c r="F236" t="n">
-        <v>43.8117</v>
-      </c>
-      <c r="G236" t="n">
-        <v>-107.89117781</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
-        <v>235</v>
-      </c>
-      <c r="B237" t="n">
-        <v>61300</v>
-      </c>
-      <c r="C237" t="n">
-        <v>61300</v>
-      </c>
-      <c r="D237" t="n">
-        <v>61300</v>
-      </c>
-      <c r="E237" t="n">
-        <v>61300</v>
-      </c>
-      <c r="F237" t="n">
-        <v>0.3185</v>
-      </c>
-      <c r="G237" t="n">
-        <v>-107.57267781</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
-        <v>236</v>
-      </c>
-      <c r="B238" t="n">
-        <v>61300</v>
-      </c>
-      <c r="C238" t="n">
-        <v>61300</v>
-      </c>
-      <c r="D238" t="n">
-        <v>61300</v>
-      </c>
-      <c r="E238" t="n">
-        <v>61300</v>
-      </c>
-      <c r="F238" t="n">
-        <v>6.0521</v>
-      </c>
-      <c r="G238" t="n">
-        <v>-107.57267781</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
-        <v>237</v>
-      </c>
-      <c r="B239" t="n">
-        <v>61850</v>
-      </c>
-      <c r="C239" t="n">
-        <v>61850</v>
-      </c>
-      <c r="D239" t="n">
-        <v>61850</v>
-      </c>
-      <c r="E239" t="n">
-        <v>61850</v>
-      </c>
-      <c r="F239" t="n">
-        <v>5.3717</v>
-      </c>
-      <c r="G239" t="n">
-        <v>-102.20097781</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
-        <v>238</v>
-      </c>
-      <c r="B240" t="n">
-        <v>61550</v>
-      </c>
-      <c r="C240" t="n">
-        <v>61350</v>
-      </c>
-      <c r="D240" t="n">
-        <v>61550</v>
-      </c>
-      <c r="E240" t="n">
-        <v>61350</v>
-      </c>
-      <c r="F240" t="n">
-        <v>32.2</v>
-      </c>
-      <c r="G240" t="n">
-        <v>-134.40097781</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
-        <v>239</v>
-      </c>
-      <c r="B241" t="n">
-        <v>61200</v>
-      </c>
-      <c r="C241" t="n">
-        <v>61200</v>
-      </c>
-      <c r="D241" t="n">
-        <v>61200</v>
-      </c>
-      <c r="E241" t="n">
-        <v>61200</v>
-      </c>
-      <c r="F241" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="G241" t="n">
-        <v>-136.34097781</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
-        <v>240</v>
-      </c>
-      <c r="B242" t="n">
-        <v>61150</v>
-      </c>
-      <c r="C242" t="n">
-        <v>61150</v>
-      </c>
-      <c r="D242" t="n">
-        <v>61150</v>
-      </c>
-      <c r="E242" t="n">
-        <v>61150</v>
-      </c>
-      <c r="F242" t="n">
-        <v>3.4317</v>
-      </c>
-      <c r="G242" t="n">
-        <v>-139.77267781</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
-        <v>241</v>
-      </c>
-      <c r="B243" t="n">
-        <v>61350</v>
-      </c>
-      <c r="C243" t="n">
-        <v>61350</v>
-      </c>
-      <c r="D243" t="n">
-        <v>61350</v>
-      </c>
-      <c r="E243" t="n">
-        <v>61350</v>
-      </c>
-      <c r="F243" t="n">
-        <v>1.2643</v>
-      </c>
-      <c r="G243" t="n">
-        <v>-138.50837781</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
+      <c r="N201" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-22 BackTest ZEC.xlsx
+++ b/BackTest/2020-01-22 BackTest ZEC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>193.49702064</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>193.45622064</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>192.38892064</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>192.41910597</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>192.41910597</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>192.41907381</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>192.41907381</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>193.40497381</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>193.40497381</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>193.40497381</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>193.40497381</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>192.32417381</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>192.32417381</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>191.47417381</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>192.47417381</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>139.37027381</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>93.19977381000001</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>89.45247381</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>85.04507381000001</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>85.74497381</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>85.72917381000001</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>75.29907381000001</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>80.89907381</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>73.79907381000001</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>91.47247381000001</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>94.27247381000001</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>94.84167381</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>95.27027381000001</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>88.70177381000001</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>88.98677381</v>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>88.17597381</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>88.17597381</v>
       </c>
       <c r="H39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>87.38247381000001</v>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>77.99917381</v>
       </c>
       <c r="H41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>77.99917381</v>
       </c>
       <c r="H42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>71.17407381</v>
       </c>
       <c r="H43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>70.04677380999999</v>
       </c>
       <c r="H44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>71.02517380999998</v>
       </c>
       <c r="H45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>71.02517380999998</v>
       </c>
       <c r="H46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>74.90457380999999</v>
       </c>
       <c r="H47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>74.90457380999999</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>74.90457380999999</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>74.90457380999999</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>75.22345499999999</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>72.47995499999999</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>67.47995499999999</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>67.47995499999999</v>
       </c>
       <c r="H54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>74.04355499999998</v>
       </c>
       <c r="H55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>74.04355499999998</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>74.36235499999998</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>57.01055499999998</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>45.97085499999999</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>13.89055499999998</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>29.29055499999998</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>29.39055499999998</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>30.58745499999998</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>29.73745499999998</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-65.37104500000002</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-65.37104500000002</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-73.60424500000002</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-73.60424500000002</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-73.60424500000002</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-73.60424500000002</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-81.83754500000002</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-81.83754500000002</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-81.83754500000002</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-79.98284500000003</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-80.82044500000002</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-100.511945</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-100.511945</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-100.511945</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-12.51774500000002</v>
       </c>
       <c r="H96" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-12.51774500000002</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-18.44774500000002</v>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-15.11044500000002</v>
       </c>
       <c r="H99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-12.10661720000002</v>
       </c>
       <c r="H101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-82.28181720000003</v>
       </c>
       <c r="H174" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -7315,10 +7315,14 @@
         <v>-181.3934172</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>59900</v>
+      </c>
+      <c r="J210" t="n">
+        <v>59900</v>
+      </c>
       <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
@@ -7351,8 +7355,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>59900</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7384,8 +7394,14 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>59900</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7810,10 +7826,14 @@
         <v>-186.9504172</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I225" t="n">
+        <v>60250</v>
+      </c>
+      <c r="J225" t="n">
+        <v>60250</v>
+      </c>
       <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
@@ -7843,11 +7863,19 @@
         <v>-186.9504172</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I226" t="n">
+        <v>60250</v>
+      </c>
+      <c r="J226" t="n">
+        <v>60250</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7876,11 +7904,19 @@
         <v>-186.9504172</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I227" t="n">
+        <v>60250</v>
+      </c>
+      <c r="J227" t="n">
+        <v>60250</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -7909,10 +7945,14 @@
         <v>-185.6771172</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I228" t="n">
+        <v>60250</v>
+      </c>
+      <c r="J228" t="n">
+        <v>60250</v>
+      </c>
       <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
@@ -7942,15 +7982,17 @@
         <v>-185.6771172</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
-      </c>
-      <c r="I229" t="n">
-        <v>60300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="n">
-        <v>60300</v>
-      </c>
-      <c r="K229" t="inlineStr"/>
+        <v>60250</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -7979,13 +8021,11 @@
         <v>-182.4227172</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
-      </c>
-      <c r="I230" t="n">
-        <v>60300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="n">
-        <v>60300</v>
+        <v>60250</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
@@ -8020,19 +8060,11 @@
         <v>-182.4227172</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
-      </c>
-      <c r="I231" t="n">
-        <v>60350</v>
-      </c>
-      <c r="J231" t="n">
-        <v>60300</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8061,14 +8093,10 @@
         <v>-149.5972172</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
-      </c>
-      <c r="I232" t="n">
-        <v>60350</v>
-      </c>
-      <c r="J232" t="n">
-        <v>60350</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
@@ -8098,19 +8126,11 @@
         <v>-149.5972172</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
-      </c>
-      <c r="I233" t="n">
-        <v>60800</v>
-      </c>
-      <c r="J233" t="n">
-        <v>60350</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8139,19 +8159,11 @@
         <v>-149.5972172</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
-      </c>
-      <c r="I234" t="n">
-        <v>60800</v>
-      </c>
-      <c r="J234" t="n">
-        <v>60350</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8180,14 +8192,10 @@
         <v>-145.4011172</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
-      </c>
-      <c r="I235" t="n">
-        <v>60800</v>
-      </c>
-      <c r="J235" t="n">
-        <v>60800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
@@ -8220,14 +8228,8 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>60800</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8256,14 +8258,12 @@
         <v>-158.1243172</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I237" t="n">
         <v>60700</v>
       </c>
-      <c r="J237" t="n">
-        <v>60800</v>
-      </c>
+      <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -8297,14 +8297,10 @@
         <v>-158.1243172</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
-      </c>
-      <c r="I238" t="n">
-        <v>60850</v>
-      </c>
-      <c r="J238" t="n">
-        <v>60800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8338,14 +8334,10 @@
         <v>-143.1333172</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
-      </c>
-      <c r="I239" t="n">
-        <v>60850</v>
-      </c>
-      <c r="J239" t="n">
-        <v>60800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8382,9 +8374,7 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>60800</v>
-      </c>
+      <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8421,9 +8411,7 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>60800</v>
-      </c>
+      <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8460,9 +8448,7 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>60800</v>
-      </c>
+      <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8496,14 +8482,12 @@
         <v>-156.72529426</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I243" t="n">
         <v>60850</v>
       </c>
-      <c r="J243" t="n">
-        <v>60800</v>
-      </c>
+      <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8537,14 +8521,12 @@
         <v>-156.70879426</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I244" t="n">
         <v>60950</v>
       </c>
-      <c r="J244" t="n">
-        <v>60800</v>
-      </c>
+      <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8578,14 +8560,12 @@
         <v>-156.70879426</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I245" t="n">
         <v>61150</v>
       </c>
-      <c r="J245" t="n">
-        <v>60800</v>
-      </c>
+      <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8619,14 +8599,10 @@
         <v>-156.70879426</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
-      </c>
-      <c r="I246" t="n">
-        <v>61150</v>
-      </c>
-      <c r="J246" t="n">
-        <v>60800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8660,14 +8636,10 @@
         <v>-156.70879426</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
-      </c>
-      <c r="I247" t="n">
-        <v>61150</v>
-      </c>
-      <c r="J247" t="n">
-        <v>60800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8704,9 +8676,7 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>60800</v>
-      </c>
+      <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8740,14 +8710,10 @@
         <v>-158.64739426</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
-      </c>
-      <c r="I249" t="n">
-        <v>61150</v>
-      </c>
-      <c r="J249" t="n">
-        <v>60800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8781,14 +8747,12 @@
         <v>-174.02709426</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I250" t="n">
         <v>60850</v>
       </c>
-      <c r="J250" t="n">
-        <v>60800</v>
-      </c>
+      <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8822,14 +8786,12 @@
         <v>-174.02709426</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I251" t="n">
         <v>60450</v>
       </c>
-      <c r="J251" t="n">
-        <v>60800</v>
-      </c>
+      <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8863,14 +8825,12 @@
         <v>-174.02709426</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I252" t="n">
         <v>60450</v>
       </c>
-      <c r="J252" t="n">
-        <v>60800</v>
-      </c>
+      <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8904,14 +8864,12 @@
         <v>-176.02709426</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I253" t="n">
         <v>60450</v>
       </c>
-      <c r="J253" t="n">
-        <v>60800</v>
-      </c>
+      <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8945,14 +8903,12 @@
         <v>-174.84327781</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I254" t="n">
         <v>60300</v>
       </c>
-      <c r="J254" t="n">
-        <v>60800</v>
-      </c>
+      <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8986,14 +8942,12 @@
         <v>-191.99677781</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I255" t="n">
         <v>60450</v>
       </c>
-      <c r="J255" t="n">
-        <v>60800</v>
-      </c>
+      <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9027,14 +8981,12 @@
         <v>-191.94787781</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I256" t="n">
         <v>60200</v>
       </c>
-      <c r="J256" t="n">
-        <v>60800</v>
-      </c>
+      <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9068,14 +9020,12 @@
         <v>-191.93187781</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I257" t="n">
         <v>60500</v>
       </c>
-      <c r="J257" t="n">
-        <v>60800</v>
-      </c>
+      <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9109,14 +9059,12 @@
         <v>-191.37337781</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I258" t="n">
         <v>60600</v>
       </c>
-      <c r="J258" t="n">
-        <v>60800</v>
-      </c>
+      <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9150,14 +9098,12 @@
         <v>-208.52687781</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I259" t="n">
         <v>61000</v>
       </c>
-      <c r="J259" t="n">
-        <v>60800</v>
-      </c>
+      <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9191,12 +9137,12 @@
         <v>-208.50997781</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>60800</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I260" t="n">
+        <v>60850</v>
+      </c>
+      <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9230,12 +9176,12 @@
         <v>-208.50997781</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>60800</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I261" t="n">
+        <v>61200</v>
+      </c>
+      <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9269,12 +9215,12 @@
         <v>-209.50997781</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>60800</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I262" t="n">
+        <v>61200</v>
+      </c>
+      <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9308,12 +9254,12 @@
         <v>-210.15997781</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>60800</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I263" t="n">
+        <v>61150</v>
+      </c>
+      <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9347,12 +9293,12 @@
         <v>-64.07947781000004</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>60800</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I264" t="n">
+        <v>60950</v>
+      </c>
+      <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9386,14 +9332,12 @@
         <v>-107.89117781</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I265" t="n">
         <v>61250</v>
       </c>
-      <c r="J265" t="n">
-        <v>60800</v>
-      </c>
+      <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9427,14 +9371,12 @@
         <v>-107.57267781</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I266" t="n">
         <v>61200</v>
       </c>
-      <c r="J266" t="n">
-        <v>60800</v>
-      </c>
+      <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9468,14 +9410,12 @@
         <v>-107.57267781</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I267" t="n">
         <v>61300</v>
       </c>
-      <c r="J267" t="n">
-        <v>60800</v>
-      </c>
+      <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9509,14 +9449,12 @@
         <v>-102.20097781</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I268" t="n">
         <v>61300</v>
       </c>
-      <c r="J268" t="n">
-        <v>60800</v>
-      </c>
+      <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9553,9 +9491,7 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>60800</v>
-      </c>
+      <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9592,9 +9528,7 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>60800</v>
-      </c>
+      <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9631,9 +9565,7 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>60800</v>
-      </c>
+      <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9670,9 +9602,7 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>60800</v>
-      </c>
+      <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9684,6 +9614,6 @@
       <c r="M272" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-22 BackTest ZEC.xlsx
+++ b/BackTest/2020-01-22 BackTest ZEC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>193.49702064</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>193.45622064</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>192.38892064</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>193.40497381</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>193.40497381</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>192.32417381</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>192.32417381</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>93.19977381000001</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>89.45247381</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>85.04507381000001</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>85.74497381</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>85.72917381000001</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>75.29907381000001</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>80.89907381</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>73.79907381000001</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>91.47247381000001</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>94.27247381000001</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>94.84167381</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>95.27027381000001</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>88.70177381000001</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>88.98677381</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>88.17597381</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>88.17597381</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>87.38247381000001</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>77.99917381</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>77.99917381</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>71.17407381</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>70.04677380999999</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>71.02517380999998</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>71.02517380999998</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>74.90457380999999</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>74.90457380999999</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>74.90457380999999</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>74.90457380999999</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>75.22345499999999</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>72.47995499999999</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>67.47995499999999</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>67.47995499999999</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>74.04355499999998</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>74.04355499999998</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>74.36235499999998</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>57.01055499999998</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>45.97085499999999</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>13.89055499999998</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>29.29055499999998</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>29.39055499999998</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>30.58745499999998</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>29.73745499999998</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-65.37104500000002</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-65.37104500000002</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-73.60424500000002</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-73.60424500000002</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-73.60424500000002</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-73.60424500000002</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-81.83754500000002</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-81.83754500000002</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-81.83754500000002</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-79.98284500000003</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-80.82044500000002</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-100.511945</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-100.511945</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-100.511945</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-15.11044500000002</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-12.10661720000002</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -5071,10 +5071,14 @@
         <v>-44.95661720000003</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>60300</v>
+      </c>
+      <c r="J142" t="n">
+        <v>60300</v>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
@@ -5107,8 +5111,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>60300</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5137,11 +5147,19 @@
         <v>-43.07971720000003</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>60200</v>
+      </c>
+      <c r="J144" t="n">
+        <v>60300</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5170,10 +5188,14 @@
         <v>-43.07971720000003</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>60550</v>
+      </c>
+      <c r="J145" t="n">
+        <v>60550</v>
+      </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
@@ -5203,11 +5225,19 @@
         <v>-55.59091720000004</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>60550</v>
+      </c>
+      <c r="J146" t="n">
+        <v>60550</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5236,11 +5266,19 @@
         <v>-37.39661720000004</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J147" t="n">
+        <v>60550</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6061,7 +6099,7 @@
         <v>-82.28181720000003</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6132,7 @@
         <v>-82.28181720000003</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6165,7 @@
         <v>-82.28181720000003</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6198,7 @@
         <v>-78.98261720000004</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6231,7 @@
         <v>-47.51361720000003</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6264,7 @@
         <v>59.54238279999996</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6297,7 @@
         <v>59.54238279999996</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6358,7 +6396,7 @@
         <v>45.76698279999997</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6429,7 @@
         <v>44.14918279999996</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6462,7 @@
         <v>44.14918279999996</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6495,7 @@
         <v>43.74118279999996</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6528,7 @@
         <v>43.74118279999996</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6561,7 @@
         <v>43.74118279999996</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6721,7 +6759,7 @@
         <v>49.52528279999996</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6792,7 @@
         <v>49.52528279999996</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6825,7 @@
         <v>16.43798279999996</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7315,14 +7353,10 @@
         <v>-181.3934172</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
-      </c>
-      <c r="I210" t="n">
-        <v>59900</v>
-      </c>
-      <c r="J210" t="n">
-        <v>59900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
@@ -7355,14 +7389,8 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>59900</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7394,14 +7422,8 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>59900</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7826,14 +7848,10 @@
         <v>-186.9504172</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
-      </c>
-      <c r="I225" t="n">
-        <v>60250</v>
-      </c>
-      <c r="J225" t="n">
-        <v>60250</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
@@ -7863,19 +7881,11 @@
         <v>-186.9504172</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
-      </c>
-      <c r="I226" t="n">
-        <v>60250</v>
-      </c>
-      <c r="J226" t="n">
-        <v>60250</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7904,19 +7914,11 @@
         <v>-186.9504172</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
-      </c>
-      <c r="I227" t="n">
-        <v>60250</v>
-      </c>
-      <c r="J227" t="n">
-        <v>60250</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -7945,14 +7947,10 @@
         <v>-185.6771172</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
-      </c>
-      <c r="I228" t="n">
-        <v>60250</v>
-      </c>
-      <c r="J228" t="n">
-        <v>60250</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
@@ -7985,14 +7983,8 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>60250</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8024,14 +8016,8 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>60250</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8258,17 +8244,11 @@
         <v>-158.1243172</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
-      </c>
-      <c r="I237" t="n">
-        <v>60700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8301,11 +8281,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8338,11 +8314,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8375,11 +8347,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8412,11 +8380,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8445,15 +8409,11 @@
         <v>-156.74745573</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8482,17 +8442,11 @@
         <v>-156.72529426</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
-      </c>
-      <c r="I243" t="n">
-        <v>60850</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8521,17 +8475,11 @@
         <v>-156.70879426</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
-      </c>
-      <c r="I244" t="n">
-        <v>60950</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8560,17 +8508,11 @@
         <v>-156.70879426</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
-      </c>
-      <c r="I245" t="n">
-        <v>61150</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8599,15 +8541,11 @@
         <v>-156.70879426</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8636,15 +8574,11 @@
         <v>-156.70879426</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8673,15 +8607,11 @@
         <v>-156.70879426</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8710,15 +8640,11 @@
         <v>-158.64739426</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8747,17 +8673,11 @@
         <v>-174.02709426</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
-      </c>
-      <c r="I250" t="n">
-        <v>60850</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8786,17 +8706,11 @@
         <v>-174.02709426</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
-      </c>
-      <c r="I251" t="n">
-        <v>60450</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8825,17 +8739,11 @@
         <v>-174.02709426</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
-      </c>
-      <c r="I252" t="n">
-        <v>60450</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8864,17 +8772,11 @@
         <v>-176.02709426</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
-      </c>
-      <c r="I253" t="n">
-        <v>60450</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8903,17 +8805,11 @@
         <v>-174.84327781</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
-      </c>
-      <c r="I254" t="n">
-        <v>60300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8942,17 +8838,11 @@
         <v>-191.99677781</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
-      </c>
-      <c r="I255" t="n">
-        <v>60450</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8981,17 +8871,11 @@
         <v>-191.94787781</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
-      </c>
-      <c r="I256" t="n">
-        <v>60200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9020,17 +8904,11 @@
         <v>-191.93187781</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
-      </c>
-      <c r="I257" t="n">
-        <v>60500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9059,17 +8937,11 @@
         <v>-191.37337781</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
-      </c>
-      <c r="I258" t="n">
-        <v>60600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9098,17 +8970,11 @@
         <v>-208.52687781</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
-      </c>
-      <c r="I259" t="n">
-        <v>61000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9137,17 +9003,11 @@
         <v>-208.50997781</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
-      </c>
-      <c r="I260" t="n">
-        <v>60850</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9176,17 +9036,11 @@
         <v>-208.50997781</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
-      </c>
-      <c r="I261" t="n">
-        <v>61200</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9215,17 +9069,11 @@
         <v>-209.50997781</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
-      </c>
-      <c r="I262" t="n">
-        <v>61200</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9254,17 +9102,11 @@
         <v>-210.15997781</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
-      </c>
-      <c r="I263" t="n">
-        <v>61150</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9293,17 +9135,11 @@
         <v>-64.07947781000004</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
-      </c>
-      <c r="I264" t="n">
-        <v>60950</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9332,17 +9168,11 @@
         <v>-107.89117781</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
-      </c>
-      <c r="I265" t="n">
-        <v>61250</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9371,17 +9201,11 @@
         <v>-107.57267781</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
-      </c>
-      <c r="I266" t="n">
-        <v>61200</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9410,17 +9234,11 @@
         <v>-107.57267781</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
-      </c>
-      <c r="I267" t="n">
-        <v>61300</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9449,17 +9267,11 @@
         <v>-102.20097781</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
-      </c>
-      <c r="I268" t="n">
-        <v>61300</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9492,11 +9304,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9529,11 +9337,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9566,11 +9370,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9603,17 +9403,13 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
       <c r="M272" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-22 BackTest ZEC.xlsx
+++ b/BackTest/2020-01-22 BackTest ZEC.xlsx
@@ -451,7 +451,7 @@
         <v>193.49702064</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>193.45622064</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>192.38892064</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>193.40497381</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>193.40497381</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>193.40497381</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>194.65677381</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>192.32417381</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>192.32417381</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>191.47417381</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>192.47417381</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>139.37027381</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>139.37027381</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>95.27027381000001</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>88.39527381000001</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>88.70177381000001</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>88.98677381</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>88.17597381</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>88.17597381</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>87.38247381000001</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>77.99917381</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>77.99917381</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>71.17407381</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>74.90457380999999</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>74.90457380999999</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>74.90457380999999</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>75.22345499999999</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>72.47995499999999</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>67.47995499999999</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>67.47995499999999</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>74.04355499999998</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>74.04355499999998</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>74.36235499999998</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>57.01055499999998</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>45.97085499999999</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>13.89055499999998</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>29.29055499999998</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>29.39055499999998</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>30.58745499999998</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>29.73745499999998</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-65.37104500000002</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-65.37104500000002</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-12.51774500000002</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-12.51774500000002</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-18.44774500000002</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-15.11044500000002</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-15.19031720000002</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-12.10661720000002</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-28.10661720000002</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-30.92611720000002</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -5071,14 +5071,10 @@
         <v>-44.95661720000003</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>60300</v>
-      </c>
-      <c r="J142" t="n">
-        <v>60300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
@@ -5111,14 +5107,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>60300</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5147,19 +5137,11 @@
         <v>-43.07971720000003</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>60200</v>
-      </c>
-      <c r="J144" t="n">
-        <v>60300</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5188,14 +5170,10 @@
         <v>-43.07971720000003</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>60550</v>
-      </c>
-      <c r="J145" t="n">
-        <v>60550</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
@@ -5225,19 +5203,11 @@
         <v>-55.59091720000004</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>60550</v>
-      </c>
-      <c r="J146" t="n">
-        <v>60550</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5266,19 +5236,11 @@
         <v>-37.39661720000004</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>60500</v>
-      </c>
-      <c r="J147" t="n">
-        <v>60550</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6099,7 +6061,7 @@
         <v>-82.28181720000003</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6132,7 +6094,7 @@
         <v>-82.28181720000003</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6165,7 +6127,7 @@
         <v>-82.28181720000003</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6198,7 +6160,7 @@
         <v>-78.98261720000004</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6231,7 +6193,7 @@
         <v>-47.51361720000003</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6264,7 +6226,7 @@
         <v>59.54238279999996</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6297,7 +6259,7 @@
         <v>59.54238279999996</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6396,7 +6358,7 @@
         <v>45.76698279999997</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6429,7 +6391,7 @@
         <v>44.14918279999996</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6462,7 +6424,7 @@
         <v>44.14918279999996</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6495,7 +6457,7 @@
         <v>43.74118279999996</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6528,7 +6490,7 @@
         <v>43.74118279999996</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6561,7 +6523,7 @@
         <v>43.74118279999996</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6759,7 +6721,7 @@
         <v>49.52528279999996</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6792,7 +6754,7 @@
         <v>49.52528279999996</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6825,7 +6787,7 @@
         <v>16.43798279999996</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -8409,7 +8371,7 @@
         <v>-156.74745573</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8442,7 +8404,7 @@
         <v>-156.72529426</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8475,7 +8437,7 @@
         <v>-156.70879426</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8508,7 +8470,7 @@
         <v>-156.70879426</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8541,7 +8503,7 @@
         <v>-156.70879426</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8574,7 +8536,7 @@
         <v>-156.70879426</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8607,7 +8569,7 @@
         <v>-156.70879426</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8640,7 +8602,7 @@
         <v>-158.64739426</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8673,10 +8635,14 @@
         <v>-174.02709426</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I250" t="n">
+        <v>60850</v>
+      </c>
+      <c r="J250" t="n">
+        <v>60850</v>
+      </c>
       <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
@@ -8706,11 +8672,19 @@
         <v>-174.02709426</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I251" t="n">
+        <v>60450</v>
+      </c>
+      <c r="J251" t="n">
+        <v>60850</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8739,11 +8713,19 @@
         <v>-174.02709426</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I252" t="n">
+        <v>60450</v>
+      </c>
+      <c r="J252" t="n">
+        <v>60850</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8772,11 +8754,19 @@
         <v>-176.02709426</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I253" t="n">
+        <v>60450</v>
+      </c>
+      <c r="J253" t="n">
+        <v>60850</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8805,11 +8795,19 @@
         <v>-174.84327781</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I254" t="n">
+        <v>60300</v>
+      </c>
+      <c r="J254" t="n">
+        <v>60850</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8838,11 +8836,19 @@
         <v>-191.99677781</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I255" t="n">
+        <v>60450</v>
+      </c>
+      <c r="J255" t="n">
+        <v>60850</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8871,11 +8877,19 @@
         <v>-191.94787781</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I256" t="n">
+        <v>60200</v>
+      </c>
+      <c r="J256" t="n">
+        <v>60850</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -8904,11 +8918,19 @@
         <v>-191.93187781</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I257" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J257" t="n">
+        <v>60850</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -8937,11 +8959,19 @@
         <v>-191.37337781</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I258" t="n">
+        <v>60600</v>
+      </c>
+      <c r="J258" t="n">
+        <v>60850</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -8970,11 +9000,19 @@
         <v>-208.52687781</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I259" t="n">
+        <v>61000</v>
+      </c>
+      <c r="J259" t="n">
+        <v>60850</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9003,11 +9041,19 @@
         <v>-208.50997781</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I260" t="n">
+        <v>60850</v>
+      </c>
+      <c r="J260" t="n">
+        <v>60850</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9036,11 +9082,19 @@
         <v>-208.50997781</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I261" t="n">
+        <v>61200</v>
+      </c>
+      <c r="J261" t="n">
+        <v>60850</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9069,11 +9123,19 @@
         <v>-209.50997781</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I262" t="n">
+        <v>61200</v>
+      </c>
+      <c r="J262" t="n">
+        <v>60850</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9102,11 +9164,19 @@
         <v>-210.15997781</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I263" t="n">
+        <v>61150</v>
+      </c>
+      <c r="J263" t="n">
+        <v>60850</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9135,11 +9205,19 @@
         <v>-64.07947781000004</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I264" t="n">
+        <v>60950</v>
+      </c>
+      <c r="J264" t="n">
+        <v>60850</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9168,11 +9246,19 @@
         <v>-107.89117781</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I265" t="n">
+        <v>61250</v>
+      </c>
+      <c r="J265" t="n">
+        <v>60850</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9201,11 +9287,19 @@
         <v>-107.57267781</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
+        <v>61200</v>
+      </c>
+      <c r="J266" t="n">
+        <v>60850</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9234,11 +9328,19 @@
         <v>-107.57267781</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
+        <v>61300</v>
+      </c>
+      <c r="J267" t="n">
+        <v>60850</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9267,11 +9369,19 @@
         <v>-102.20097781</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I268" t="n">
+        <v>61300</v>
+      </c>
+      <c r="J268" t="n">
+        <v>60850</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9303,8 +9413,14 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>60850</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9336,8 +9452,14 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>60850</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9366,11 +9488,19 @@
         <v>-139.77267781</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I271" t="n">
+        <v>61200</v>
+      </c>
+      <c r="J271" t="n">
+        <v>60850</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9402,8 +9532,14 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>60850</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2020-01-22 BackTest ZEC.xlsx
+++ b/BackTest/2020-01-22 BackTest ZEC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M272"/>
+  <dimension ref="A1:L272"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>0.1632</v>
       </c>
       <c r="G2" t="n">
-        <v>193.49702064</v>
-      </c>
-      <c r="H2" t="n">
         <v>2</v>
       </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>0.0408</v>
       </c>
       <c r="G3" t="n">
-        <v>193.45622064</v>
-      </c>
-      <c r="H3" t="n">
         <v>2</v>
       </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>1.0673</v>
       </c>
       <c r="G4" t="n">
-        <v>192.38892064</v>
-      </c>
-      <c r="H4" t="n">
         <v>2</v>
       </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>0.03018533</v>
       </c>
       <c r="G5" t="n">
-        <v>192.41910597</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>2.2732</v>
       </c>
       <c r="G6" t="n">
-        <v>192.41910597</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>3.216e-05</v>
       </c>
       <c r="G7" t="n">
-        <v>192.41907381</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>12.9233</v>
       </c>
       <c r="G8" t="n">
-        <v>192.41907381</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>0.9859</v>
       </c>
       <c r="G9" t="n">
-        <v>193.40497381</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>0.0001</v>
       </c>
       <c r="G10" t="n">
-        <v>193.40497381</v>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>124.0433</v>
       </c>
       <c r="G11" t="n">
-        <v>193.40497381</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>59</v>
       </c>
       <c r="G12" t="n">
-        <v>193.40497381</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>1.2518</v>
       </c>
       <c r="G13" t="n">
-        <v>194.65677381</v>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>2.3326</v>
       </c>
       <c r="G14" t="n">
-        <v>192.32417381</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>0.4686</v>
       </c>
       <c r="G15" t="n">
-        <v>192.32417381</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>0.85</v>
       </c>
       <c r="G16" t="n">
-        <v>191.47417381</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>192.47417381</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>53.1039</v>
       </c>
       <c r="G18" t="n">
-        <v>139.37027381</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>9.755100000000001</v>
       </c>
       <c r="G19" t="n">
-        <v>139.37027381</v>
-      </c>
-      <c r="H19" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>46.1705</v>
       </c>
       <c r="G20" t="n">
-        <v>93.19977381000001</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>0.66</v>
       </c>
       <c r="G21" t="n">
-        <v>93.85977381000001</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>4.4073</v>
       </c>
       <c r="G22" t="n">
-        <v>89.45247381</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>4.4074</v>
       </c>
       <c r="G23" t="n">
-        <v>85.04507381000001</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>0.6999</v>
       </c>
       <c r="G24" t="n">
-        <v>85.74497381</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>0.0158</v>
       </c>
       <c r="G25" t="n">
-        <v>85.72917381000001</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>10.4301</v>
       </c>
       <c r="G26" t="n">
-        <v>75.29907381000001</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>5.6</v>
       </c>
       <c r="G27" t="n">
-        <v>80.89907381</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>7.1</v>
       </c>
       <c r="G28" t="n">
-        <v>73.79907381000001</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>15.5336</v>
       </c>
       <c r="G29" t="n">
-        <v>89.33267381000002</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>0.55</v>
       </c>
       <c r="G30" t="n">
-        <v>89.88267381000001</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>1.5898</v>
       </c>
       <c r="G31" t="n">
-        <v>91.47247381000001</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>2.8</v>
       </c>
       <c r="G32" t="n">
-        <v>94.27247381000001</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>0.5692</v>
       </c>
       <c r="G33" t="n">
-        <v>94.84167381</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>0.4286</v>
       </c>
       <c r="G34" t="n">
-        <v>95.27027381000001</v>
-      </c>
-      <c r="H34" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>6.875</v>
       </c>
       <c r="G35" t="n">
-        <v>88.39527381000001</v>
-      </c>
-      <c r="H35" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>0.3065</v>
       </c>
       <c r="G36" t="n">
-        <v>88.70177381000001</v>
-      </c>
-      <c r="H36" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>0.285</v>
       </c>
       <c r="G37" t="n">
-        <v>88.98677381</v>
-      </c>
-      <c r="H37" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>0.8108</v>
       </c>
       <c r="G38" t="n">
-        <v>88.17597381</v>
-      </c>
-      <c r="H38" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>0.9164</v>
       </c>
       <c r="G39" t="n">
-        <v>88.17597381</v>
-      </c>
-      <c r="H39" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>0.7935</v>
       </c>
       <c r="G40" t="n">
-        <v>87.38247381000001</v>
-      </c>
-      <c r="H40" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>9.3833</v>
       </c>
       <c r="G41" t="n">
-        <v>77.99917381</v>
-      </c>
-      <c r="H41" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>0.0001</v>
       </c>
       <c r="G42" t="n">
-        <v>77.99917381</v>
-      </c>
-      <c r="H42" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>6.8251</v>
       </c>
       <c r="G43" t="n">
-        <v>71.17407381</v>
-      </c>
-      <c r="H43" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>1.1273</v>
       </c>
       <c r="G44" t="n">
-        <v>70.04677380999999</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>0.9784</v>
       </c>
       <c r="G45" t="n">
-        <v>71.02517380999998</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>0.1965</v>
       </c>
       <c r="G46" t="n">
-        <v>71.02517380999998</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>3.8794</v>
       </c>
       <c r="G47" t="n">
-        <v>74.90457380999999</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>5.19780095</v>
       </c>
       <c r="G48" t="n">
-        <v>74.90457380999999</v>
-      </c>
-      <c r="H48" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>0.8751</v>
       </c>
       <c r="G49" t="n">
-        <v>74.90457380999999</v>
-      </c>
-      <c r="H49" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>3.9823</v>
       </c>
       <c r="G50" t="n">
-        <v>74.90457380999999</v>
-      </c>
-      <c r="H50" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>0.31888119</v>
       </c>
       <c r="G51" t="n">
-        <v>75.22345499999999</v>
-      </c>
-      <c r="H51" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>2.7435</v>
       </c>
       <c r="G52" t="n">
-        <v>72.47995499999999</v>
-      </c>
-      <c r="H52" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>5</v>
       </c>
       <c r="G53" t="n">
-        <v>67.47995499999999</v>
-      </c>
-      <c r="H53" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>10.79</v>
       </c>
       <c r="G54" t="n">
-        <v>67.47995499999999</v>
-      </c>
-      <c r="H54" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>6.5636</v>
       </c>
       <c r="G55" t="n">
-        <v>74.04355499999998</v>
-      </c>
-      <c r="H55" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>0.1952</v>
       </c>
       <c r="G56" t="n">
-        <v>74.04355499999998</v>
-      </c>
-      <c r="H56" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>0.3188</v>
       </c>
       <c r="G57" t="n">
-        <v>74.36235499999998</v>
-      </c>
-      <c r="H57" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>17.3518</v>
       </c>
       <c r="G58" t="n">
-        <v>57.01055499999998</v>
-      </c>
-      <c r="H58" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>11.0397</v>
       </c>
       <c r="G59" t="n">
-        <v>45.97085499999999</v>
-      </c>
-      <c r="H59" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>32.0803</v>
       </c>
       <c r="G60" t="n">
-        <v>13.89055499999998</v>
-      </c>
-      <c r="H60" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>15.4</v>
       </c>
       <c r="G61" t="n">
-        <v>29.29055499999998</v>
-      </c>
-      <c r="H61" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>0.1</v>
       </c>
       <c r="G62" t="n">
-        <v>29.39055499999998</v>
-      </c>
-      <c r="H62" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>1.1969</v>
       </c>
       <c r="G63" t="n">
-        <v>30.58745499999998</v>
-      </c>
-      <c r="H63" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>0.85</v>
       </c>
       <c r="G64" t="n">
-        <v>29.73745499999998</v>
-      </c>
-      <c r="H64" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>95.10850000000001</v>
       </c>
       <c r="G65" t="n">
-        <v>-65.37104500000002</v>
-      </c>
-      <c r="H65" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>5.4321</v>
       </c>
       <c r="G66" t="n">
-        <v>-65.37104500000002</v>
-      </c>
-      <c r="H66" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>8.2332</v>
       </c>
       <c r="G67" t="n">
-        <v>-73.60424500000002</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>59.0024</v>
       </c>
       <c r="G68" t="n">
-        <v>-73.60424500000002</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>24.5284</v>
       </c>
       <c r="G69" t="n">
-        <v>-73.60424500000002</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>24.5285</v>
       </c>
       <c r="G70" t="n">
-        <v>-73.60424500000002</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>8.2333</v>
       </c>
       <c r="G71" t="n">
-        <v>-81.83754500000002</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>63.3156</v>
       </c>
       <c r="G72" t="n">
-        <v>-81.83754500000002</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>2.5548</v>
       </c>
       <c r="G73" t="n">
-        <v>-81.83754500000002</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>1.8547</v>
       </c>
       <c r="G74" t="n">
-        <v>-79.98284500000003</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>0.8376</v>
       </c>
       <c r="G75" t="n">
-        <v>-80.82044500000002</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>19.6915</v>
       </c>
       <c r="G76" t="n">
-        <v>-100.511945</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>8.6114</v>
       </c>
       <c r="G77" t="n">
-        <v>-100.511945</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>16.1048</v>
       </c>
       <c r="G78" t="n">
-        <v>-100.511945</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>0.98</v>
       </c>
       <c r="G79" t="n">
-        <v>-99.53194500000002</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>11.3832</v>
       </c>
       <c r="G80" t="n">
-        <v>-88.14874500000002</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>7.6977</v>
       </c>
       <c r="G81" t="n">
-        <v>-80.45104500000002</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>0.0086</v>
       </c>
       <c r="G82" t="n">
-        <v>-80.45964500000002</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>0.4578</v>
       </c>
       <c r="G83" t="n">
-        <v>-80.91744500000003</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>1.5581</v>
       </c>
       <c r="G84" t="n">
-        <v>-80.91744500000003</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>2.7583</v>
       </c>
       <c r="G85" t="n">
-        <v>-78.15914500000002</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>1.1241</v>
       </c>
       <c r="G86" t="n">
-        <v>-78.15914500000002</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,15 @@
         <v>0.3506</v>
       </c>
       <c r="G87" t="n">
-        <v>-77.80854500000002</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3023,15 @@
         <v>5.042</v>
       </c>
       <c r="G88" t="n">
-        <v>-72.76654500000002</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3053,15 @@
         <v>0.0214</v>
       </c>
       <c r="G89" t="n">
-        <v>-72.76654500000002</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3083,15 @@
         <v>0.0043</v>
       </c>
       <c r="G90" t="n">
-        <v>-72.76654500000002</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3113,15 @@
         <v>10.8317</v>
       </c>
       <c r="G91" t="n">
-        <v>-61.93484500000002</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3143,15 @@
         <v>9.1683</v>
       </c>
       <c r="G92" t="n">
-        <v>-61.93484500000002</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3173,15 @@
         <v>0.0121</v>
       </c>
       <c r="G93" t="n">
-        <v>-61.94694500000002</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3203,15 @@
         <v>23.8</v>
       </c>
       <c r="G94" t="n">
-        <v>-38.14694500000002</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3233,15 @@
         <v>17.0586</v>
       </c>
       <c r="G95" t="n">
-        <v>-21.08834500000002</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3263,15 @@
         <v>8.570600000000001</v>
       </c>
       <c r="G96" t="n">
-        <v>-12.51774500000002</v>
-      </c>
-      <c r="H96" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3293,15 @@
         <v>4.2336</v>
       </c>
       <c r="G97" t="n">
-        <v>-12.51774500000002</v>
-      </c>
-      <c r="H97" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3323,15 @@
         <v>5.93</v>
       </c>
       <c r="G98" t="n">
-        <v>-18.44774500000002</v>
-      </c>
-      <c r="H98" t="n">
         <v>2</v>
       </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3353,15 @@
         <v>3.3373</v>
       </c>
       <c r="G99" t="n">
-        <v>-15.11044500000002</v>
-      </c>
-      <c r="H99" t="n">
         <v>2</v>
       </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3383,15 @@
         <v>0.0798722</v>
       </c>
       <c r="G100" t="n">
-        <v>-15.19031720000002</v>
-      </c>
-      <c r="H100" t="n">
         <v>2</v>
       </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3413,15 @@
         <v>3.0837</v>
       </c>
       <c r="G101" t="n">
-        <v>-12.10661720000002</v>
-      </c>
-      <c r="H101" t="n">
         <v>2</v>
       </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3443,15 @@
         <v>16</v>
       </c>
       <c r="G102" t="n">
-        <v>-28.10661720000002</v>
-      </c>
-      <c r="H102" t="n">
         <v>2</v>
       </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3473,15 @@
         <v>2.8195</v>
       </c>
       <c r="G103" t="n">
-        <v>-30.92611720000002</v>
-      </c>
-      <c r="H103" t="n">
         <v>2</v>
       </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3503,15 @@
         <v>1.8603</v>
       </c>
       <c r="G104" t="n">
-        <v>-32.78641720000002</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3533,15 @@
         <v>1.073</v>
       </c>
       <c r="G105" t="n">
-        <v>-33.85941720000002</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3563,15 @@
         <v>11.91</v>
       </c>
       <c r="G106" t="n">
-        <v>-45.76941720000002</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3593,15 @@
         <v>6.0374</v>
       </c>
       <c r="G107" t="n">
-        <v>-51.80681720000002</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3623,15 @@
         <v>11.9999</v>
       </c>
       <c r="G108" t="n">
-        <v>-39.80691720000002</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3653,15 @@
         <v>0.0001</v>
       </c>
       <c r="G109" t="n">
-        <v>-39.80691720000002</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3683,15 @@
         <v>2.0083</v>
       </c>
       <c r="G110" t="n">
-        <v>-41.81521720000001</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3713,15 @@
         <v>33.1003</v>
       </c>
       <c r="G111" t="n">
-        <v>-8.714917200000016</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3743,15 @@
         <v>9.1028</v>
       </c>
       <c r="G112" t="n">
-        <v>-8.714917200000016</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3773,15 @@
         <v>2</v>
       </c>
       <c r="G113" t="n">
-        <v>-10.71491720000002</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3803,15 @@
         <v>7.9805</v>
       </c>
       <c r="G114" t="n">
-        <v>-18.69541720000002</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3833,15 @@
         <v>12.9212</v>
       </c>
       <c r="G115" t="n">
-        <v>-31.61661720000001</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3863,15 @@
         <v>9.097799999999999</v>
       </c>
       <c r="G116" t="n">
-        <v>-31.61661720000001</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3893,15 @@
         <v>14.3581</v>
       </c>
       <c r="G117" t="n">
-        <v>-45.97471720000001</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +3923,15 @@
         <v>16.5585</v>
       </c>
       <c r="G118" t="n">
-        <v>-62.53321720000001</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +3953,15 @@
         <v>0.6263</v>
       </c>
       <c r="G119" t="n">
-        <v>-63.15951720000001</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +3983,15 @@
         <v>10.0029</v>
       </c>
       <c r="G120" t="n">
-        <v>-53.15661720000001</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4013,15 @@
         <v>9.9971</v>
       </c>
       <c r="G121" t="n">
-        <v>-53.15661720000001</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4043,15 @@
         <v>9.7568</v>
       </c>
       <c r="G122" t="n">
-        <v>-43.39981720000002</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4073,15 @@
         <v>3.3218</v>
       </c>
       <c r="G123" t="n">
-        <v>-46.72161720000002</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4103,15 @@
         <v>13.9922</v>
       </c>
       <c r="G124" t="n">
-        <v>-60.71381720000002</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4133,15 @@
         <v>1.0605</v>
       </c>
       <c r="G125" t="n">
-        <v>-60.71381720000002</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4163,15 @@
         <v>50</v>
       </c>
       <c r="G126" t="n">
-        <v>-60.71381720000002</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4193,19 @@
         <v>1.8769</v>
       </c>
       <c r="G127" t="n">
-        <v>-60.71381720000002</v>
+        <v>1</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
+        <v>60500</v>
+      </c>
+      <c r="I127" t="n">
+        <v>60500</v>
+      </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4227,23 @@
         <v>100</v>
       </c>
       <c r="G128" t="n">
-        <v>-60.71381720000002</v>
+        <v>1</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+        <v>60500</v>
+      </c>
+      <c r="I128" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4265,23 @@
         <v>1.0018</v>
       </c>
       <c r="G129" t="n">
-        <v>-59.71201720000002</v>
+        <v>1</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+        <v>60500</v>
+      </c>
+      <c r="I129" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4303,23 @@
         <v>12</v>
       </c>
       <c r="G130" t="n">
-        <v>-71.71201720000002</v>
+        <v>1</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+        <v>60700</v>
+      </c>
+      <c r="I130" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4341,21 @@
         <v>2.8196</v>
       </c>
       <c r="G131" t="n">
-        <v>-68.89241720000003</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4377,21 @@
         <v>3.6922</v>
       </c>
       <c r="G132" t="n">
-        <v>-68.89241720000003</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4413,21 @@
         <v>0.541</v>
       </c>
       <c r="G133" t="n">
-        <v>-68.89241720000003</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4449,21 @@
         <v>4.7668</v>
       </c>
       <c r="G134" t="n">
-        <v>-68.89241720000003</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4485,21 @@
         <v>5</v>
       </c>
       <c r="G135" t="n">
-        <v>-63.89241720000003</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4521,21 @@
         <v>1.4814</v>
       </c>
       <c r="G136" t="n">
-        <v>-63.89241720000003</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4557,21 @@
         <v>2.4486</v>
       </c>
       <c r="G137" t="n">
-        <v>-63.89241720000003</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4593,21 @@
         <v>12.0584</v>
       </c>
       <c r="G138" t="n">
-        <v>-75.95081720000003</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4629,21 @@
         <v>32.3716</v>
       </c>
       <c r="G139" t="n">
-        <v>-43.57921720000003</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4665,21 @@
         <v>48.9085</v>
       </c>
       <c r="G140" t="n">
-        <v>-43.57921720000003</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +4701,23 @@
         <v>173.39</v>
       </c>
       <c r="G141" t="n">
-        <v>-43.57921720000003</v>
+        <v>1</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+        <v>60300</v>
+      </c>
+      <c r="I141" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +4739,23 @@
         <v>1.3774</v>
       </c>
       <c r="G142" t="n">
-        <v>-44.95661720000003</v>
+        <v>1</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+        <v>60300</v>
+      </c>
+      <c r="I142" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +4777,23 @@
         <v>0.2408</v>
       </c>
       <c r="G143" t="n">
-        <v>-44.95661720000003</v>
+        <v>1</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+        <v>60200</v>
+      </c>
+      <c r="I143" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +4815,21 @@
         <v>1.8769</v>
       </c>
       <c r="G144" t="n">
-        <v>-43.07971720000003</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +4851,21 @@
         <v>2.3485</v>
       </c>
       <c r="G145" t="n">
-        <v>-43.07971720000003</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +4887,21 @@
         <v>12.5112</v>
       </c>
       <c r="G146" t="n">
-        <v>-55.59091720000004</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +4923,21 @@
         <v>18.1943</v>
       </c>
       <c r="G147" t="n">
-        <v>-37.39661720000004</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +4959,21 @@
         <v>2.1932</v>
       </c>
       <c r="G148" t="n">
-        <v>-37.39661720000004</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +4995,21 @@
         <v>0.2987</v>
       </c>
       <c r="G149" t="n">
-        <v>-37.09791720000004</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +5031,21 @@
         <v>52.9</v>
       </c>
       <c r="G150" t="n">
-        <v>-89.99791720000005</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +5067,21 @@
         <v>23.6848</v>
       </c>
       <c r="G151" t="n">
-        <v>-89.99791720000005</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,18 +5103,21 @@
         <v>8.327999999999999</v>
       </c>
       <c r="G152" t="n">
-        <v>-89.99791720000005</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5431,18 +5139,21 @@
         <v>2.0354</v>
       </c>
       <c r="G153" t="n">
-        <v>-87.96251720000005</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5464,18 +5175,21 @@
         <v>0.4644</v>
       </c>
       <c r="G154" t="n">
-        <v>-87.96251720000005</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5497,18 +5211,21 @@
         <v>8.146699999999999</v>
       </c>
       <c r="G155" t="n">
-        <v>-87.96251720000005</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5530,18 +5247,21 @@
         <v>0.0137</v>
       </c>
       <c r="G156" t="n">
-        <v>-87.96251720000005</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5563,18 +5283,21 @@
         <v>0.1653</v>
       </c>
       <c r="G157" t="n">
-        <v>-87.96251720000005</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5596,18 +5319,21 @@
         <v>4.0971</v>
       </c>
       <c r="G158" t="n">
-        <v>-87.96251720000005</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5629,18 +5355,21 @@
         <v>6.3108</v>
       </c>
       <c r="G159" t="n">
-        <v>-94.27331720000005</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5662,18 +5391,21 @@
         <v>26.6914</v>
       </c>
       <c r="G160" t="n">
-        <v>-94.27331720000005</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5695,18 +5427,21 @@
         <v>0.0492</v>
       </c>
       <c r="G161" t="n">
-        <v>-94.32251720000005</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5728,18 +5463,21 @@
         <v>3.0492</v>
       </c>
       <c r="G162" t="n">
-        <v>-91.27331720000005</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5761,18 +5499,21 @@
         <v>3</v>
       </c>
       <c r="G163" t="n">
-        <v>-91.27331720000005</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5794,18 +5535,21 @@
         <v>4</v>
       </c>
       <c r="G164" t="n">
-        <v>-87.27331720000005</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5827,18 +5571,21 @@
         <v>4.041</v>
       </c>
       <c r="G165" t="n">
-        <v>-91.31431720000005</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5860,18 +5607,21 @@
         <v>0.0328</v>
       </c>
       <c r="G166" t="n">
-        <v>-91.34711720000004</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
+      <c r="I166" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5893,18 +5643,21 @@
         <v>0.0328</v>
       </c>
       <c r="G167" t="n">
-        <v>-91.34711720000004</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
+      <c r="I167" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5926,18 +5679,21 @@
         <v>0.0246</v>
       </c>
       <c r="G168" t="n">
-        <v>-91.34711720000004</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
+      <c r="I168" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5959,18 +5715,21 @@
         <v>0.0328</v>
       </c>
       <c r="G169" t="n">
-        <v>-91.34711720000004</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
+      <c r="I169" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -5992,18 +5751,21 @@
         <v>0.041</v>
       </c>
       <c r="G170" t="n">
-        <v>-91.34711720000004</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
+      <c r="I170" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6025,18 +5787,21 @@
         <v>61632</v>
       </c>
       <c r="G171" t="n">
-        <v>-91.34711720000004</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6058,18 +5823,21 @@
         <v>9.065300000000001</v>
       </c>
       <c r="G172" t="n">
-        <v>-82.28181720000003</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6091,18 +5859,21 @@
         <v>40.7938</v>
       </c>
       <c r="G173" t="n">
-        <v>-82.28181720000003</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6124,18 +5895,21 @@
         <v>4.518</v>
       </c>
       <c r="G174" t="n">
-        <v>-82.28181720000003</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
+      <c r="I174" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6157,18 +5931,21 @@
         <v>3.2992</v>
       </c>
       <c r="G175" t="n">
-        <v>-78.98261720000004</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
+      <c r="I175" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6190,18 +5967,21 @@
         <v>31.469</v>
       </c>
       <c r="G176" t="n">
-        <v>-47.51361720000003</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
+      <c r="I176" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6223,18 +6003,21 @@
         <v>107.056</v>
       </c>
       <c r="G177" t="n">
-        <v>59.54238279999996</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6256,18 +6039,21 @@
         <v>0.1661</v>
       </c>
       <c r="G178" t="n">
-        <v>59.54238279999996</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
+      <c r="I178" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6289,18 +6075,21 @@
         <v>6</v>
       </c>
       <c r="G179" t="n">
-        <v>53.54238279999996</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
+      <c r="I179" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6322,18 +6111,21 @@
         <v>7.7754</v>
       </c>
       <c r="G180" t="n">
-        <v>45.76698279999997</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
+      <c r="I180" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6355,18 +6147,21 @@
         <v>0.0233</v>
       </c>
       <c r="G181" t="n">
-        <v>45.76698279999997</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6388,18 +6183,21 @@
         <v>1.6178</v>
       </c>
       <c r="G182" t="n">
-        <v>44.14918279999996</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6421,18 +6219,21 @@
         <v>2.0912</v>
       </c>
       <c r="G183" t="n">
-        <v>44.14918279999996</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6454,18 +6255,21 @@
         <v>0.408</v>
       </c>
       <c r="G184" t="n">
-        <v>43.74118279999996</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6487,18 +6291,21 @@
         <v>2.1905</v>
       </c>
       <c r="G185" t="n">
-        <v>43.74118279999996</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
+      <c r="I185" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6520,18 +6327,21 @@
         <v>0.5038</v>
       </c>
       <c r="G186" t="n">
-        <v>43.74118279999996</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
+      <c r="I186" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6553,18 +6363,21 @@
         <v>0.0138</v>
       </c>
       <c r="G187" t="n">
-        <v>43.72738279999996</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
+      <c r="I187" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6586,18 +6399,21 @@
         <v>1.5677</v>
       </c>
       <c r="G188" t="n">
-        <v>43.72738279999996</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
+      <c r="I188" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6619,18 +6435,21 @@
         <v>0.8325</v>
       </c>
       <c r="G189" t="n">
-        <v>42.89488279999996</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
+      <c r="I189" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6652,18 +6471,23 @@
         <v>19.1675</v>
       </c>
       <c r="G190" t="n">
-        <v>42.89488279999996</v>
+        <v>1</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+        <v>60350</v>
+      </c>
+      <c r="I190" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6685,18 +6509,23 @@
         <v>6.6304</v>
       </c>
       <c r="G191" t="n">
-        <v>49.52528279999996</v>
+        <v>1</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+        <v>60350</v>
+      </c>
+      <c r="I191" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6718,18 +6547,23 @@
         <v>0.067</v>
       </c>
       <c r="G192" t="n">
-        <v>49.52528279999996</v>
+        <v>1</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+        <v>60600</v>
+      </c>
+      <c r="I192" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6751,18 +6585,23 @@
         <v>4.3171</v>
       </c>
       <c r="G193" t="n">
-        <v>49.52528279999996</v>
+        <v>1</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+        <v>60600</v>
+      </c>
+      <c r="I193" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6784,18 +6623,23 @@
         <v>33.0873</v>
       </c>
       <c r="G194" t="n">
-        <v>16.43798279999996</v>
+        <v>1</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+        <v>60600</v>
+      </c>
+      <c r="I194" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -6817,18 +6661,23 @@
         <v>0.8395</v>
       </c>
       <c r="G195" t="n">
-        <v>16.43798279999996</v>
+        <v>1</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+        <v>60500</v>
+      </c>
+      <c r="I195" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -6850,18 +6699,23 @@
         <v>5.55</v>
       </c>
       <c r="G196" t="n">
-        <v>21.98798279999996</v>
+        <v>1</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+        <v>60500</v>
+      </c>
+      <c r="I196" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -6883,18 +6737,21 @@
         <v>1.3443</v>
       </c>
       <c r="G197" t="n">
-        <v>20.64368279999996</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
+      <c r="I197" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -6916,18 +6773,23 @@
         <v>14.4657</v>
       </c>
       <c r="G198" t="n">
-        <v>20.64368279999996</v>
+        <v>1</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+        <v>60200</v>
+      </c>
+      <c r="I198" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -6949,18 +6811,23 @@
         <v>35.2191</v>
       </c>
       <c r="G199" t="n">
-        <v>20.64368279999996</v>
+        <v>1</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+        <v>60200</v>
+      </c>
+      <c r="I199" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -6982,18 +6849,23 @@
         <v>86.1614</v>
       </c>
       <c r="G200" t="n">
-        <v>-65.51771720000005</v>
+        <v>1</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+        <v>60200</v>
+      </c>
+      <c r="I200" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7015,18 +6887,23 @@
         <v>12.7</v>
       </c>
       <c r="G201" t="n">
-        <v>-65.51771720000005</v>
+        <v>1</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+        <v>60100</v>
+      </c>
+      <c r="I201" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7048,18 +6925,23 @@
         <v>195.3013</v>
       </c>
       <c r="G202" t="n">
-        <v>-65.51771720000005</v>
+        <v>1</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+        <v>60100</v>
+      </c>
+      <c r="I202" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7081,18 +6963,23 @@
         <v>29.2777</v>
       </c>
       <c r="G203" t="n">
-        <v>-36.24001720000005</v>
+        <v>1</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+        <v>60100</v>
+      </c>
+      <c r="I203" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7114,18 +7001,23 @@
         <v>9.619300000000001</v>
       </c>
       <c r="G204" t="n">
-        <v>-45.85931720000006</v>
+        <v>1</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+        <v>60150</v>
+      </c>
+      <c r="I204" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7147,18 +7039,23 @@
         <v>0.0171</v>
       </c>
       <c r="G205" t="n">
-        <v>-45.84221720000006</v>
+        <v>1</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+        <v>60100</v>
+      </c>
+      <c r="I205" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7180,18 +7077,23 @@
         <v>12.4221</v>
       </c>
       <c r="G206" t="n">
-        <v>-58.26431720000006</v>
+        <v>1</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+        <v>60350</v>
+      </c>
+      <c r="I206" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7213,18 +7115,23 @@
         <v>115.7514</v>
       </c>
       <c r="G207" t="n">
-        <v>-58.26431720000006</v>
+        <v>1</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+        <v>60150</v>
+      </c>
+      <c r="I207" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7246,18 +7153,23 @@
         <v>123.1377</v>
       </c>
       <c r="G208" t="n">
-        <v>-181.4020172</v>
+        <v>1</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+        <v>60150</v>
+      </c>
+      <c r="I208" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7279,18 +7191,23 @@
         <v>0.008699999999999999</v>
       </c>
       <c r="G209" t="n">
-        <v>-181.4020172</v>
+        <v>1</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+        <v>59900</v>
+      </c>
+      <c r="I209" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7312,18 +7229,23 @@
         <v>0.0086</v>
       </c>
       <c r="G210" t="n">
-        <v>-181.3934172</v>
+        <v>1</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+        <v>59900</v>
+      </c>
+      <c r="I210" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7345,18 +7267,23 @@
         <v>2.5271</v>
       </c>
       <c r="G211" t="n">
-        <v>-181.3934172</v>
+        <v>1</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+        <v>60300</v>
+      </c>
+      <c r="I211" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7378,18 +7305,23 @@
         <v>0.74</v>
       </c>
       <c r="G212" t="n">
-        <v>-180.6534172</v>
+        <v>1</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+        <v>60300</v>
+      </c>
+      <c r="I212" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7411,18 +7343,23 @@
         <v>3.07593569</v>
       </c>
       <c r="G213" t="n">
-        <v>-180.6534172</v>
+        <v>1</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+        <v>60650</v>
+      </c>
+      <c r="I213" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7444,18 +7381,21 @@
         <v>0.8364</v>
       </c>
       <c r="G214" t="n">
-        <v>-181.4898172</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
+      <c r="I214" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7477,18 +7417,21 @@
         <v>0.8349</v>
       </c>
       <c r="G215" t="n">
-        <v>-181.4898172</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
+      <c r="I215" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7510,18 +7453,23 @@
         <v>14.2445</v>
       </c>
       <c r="G216" t="n">
-        <v>-195.7343172</v>
+        <v>1</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+        <v>60350</v>
+      </c>
+      <c r="I216" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7543,18 +7491,23 @@
         <v>3</v>
       </c>
       <c r="G217" t="n">
-        <v>-192.7343172</v>
+        <v>1</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+        <v>60200</v>
+      </c>
+      <c r="I217" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7576,18 +7529,23 @@
         <v>1.9632</v>
       </c>
       <c r="G218" t="n">
-        <v>-190.7711172</v>
+        <v>1</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+        <v>60300</v>
+      </c>
+      <c r="I218" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7609,18 +7567,21 @@
         <v>4.1662</v>
       </c>
       <c r="G219" t="n">
-        <v>-190.7711172</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
+      <c r="I219" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7642,18 +7603,21 @@
         <v>1.8372</v>
       </c>
       <c r="G220" t="n">
-        <v>-190.7711172</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
+      <c r="I220" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -7675,18 +7639,21 @@
         <v>4.1309</v>
       </c>
       <c r="G221" t="n">
-        <v>-186.6402172</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
+      <c r="I221" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -7708,18 +7675,21 @@
         <v>0.4441</v>
       </c>
       <c r="G222" t="n">
-        <v>-187.0843172</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
+      <c r="I222" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -7741,18 +7711,21 @@
         <v>13.0975</v>
       </c>
       <c r="G223" t="n">
-        <v>-187.0843172</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
+      <c r="I223" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -7774,18 +7747,23 @@
         <v>0.1339</v>
       </c>
       <c r="G224" t="n">
-        <v>-186.9504172</v>
+        <v>1</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+        <v>60050</v>
+      </c>
+      <c r="I224" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -7807,18 +7785,21 @@
         <v>0.8661</v>
       </c>
       <c r="G225" t="n">
-        <v>-186.9504172</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
+      <c r="I225" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -7840,18 +7821,21 @@
         <v>0.97</v>
       </c>
       <c r="G226" t="n">
-        <v>-186.9504172</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
+      <c r="I226" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -7873,18 +7857,21 @@
         <v>0.5765</v>
       </c>
       <c r="G227" t="n">
-        <v>-186.9504172</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
+      <c r="I227" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -7906,18 +7893,21 @@
         <v>1.2733</v>
       </c>
       <c r="G228" t="n">
-        <v>-185.6771172</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
+      <c r="I228" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -7939,18 +7929,21 @@
         <v>18.7267</v>
       </c>
       <c r="G229" t="n">
-        <v>-185.6771172</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
+      <c r="I229" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -7972,18 +7965,21 @@
         <v>3.2544</v>
       </c>
       <c r="G230" t="n">
-        <v>-182.4227172</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
+      <c r="I230" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8005,18 +8001,21 @@
         <v>18.3163</v>
       </c>
       <c r="G231" t="n">
-        <v>-182.4227172</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
+      <c r="I231" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8038,18 +8037,21 @@
         <v>32.8255</v>
       </c>
       <c r="G232" t="n">
-        <v>-149.5972172</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
+      <c r="I232" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8071,18 +8073,21 @@
         <v>7.9625</v>
       </c>
       <c r="G233" t="n">
-        <v>-149.5972172</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
+      <c r="I233" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8104,18 +8109,21 @@
         <v>14.9788</v>
       </c>
       <c r="G234" t="n">
-        <v>-149.5972172</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
+      <c r="I234" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8137,18 +8145,21 @@
         <v>4.1961</v>
       </c>
       <c r="G235" t="n">
-        <v>-145.4011172</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
+      <c r="I235" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8170,18 +8181,21 @@
         <v>14.317</v>
       </c>
       <c r="G236" t="n">
-        <v>-159.7181172</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
+      <c r="I236" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8203,18 +8217,21 @@
         <v>1.5938</v>
       </c>
       <c r="G237" t="n">
-        <v>-158.1243172</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
+      <c r="I237" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8236,18 +8253,21 @@
         <v>4.2822</v>
       </c>
       <c r="G238" t="n">
-        <v>-158.1243172</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
+      <c r="I238" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8269,18 +8289,21 @@
         <v>14.991</v>
       </c>
       <c r="G239" t="n">
-        <v>-143.1333172</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
+      <c r="I239" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8302,18 +8325,21 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G240" t="n">
-        <v>-143.1333172</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
+      <c r="I240" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8335,18 +8361,21 @@
         <v>13.61413853</v>
       </c>
       <c r="G241" t="n">
-        <v>-156.74745573</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
+      <c r="I241" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -8368,18 +8397,21 @@
         <v>13.5032</v>
       </c>
       <c r="G242" t="n">
-        <v>-156.74745573</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
+      <c r="I242" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -8401,18 +8433,21 @@
         <v>0.02216147</v>
       </c>
       <c r="G243" t="n">
-        <v>-156.72529426</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
+      <c r="I243" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -8434,18 +8469,21 @@
         <v>0.0165</v>
       </c>
       <c r="G244" t="n">
-        <v>-156.70879426</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
+      <c r="I244" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -8467,18 +8505,21 @@
         <v>1.2643</v>
       </c>
       <c r="G245" t="n">
-        <v>-156.70879426</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
+      <c r="I245" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -8500,18 +8541,21 @@
         <v>0.8401999999999999</v>
       </c>
       <c r="G246" t="n">
-        <v>-156.70879426</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
+      <c r="I246" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -8533,18 +8577,21 @@
         <v>3.1893</v>
       </c>
       <c r="G247" t="n">
-        <v>-156.70879426</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
+      <c r="I247" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -8566,18 +8613,21 @@
         <v>0.4025</v>
       </c>
       <c r="G248" t="n">
-        <v>-156.70879426</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
+      <c r="I248" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -8599,18 +8649,21 @@
         <v>1.9386</v>
       </c>
       <c r="G249" t="n">
-        <v>-158.64739426</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
+      <c r="I249" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -8632,22 +8685,21 @@
         <v>15.3797</v>
       </c>
       <c r="G250" t="n">
-        <v>-174.02709426</v>
-      </c>
-      <c r="H250" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
       <c r="I250" t="n">
-        <v>60850</v>
-      </c>
-      <c r="J250" t="n">
-        <v>60850</v>
-      </c>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+        <v>60500</v>
+      </c>
+      <c r="J250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -8669,26 +8721,21 @@
         <v>0.263</v>
       </c>
       <c r="G251" t="n">
-        <v>-174.02709426</v>
-      </c>
-      <c r="H251" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
       <c r="I251" t="n">
-        <v>60450</v>
-      </c>
-      <c r="J251" t="n">
-        <v>60850</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+        <v>60500</v>
+      </c>
+      <c r="J251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -8710,26 +8757,21 @@
         <v>0.0373</v>
       </c>
       <c r="G252" t="n">
-        <v>-174.02709426</v>
-      </c>
-      <c r="H252" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
       <c r="I252" t="n">
-        <v>60450</v>
-      </c>
-      <c r="J252" t="n">
-        <v>60850</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+        <v>60500</v>
+      </c>
+      <c r="J252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -8751,26 +8793,21 @@
         <v>2</v>
       </c>
       <c r="G253" t="n">
-        <v>-176.02709426</v>
-      </c>
-      <c r="H253" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
       <c r="I253" t="n">
-        <v>60450</v>
-      </c>
-      <c r="J253" t="n">
-        <v>60850</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+        <v>60500</v>
+      </c>
+      <c r="J253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -8792,26 +8829,21 @@
         <v>1.18381645</v>
       </c>
       <c r="G254" t="n">
-        <v>-174.84327781</v>
-      </c>
-      <c r="H254" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
       <c r="I254" t="n">
-        <v>60300</v>
-      </c>
-      <c r="J254" t="n">
-        <v>60850</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+        <v>60500</v>
+      </c>
+      <c r="J254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -8833,26 +8865,21 @@
         <v>17.1535</v>
       </c>
       <c r="G255" t="n">
-        <v>-191.99677781</v>
-      </c>
-      <c r="H255" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
       <c r="I255" t="n">
-        <v>60450</v>
-      </c>
-      <c r="J255" t="n">
-        <v>60850</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+        <v>60500</v>
+      </c>
+      <c r="J255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -8874,26 +8901,21 @@
         <v>0.0489</v>
       </c>
       <c r="G256" t="n">
-        <v>-191.94787781</v>
-      </c>
-      <c r="H256" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
       <c r="I256" t="n">
-        <v>60200</v>
-      </c>
-      <c r="J256" t="n">
-        <v>60850</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+        <v>60500</v>
+      </c>
+      <c r="J256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -8915,26 +8937,21 @@
         <v>0.016</v>
       </c>
       <c r="G257" t="n">
-        <v>-191.93187781</v>
-      </c>
-      <c r="H257" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
       <c r="I257" t="n">
         <v>60500</v>
       </c>
-      <c r="J257" t="n">
-        <v>60850</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+      <c r="J257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -8956,26 +8973,21 @@
         <v>0.5585</v>
       </c>
       <c r="G258" t="n">
-        <v>-191.37337781</v>
-      </c>
-      <c r="H258" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H258" t="inlineStr"/>
       <c r="I258" t="n">
-        <v>60600</v>
-      </c>
-      <c r="J258" t="n">
-        <v>60850</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
+        <v>60500</v>
+      </c>
+      <c r="J258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -8997,26 +9009,21 @@
         <v>17.1535</v>
       </c>
       <c r="G259" t="n">
-        <v>-208.52687781</v>
-      </c>
-      <c r="H259" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H259" t="inlineStr"/>
       <c r="I259" t="n">
-        <v>61000</v>
-      </c>
-      <c r="J259" t="n">
-        <v>60850</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
+        <v>60500</v>
+      </c>
+      <c r="J259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9038,26 +9045,21 @@
         <v>0.0169</v>
       </c>
       <c r="G260" t="n">
-        <v>-208.50997781</v>
-      </c>
-      <c r="H260" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H260" t="inlineStr"/>
       <c r="I260" t="n">
-        <v>60850</v>
-      </c>
-      <c r="J260" t="n">
-        <v>60850</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
+        <v>60500</v>
+      </c>
+      <c r="J260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9079,26 +9081,21 @@
         <v>2</v>
       </c>
       <c r="G261" t="n">
-        <v>-208.50997781</v>
-      </c>
-      <c r="H261" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H261" t="inlineStr"/>
       <c r="I261" t="n">
-        <v>61200</v>
-      </c>
-      <c r="J261" t="n">
-        <v>60850</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
+        <v>60500</v>
+      </c>
+      <c r="J261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9120,26 +9117,21 @@
         <v>1</v>
       </c>
       <c r="G262" t="n">
-        <v>-209.50997781</v>
-      </c>
-      <c r="H262" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H262" t="inlineStr"/>
       <c r="I262" t="n">
-        <v>61200</v>
-      </c>
-      <c r="J262" t="n">
-        <v>60850</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
+        <v>60500</v>
+      </c>
+      <c r="J262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9161,26 +9153,21 @@
         <v>0.65</v>
       </c>
       <c r="G263" t="n">
-        <v>-210.15997781</v>
-      </c>
-      <c r="H263" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H263" t="inlineStr"/>
       <c r="I263" t="n">
-        <v>61150</v>
-      </c>
-      <c r="J263" t="n">
-        <v>60850</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
+        <v>60500</v>
+      </c>
+      <c r="J263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9202,26 +9189,21 @@
         <v>146.0805</v>
       </c>
       <c r="G264" t="n">
-        <v>-64.07947781000004</v>
-      </c>
-      <c r="H264" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H264" t="inlineStr"/>
       <c r="I264" t="n">
-        <v>60950</v>
-      </c>
-      <c r="J264" t="n">
-        <v>60850</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
+        <v>60500</v>
+      </c>
+      <c r="J264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9243,26 +9225,21 @@
         <v>43.8117</v>
       </c>
       <c r="G265" t="n">
-        <v>-107.89117781</v>
-      </c>
-      <c r="H265" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H265" t="inlineStr"/>
       <c r="I265" t="n">
-        <v>61250</v>
-      </c>
-      <c r="J265" t="n">
-        <v>60850</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
+        <v>60500</v>
+      </c>
+      <c r="J265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K265" t="n">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -9284,26 +9261,21 @@
         <v>0.3185</v>
       </c>
       <c r="G266" t="n">
-        <v>-107.57267781</v>
-      </c>
-      <c r="H266" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H266" t="inlineStr"/>
       <c r="I266" t="n">
-        <v>61200</v>
-      </c>
-      <c r="J266" t="n">
-        <v>60850</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
+        <v>60500</v>
+      </c>
+      <c r="J266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K266" t="n">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -9325,26 +9297,21 @@
         <v>6.0521</v>
       </c>
       <c r="G267" t="n">
-        <v>-107.57267781</v>
-      </c>
-      <c r="H267" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H267" t="inlineStr"/>
       <c r="I267" t="n">
-        <v>61300</v>
-      </c>
-      <c r="J267" t="n">
-        <v>60850</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
+        <v>60500</v>
+      </c>
+      <c r="J267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K267" t="n">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -9366,26 +9333,21 @@
         <v>5.3717</v>
       </c>
       <c r="G268" t="n">
-        <v>-102.20097781</v>
-      </c>
-      <c r="H268" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H268" t="inlineStr"/>
       <c r="I268" t="n">
-        <v>61300</v>
-      </c>
-      <c r="J268" t="n">
-        <v>60850</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
+        <v>60500</v>
+      </c>
+      <c r="J268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K268" t="n">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -9407,24 +9369,21 @@
         <v>32.2</v>
       </c>
       <c r="G269" t="n">
-        <v>-134.40097781</v>
-      </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>60850</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H269" t="inlineStr"/>
+      <c r="I269" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K269" t="n">
+        <v>1</v>
+      </c>
+      <c r="L269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -9446,24 +9405,21 @@
         <v>1.94</v>
       </c>
       <c r="G270" t="n">
-        <v>-136.34097781</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>60850</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H270" t="inlineStr"/>
+      <c r="I270" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K270" t="n">
+        <v>1</v>
+      </c>
+      <c r="L270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -9485,26 +9441,21 @@
         <v>3.4317</v>
       </c>
       <c r="G271" t="n">
-        <v>-139.77267781</v>
-      </c>
-      <c r="H271" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H271" t="inlineStr"/>
       <c r="I271" t="n">
-        <v>61200</v>
-      </c>
-      <c r="J271" t="n">
-        <v>60850</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
+        <v>60500</v>
+      </c>
+      <c r="J271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K271" t="n">
+        <v>1</v>
+      </c>
+      <c r="L271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -9526,24 +9477,21 @@
         <v>1.2643</v>
       </c>
       <c r="G272" t="n">
-        <v>-138.50837781</v>
-      </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>60850</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H272" t="inlineStr"/>
+      <c r="I272" t="n">
+        <v>60500</v>
+      </c>
+      <c r="J272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K272" t="n">
+        <v>1</v>
+      </c>
+      <c r="L272" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
